--- a/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目管理\进度计划\Demo-里程碑8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑8/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38805" yWindow="465" windowWidth="27300" windowHeight="16515" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="580" windowWidth="35340" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20160106" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="437">
   <si>
     <t>类别</t>
   </si>
@@ -732,10 +732,6 @@
     <t>MG-1929</t>
   </si>
   <si>
-    <t>罗阳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>长期</t>
   </si>
   <si>
@@ -3455,12 +3451,6 @@
     <t>大冒险（连公会基地）</t>
   </si>
   <si>
-    <t>运营工具， 对程序需求</t>
-  </si>
-  <si>
-    <t>第一二章数值调优</t>
-  </si>
-  <si>
     <t>MT，小雪</t>
   </si>
   <si>
@@ -3495,33 +3485,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>登录系统功能测试</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>程序本周输出</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务界面ui</t>
-    <rPh sb="0" eb="1">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>huanbugong'nengdaichai'fen</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-1888</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务界面动画</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3577,10 +3545,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>客户端卡顿优化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>zz</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3632,6 +3596,385 @@
   <si>
     <t>小飞</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">九尾狐  </t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhangfu'bguai'wusuo'fangcai'zhitiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫芳</t>
+    <rPh sb="0" eb="1">
+      <t>sun'fan</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>整套动作-大树</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci'kehuo</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-宠物界面 levelup</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'ci'ke</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-宠物界面 合成</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'ci'ke</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章-垃圾桶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章-街道栏杆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章-花坛*2</t>
+    <rPh sb="0" eb="1">
+      <t>cun'luo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观细化</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhangchang'jingfa'bao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>sun'fan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-大冒险</t>
+    <rPh sb="3" eb="4">
+      <t>da'mao'xiandaipai'qi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会 - 科技Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙帆 </t>
+    <rPh sb="0" eb="1">
+      <t>dou'dou</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录系统用例走读</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新服务器调试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容测试</t>
+  </si>
+  <si>
+    <t>MG-2015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2056</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2057 MG-2058</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三到六章的小怪物设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一二章数值调优</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效需求整理-通用技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一二章副本技能音效文档</t>
+    <rPh sb="10" eb="11">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2059</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2060</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长数值验证/调试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石系统修改方案（锁孔问题）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2062</t>
+  </si>
+  <si>
+    <t>MG-2063</t>
+  </si>
+  <si>
+    <t>运营工具， 对程序需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-弱点图标读配置</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务-摆放搭建UI界面（奖励提示界面）</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2064</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2065</t>
+  </si>
+  <si>
+    <t>MG-2066</t>
+  </si>
+  <si>
+    <t>任务-做任务列表项的动画</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务-修改代码，以及与服务器联调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端卡顿优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2067</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2068</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2069</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MG-2033 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录系统功能测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2070</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2072</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2075</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2054</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-大冒险评审确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局演示</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主UI-图标</t>
+    <rPh sb="4" eb="5">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2076</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2078</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2079</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2082</t>
+  </si>
+  <si>
+    <t>MG-2085</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2086</t>
+  </si>
+  <si>
+    <t>MG-2087</t>
   </si>
 </sst>
 </file>
@@ -3784,18 +4127,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3898,7 +4235,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3979,24 +4316,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4007,9 +4326,107 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="68">
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -4046,40 +4463,8 @@
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4243,199 +4628,6 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4772,2706 +4964,2656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P278"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="39"/>
+    <col min="4" max="4" width="48.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17" style="39" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="39">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="C7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="C8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="H8" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="C15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F15" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="C16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="C17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="22">
+        <v>2</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="C18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="22">
+        <v>2</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="C19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="H19" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="C20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G6">
+      <c r="H20" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="C21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="22">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H21" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="C22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="C23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="22">
+        <v>2</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="D24" s="46"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="C26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>402</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="C27" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="C28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="39">
+        <v>2</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="39">
+        <v>2</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="C37" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="C38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="C39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="C42" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="C43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="D44" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="C45" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F48" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="E50" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G9">
+      <c r="G52" s="39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="H52" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="C53" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="G53" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="C54" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="C55" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="H55" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="C56" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="C18" s="14" t="s">
+      <c r="H56" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="C19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="C20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="C21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="D22" s="35"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="C24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="C25" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="C26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="C30" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="C33" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="C34" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="I34" s="39"/>
-    </row>
-    <row r="35" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="C35" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="39"/>
-    </row>
-    <row r="36" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="C37" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="D38" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="C39" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="39"/>
-    </row>
-    <row r="40" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-    </row>
-    <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-    </row>
-    <row r="42" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="C43" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="C44" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
-    </row>
-    <row r="46" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="C48" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="C49" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="47">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="C50" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="47">
-        <v>2</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="C51" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="F51" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
-      <c r="C52" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-    </row>
-    <row r="54" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="C55" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-    </row>
-    <row r="57" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>36</v>
-      </c>
       <c r="D58" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>90</v>
+        <v>415</v>
       </c>
       <c r="G58" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="C59" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F59" s="40" t="s">
+      <c r="H58" s="39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="48"/>
+    </row>
+    <row r="64" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="C66" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
+      <c r="C67" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="26">
+        <v>3</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+      <c r="C68" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26">
+        <v>2</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="C69" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="49">
+        <v>2</v>
+      </c>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="C70" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="26">
+        <v>3</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="C71" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="51">
+        <v>2</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="I71" s="49"/>
+    </row>
+    <row r="72" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="50"/>
+      <c r="B73" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="51">
+        <v>4</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="51">
+        <v>1</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+      <c r="B77" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="51">
+        <v>1</v>
+      </c>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50"/>
+      <c r="C78" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G78" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="I78" s="49"/>
+    </row>
+    <row r="79" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="50"/>
+      <c r="G79" s="51"/>
+      <c r="I79" s="49"/>
+    </row>
+    <row r="80" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="50"/>
+      <c r="B80" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" s="51"/>
+      <c r="I80" s="49"/>
+    </row>
+    <row r="81" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50"/>
+      <c r="G81" s="51"/>
+      <c r="I81" s="49"/>
+    </row>
+    <row r="82" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="50"/>
+      <c r="B82" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="83" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="50"/>
+      <c r="C83" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="C60" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="C61" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G61" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="C62" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="C63" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" s="39">
+      <c r="G83" s="51">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="C64" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" s="39">
+      <c r="H83" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="I83" s="49"/>
+    </row>
+    <row r="84" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="G84" s="51"/>
+      <c r="I84" s="49"/>
+    </row>
+    <row r="85" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="C65" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="C66" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" s="39">
+      <c r="H85" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="I85" s="49"/>
+    </row>
+    <row r="86" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="50"/>
+      <c r="C86" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="51">
+        <v>1</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="I86" s="49"/>
+    </row>
+    <row r="87" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="50"/>
+      <c r="C87" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" s="51">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="C67" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="C68" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-    </row>
-    <row r="69" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="C69" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="40">
-        <v>2</v>
-      </c>
-      <c r="H69" s="40"/>
-    </row>
-    <row r="70" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="C70" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-    </row>
-    <row r="71" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="C71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-    </row>
-    <row r="72" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="C72" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="40">
+      <c r="H87" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="I87" s="49"/>
+    </row>
+    <row r="88" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
+      <c r="C88" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G88" s="51">
         <v>3</v>
       </c>
-      <c r="H72" s="40"/>
-    </row>
-    <row r="73" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="C73" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" s="45">
-        <v>2</v>
-      </c>
-      <c r="I73" s="39"/>
-    </row>
-    <row r="74" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="D74" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G74" s="45"/>
-      <c r="I74" s="39"/>
-    </row>
-    <row r="75" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="D75" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="D76" s="40"/>
-    </row>
-    <row r="77" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" s="45">
-        <v>4</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="40"/>
-    </row>
-    <row r="79" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="E79" s="40" t="s">
+      <c r="H88" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I88" s="49"/>
+    </row>
+    <row r="89" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+      <c r="G89" s="51"/>
+      <c r="I89" s="49"/>
+    </row>
+    <row r="90" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
+      <c r="B90" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="51">
+        <v>1</v>
+      </c>
+      <c r="I90" s="49"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+    </row>
+    <row r="93" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+    </row>
+    <row r="94" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A94" s="42"/>
+      <c r="B94" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="53"/>
+    </row>
+    <row r="95" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="53"/>
+    </row>
+    <row r="96" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A96" s="42"/>
+      <c r="B96" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="53"/>
+    </row>
+    <row r="97" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="53"/>
+    </row>
+    <row r="98" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F98" s="40"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="53"/>
+    </row>
+    <row r="99" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="53"/>
+    </row>
+    <row r="100" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="53"/>
+    </row>
+    <row r="101" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="40"/>
+      <c r="D101" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+    </row>
+    <row r="102" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+    </row>
+    <row r="103" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="F79" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="45">
-        <v>2</v>
-      </c>
-      <c r="H79" s="40"/>
-    </row>
-    <row r="80" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="40"/>
-    </row>
-    <row r="81" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="E81" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" s="45">
-        <v>1</v>
-      </c>
-      <c r="H81" s="40"/>
-    </row>
-    <row r="82" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="C82" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="40" t="s">
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+    </row>
+    <row r="104" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45"/>
+    </row>
+    <row r="105" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+    </row>
+    <row r="106" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+    </row>
+    <row r="107" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+    </row>
+    <row r="108" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+    </row>
+    <row r="109" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+    </row>
+    <row r="110" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+    </row>
+    <row r="111" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
+    </row>
+    <row r="112" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="40"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="40"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
+    </row>
+    <row r="113" spans="1:15" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="58"/>
+      <c r="K113" s="40"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="40"/>
+      <c r="O113" s="40"/>
+    </row>
+    <row r="114" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G114" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H114" s="61"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="58"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="40"/>
+    </row>
+    <row r="115" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" s="61"/>
+      <c r="I115" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J115" s="58"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="40"/>
+    </row>
+    <row r="116" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="63"/>
+      <c r="F116" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H116" s="61"/>
+      <c r="I116" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="J116" s="58"/>
+      <c r="K116" s="40"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="40"/>
+      <c r="O116" s="40"/>
+    </row>
+    <row r="117" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="58"/>
+    </row>
+    <row r="118" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" s="56"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="58"/>
+    </row>
+    <row r="119" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="63"/>
+      <c r="D119" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E119" s="63"/>
+      <c r="F119" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G119" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H119" s="63"/>
+      <c r="I119" s="63"/>
+      <c r="J119" s="58"/>
+    </row>
+    <row r="120" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="63"/>
+      <c r="D120" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120" s="63"/>
+      <c r="F120" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G120" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H120" s="63"/>
+      <c r="I120" s="63"/>
+      <c r="J120" s="58"/>
+    </row>
+    <row r="121" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="63"/>
+      <c r="D121" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" s="63"/>
+      <c r="F121" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G121" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H121" s="63"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="58"/>
+    </row>
+    <row r="122" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="56"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" s="56"/>
+      <c r="I122" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J122" s="58"/>
+    </row>
+    <row r="123" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="63"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" s="63"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H123" s="63"/>
+      <c r="I123" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="J123" s="58"/>
+    </row>
+    <row r="124" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="63"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="63"/>
+      <c r="F124" s="65">
+        <v>42326</v>
+      </c>
+      <c r="G124" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J124" s="58"/>
+    </row>
+    <row r="125" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="63"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="63"/>
+      <c r="F125" s="65">
+        <v>42326</v>
+      </c>
+      <c r="G125" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H125" s="63"/>
+      <c r="I125" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J125" s="58"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="56"/>
+      <c r="F126" s="66">
+        <v>42354</v>
+      </c>
+      <c r="G126" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="I126" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="54"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" s="63"/>
+      <c r="F127" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G127" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H127" s="63"/>
+      <c r="I127" s="56"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="54"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="63"/>
+      <c r="F128" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="E82" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G82" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I82" s="39"/>
-    </row>
-    <row r="83" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="G83" s="45"/>
-      <c r="I83" s="39"/>
-    </row>
-    <row r="84" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="45"/>
-      <c r="I84" s="39"/>
-    </row>
-    <row r="85" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="G85" s="45"/>
-      <c r="I85" s="39"/>
-    </row>
-    <row r="86" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="E86" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F86" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I86" s="39"/>
-    </row>
-    <row r="87" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="C87" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F87" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="45">
-        <v>2</v>
-      </c>
-      <c r="I87" s="39"/>
-    </row>
-    <row r="88" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="C88" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F88" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="45">
-        <v>1.5</v>
-      </c>
-      <c r="I88" s="39"/>
-    </row>
-    <row r="89" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="C89" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" s="45">
-        <v>2</v>
-      </c>
-      <c r="I89" s="39"/>
-    </row>
-    <row r="90" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="C90" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="E90" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G90" s="45"/>
-      <c r="I90" s="39"/>
-    </row>
-    <row r="91" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="C91" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="G91" s="45"/>
-      <c r="I91" s="39"/>
-    </row>
-    <row r="92" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="G92" s="45"/>
-      <c r="I92" s="39"/>
-    </row>
-    <row r="93" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E93" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" s="45">
-        <v>1</v>
-      </c>
-      <c r="I93" s="39"/>
-    </row>
-    <row r="94" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="C94" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" s="45">
-        <v>2</v>
-      </c>
-      <c r="I94" s="39"/>
-    </row>
-    <row r="95" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="C95" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E95" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G95" s="45">
-        <v>2</v>
-      </c>
-      <c r="I95" s="39"/>
-    </row>
-    <row r="96" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="C96" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E96" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="G96" s="45">
-        <v>3</v>
-      </c>
-      <c r="I96" s="39"/>
-    </row>
-    <row r="97" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="G97" s="45"/>
-      <c r="I97" s="39"/>
-    </row>
-    <row r="98" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G98" s="45">
-        <v>1</v>
-      </c>
-      <c r="I98" s="39"/>
-    </row>
-    <row r="99" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="C99" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I99" s="39"/>
-    </row>
-    <row r="100" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="C100" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E100" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I100" s="39"/>
-    </row>
-    <row r="101" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="C101" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I101" s="39"/>
-    </row>
-    <row r="102" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38"/>
-      <c r="C102" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I102" s="40"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="105" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-    </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-    </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-    </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J125" s="13"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" s="17"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H127" s="17"/>
-      <c r="I127" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J127" s="13"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E128" s="16"/>
-      <c r="F128" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H128" s="17"/>
-      <c r="I128" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J128" s="13"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E131" s="16"/>
-      <c r="F131" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G131" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="13"/>
-    </row>
-    <row r="132" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132" s="16"/>
-      <c r="F132" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G132" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="13"/>
-    </row>
-    <row r="133" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E133" s="16"/>
-      <c r="F133" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G133" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="13"/>
-    </row>
-    <row r="134" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J134" s="13"/>
-    </row>
-    <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E135" s="16"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J135" s="13"/>
-    </row>
-    <row r="136" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E136" s="16"/>
-      <c r="F136" s="18">
-        <v>42326</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J136" s="13"/>
-    </row>
-    <row r="137" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="18">
-        <v>42326</v>
-      </c>
-      <c r="G137" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J137" s="13"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E138" s="11"/>
-      <c r="F138" s="19">
-        <v>42354</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G139" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H139" s="16"/>
-      <c r="I139" s="11"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="7"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16" t="s">
+      <c r="G128" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H128" s="63"/>
+      <c r="I128" s="56"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="63"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" s="63"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E140" s="16"/>
-      <c r="F140" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G140" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H140" s="16"/>
-      <c r="I140" s="11"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16" t="s">
+      <c r="H129" s="63"/>
+      <c r="I129" s="56"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="63"/>
+      <c r="C130" s="63"/>
+      <c r="D130" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E141" s="16"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H141" s="16"/>
-      <c r="I141" s="11"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16" t="s">
+      <c r="E130" s="63"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="E142" s="16"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="21" t="s">
+      <c r="H130" s="63"/>
+      <c r="I130" s="56"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="H142" s="16"/>
-      <c r="I142" s="11"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E143" s="16"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H143" s="16"/>
-      <c r="I143" s="11"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="7"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="7"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="7"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="7"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="7"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="7"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="7"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="7"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="7"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="7"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="7"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="7"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="7"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="7"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="7"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="7"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="7"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="7"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="7"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="7"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="7"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="7"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="7"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="7"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="7"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="7"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="7"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="7"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="7"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="7"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="7"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="7"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="7"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="7"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="7"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="7"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="7"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="7"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="7"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="7"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="7"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="7"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="7"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="7"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="7"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="7"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="7"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="7"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="7"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="7"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="7"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="7"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="7"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="7"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="7"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="7"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="7"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="7"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="7"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="7"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="7"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="7"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="7"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="7"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="7"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="7"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="7"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="7"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="7"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="7"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="7"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="7"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="7"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="7"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="7"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="7"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="7"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="7"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="7"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="7"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="7"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="7"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="7"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="7"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="7"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="7"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="7"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="7"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="7"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="7"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="7"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="7"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="7"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="7"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="7"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="7"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="7"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="7"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="7"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="7"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="7"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="7"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="7"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="7"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="7"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="7"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="7"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="7"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="7"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="7"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="7"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="7"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="7"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="7"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="7"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H131" s="63"/>
+      <c r="I131" s="56"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="67"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="67"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="54"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="54"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="54"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="54"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="54"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="54"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="54"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="54"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="54"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="54"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="54"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="54"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="54"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="54"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="54"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="54"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="54"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="54"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="54"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="54"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="54"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="54"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="54"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="54"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="54"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="54"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="54"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="54"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="54"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="54"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="54"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="54"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="54"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="54"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="54"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="54"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="54"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="54"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="54"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="54"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="54"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="54"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="54"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="54"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="54"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="54"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="54"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="54"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="54"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="54"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="54"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="54"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="54"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="54"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="54"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="54"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="54"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="54"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="54"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="54"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="54"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="54"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="54"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="54"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="54"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="54"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="54"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="54"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="54"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="54"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="54"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="54"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="54"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="54"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="54"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="54"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="54"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="54"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="54"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="54"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="54"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="54"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="54"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="54"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="54"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="54"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="54"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="54"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="54"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="54"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="54"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="54"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="54"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="54"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="54"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="54"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="54"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="54"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="54"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="54"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="54"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="54"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="54"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="54"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="54"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="54"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="54"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="54"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="54"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="54"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="54"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="54"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="54"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="54"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="54"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="54"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="54"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="54"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="54"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="54"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="54"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="54"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="54"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="54"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I144:I1048576 I77:I81 I103:I104 I56:I72 I1:I12 I14:I21 I41:I53">
+  <conditionalFormatting sqref="I132:I1048576 I73:I77 I91:I92 I34:I35 I47:I59 I1:I23 I63:I70">
     <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
@@ -7479,71 +7621,71 @@
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A112 B109 C109:F112 G105:XFD125 A77:A81 A103:A104 A41:A46 A126:A1048576 J126:XFD137 A113:C113 E113:F113 A114:F125 A56:A72 A1:A12 A49:A53">
+  <conditionalFormatting sqref="A97:A100 B97 C97:F100 G93:XFD113 A73:A77 A91:A92 A47:A51 A114:A1048576 J114:XFD125 A101:C101 E101:F101 A102:F113 A1:A7 A54:A59 A34:A35 A9:A13 A63:A70">
     <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B110 A105:F108">
+  <conditionalFormatting sqref="B98 A93:F96">
     <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 D15 D17">
+  <conditionalFormatting sqref="D24 D14 D18:D19 D8">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23 I40 I30:I31">
+  <conditionalFormatting sqref="I25 I46">
     <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40 A23 A30:A31">
+  <conditionalFormatting sqref="A46 A25">
     <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I29">
+  <conditionalFormatting sqref="I31:I33">
     <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A31:A33">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:J27">
+  <conditionalFormatting sqref="I30:J30">
     <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A30">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100:B1048576 B83:B98 B1:B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79:B1048576 B1:B67 B69:B77">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C144:C1048576 C1:C104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132:C1048576 C1:C92">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F102:F104 F144:F1048576 F66:F100 F53:F64 F1:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F132:F1048576 F26:F57 F1:F24 F59:F92">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I144:I1048576 I103:I104 I1:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I132:I1048576 I1:I92">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7557,13 +7699,13 @@
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C135:C137 C131:C133 C139:C143</xm:sqref>
+          <xm:sqref>C123:C125 C119:C121 C127:C131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C129</xm:sqref>
+          <xm:sqref>C117</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7575,21 +7717,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -7639,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7650,10 +7792,10 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>91</v>
@@ -7665,13 +7807,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -7686,10 +7828,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>45</v>
@@ -7710,10 +7852,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>40</v>
@@ -7722,10 +7864,10 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>91</v>
@@ -7734,19 +7876,19 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -7761,13 +7903,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
         <v>129</v>
@@ -7776,23 +7918,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="D10" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" t="s">
         <v>320</v>
-      </c>
-      <c r="E10" t="s">
-        <v>321</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="D11" s="34"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>37</v>
@@ -7801,10 +7943,10 @@
         <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
         <v>91</v>
@@ -7813,19 +7955,19 @@
         <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -7840,13 +7982,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -7861,13 +8003,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -7876,10 +8018,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>105</v>
@@ -7888,7 +8030,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>43</v>
@@ -7904,13 +8046,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>43</v>
@@ -7926,13 +8068,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>43</v>
@@ -7944,20 +8086,20 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>106</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>43</v>
@@ -7969,20 +8111,20 @@
         <v>1</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>106</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>44</v>
@@ -7998,13 +8140,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>44</v>
@@ -8020,16 +8162,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>96</v>
@@ -8040,7 +8182,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="D24" s="24"/>
       <c r="E24" s="9"/>
@@ -8048,7 +8190,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>38</v>
@@ -8057,10 +8199,10 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>90</v>
@@ -8069,13 +8211,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>41</v>
@@ -8087,19 +8229,19 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>41</v>
@@ -8114,13 +8256,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>42</v>
@@ -8135,13 +8277,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
@@ -8153,22 +8295,22 @@
         <v>0.5</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>93</v>
@@ -8177,22 +8319,22 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>96</v>
@@ -8204,13 +8346,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
         <v>95</v>
@@ -8225,28 +8367,28 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>129</v>
@@ -8258,19 +8400,19 @@
         <v>1</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>129</v>
@@ -8285,14 +8427,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="D36" s="35"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
@@ -8319,7 +8461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="C38" s="14" t="s">
         <v>36</v>
@@ -8343,13 +8485,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="C39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>118</v>
@@ -8361,37 +8503,37 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="C41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>92</v>
@@ -8400,22 +8542,22 @@
         <v>0.5</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="C42" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>91</v>
@@ -8424,22 +8566,22 @@
         <v>1.5</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="C43" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>96</v>
@@ -8451,12 +8593,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
@@ -8468,18 +8610,18 @@
         <v>2</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -8491,24 +8633,24 @@
         <v>2</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>50</v>
@@ -8517,22 +8659,22 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
         <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" t="s">
         <v>51</v>
@@ -8541,7 +8683,7 @@
         <v>36</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>52</v>
@@ -8555,16 +8697,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>90</v>
@@ -8575,53 +8717,53 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="C52" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>91</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="C53" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="D54" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="C55" s="14" t="s">
         <v>46</v>
@@ -8631,10 +8773,10 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
@@ -8645,7 +8787,7 @@
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
         <v>53</v>
@@ -8654,12 +8796,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E58" t="s">
         <v>55</v>
@@ -8668,10 +8810,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" t="s">
         <v>57</v>
@@ -8692,13 +8834,13 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
         <v>56</v>
@@ -8707,10 +8849,10 @@
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F62" t="s">
         <v>93</v>
@@ -8719,16 +8861,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" t="s">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F63" t="s">
         <v>96</v>
@@ -8737,16 +8879,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F64" t="s">
         <v>93</v>
@@ -8755,16 +8897,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" t="s">
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F65" t="s">
         <v>96</v>
@@ -8773,16 +8915,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -8791,16 +8933,16 @@
         <v>0.5</v>
       </c>
       <c r="H66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="C67" t="s">
         <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E67" t="s">
         <v>121</v>
@@ -8812,16 +8954,16 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="C68" t="s">
         <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
         <v>121</v>
@@ -8833,13 +8975,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" t="s">
         <v>329</v>
-      </c>
-      <c r="D69" t="s">
-        <v>330</v>
       </c>
       <c r="E69" t="s">
         <v>121</v>
@@ -8851,19 +8993,19 @@
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" t="s">
         <v>46</v>
       </c>
       <c r="D70" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" t="s">
         <v>330</v>
-      </c>
-      <c r="E70" t="s">
-        <v>331</v>
       </c>
       <c r="F70" t="s">
         <v>96</v>
@@ -8872,47 +9014,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
         <v>121</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
         <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>58</v>
@@ -8921,10 +9063,10 @@
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>90</v>
@@ -8932,17 +9074,20 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="C77" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>90</v>
@@ -8950,17 +9095,20 @@
       <c r="G77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="C78" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>91</v>
@@ -8968,17 +9116,20 @@
       <c r="G78">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="C79" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>91</v>
@@ -8986,17 +9137,20 @@
       <c r="G79">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="C80" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>93</v>
@@ -9004,17 +9158,20 @@
       <c r="G80">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="C81" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>91</v>
@@ -9022,17 +9179,20 @@
       <c r="G81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="C82" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D82" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" t="s">
         <v>297</v>
-      </c>
-      <c r="E82" t="s">
-        <v>298</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>93</v>
@@ -9040,26 +9200,29 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I82" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="C83" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="C84" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>94</v>
@@ -9067,8 +9230,11 @@
       <c r="G84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="C85" s="14" t="s">
         <v>36</v>
@@ -9077,39 +9243,45 @@
         <v>122</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I85" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="C86" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I86" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="C87" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>96</v>
@@ -9118,36 +9290,39 @@
         <v>2</v>
       </c>
       <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="C88" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="C89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="C90" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>59</v>
@@ -9159,8 +9334,11 @@
         <v>3</v>
       </c>
       <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I90" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="C91" s="14" t="s">
         <v>46</v>
@@ -9169,7 +9347,7 @@
         <v>110</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>96</v>
@@ -9177,27 +9355,29 @@
       <c r="G91" s="27">
         <v>2</v>
       </c>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="D92" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G92" s="27"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="D93" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="D94" s="14"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>61</v>
@@ -9206,10 +9386,10 @@
         <v>36</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>96</v>
@@ -9218,10 +9398,13 @@
         <v>4</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -9230,7 +9413,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" t="s">
         <v>63</v>
@@ -9239,10 +9422,10 @@
         <v>36</v>
       </c>
       <c r="D97" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E97" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>311</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>90</v>
@@ -9251,8 +9434,11 @@
         <v>2</v>
       </c>
       <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
@@ -9261,7 +9447,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="14" t="s">
         <v>64</v>
@@ -9270,7 +9456,7 @@
         <v>36</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>60</v>
@@ -9282,14 +9468,17 @@
         <v>1</v>
       </c>
       <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I99" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="C100" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>124</v>
@@ -9297,14 +9486,16 @@
       <c r="G100" s="27">
         <v>0.5</v>
       </c>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I100" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="G101" s="27"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="14" t="s">
         <v>126</v>
@@ -9322,14 +9513,16 @@
         <v>92</v>
       </c>
       <c r="G102" s="27"/>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I102" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="G103" s="27"/>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>62</v>
@@ -9338,10 +9531,10 @@
         <v>36</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>92</v>
@@ -9349,18 +9542,20 @@
       <c r="G104" s="27">
         <v>0.5</v>
       </c>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I104" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="C105" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>90</v>
@@ -9368,18 +9563,20 @@
       <c r="G105" s="27">
         <v>2</v>
       </c>
-      <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I105" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="C106" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>93</v>
@@ -9387,18 +9584,20 @@
       <c r="G106" s="27">
         <v>1.5</v>
       </c>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I106" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="C107" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>96</v>
@@ -9406,54 +9605,60 @@
       <c r="G107" s="27">
         <v>2</v>
       </c>
-      <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I107" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="C108" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G108" s="27"/>
-      <c r="I108"/>
-    </row>
-    <row r="109" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="C109" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E109" s="14" t="s">
-        <v>324</v>
-      </c>
       <c r="G109" s="27"/>
-      <c r="I109"/>
-    </row>
-    <row r="110" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I109" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="G110" s="27"/>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>92</v>
@@ -9461,18 +9666,20 @@
       <c r="G111" s="27">
         <v>1</v>
       </c>
-      <c r="I111"/>
-    </row>
-    <row r="112" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I111" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="C112" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>91</v>
@@ -9480,18 +9687,20 @@
       <c r="G112" s="27">
         <v>2</v>
       </c>
-      <c r="I112"/>
-    </row>
-    <row r="113" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I112" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="C113" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>94</v>
@@ -9499,30 +9708,32 @@
       <c r="G113" s="27">
         <v>2</v>
       </c>
-      <c r="I113"/>
-    </row>
-    <row r="114" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I113" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="C114" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G114" s="27">
         <v>3</v>
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="G115" s="27"/>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="14" t="s">
         <v>38</v>
@@ -9531,7 +9742,7 @@
         <v>36</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>59</v>
@@ -9542,12 +9753,14 @@
       <c r="G116" s="27">
         <v>1</v>
       </c>
-      <c r="I116"/>
-    </row>
-    <row r="117" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I116" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="C117" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>65</v>
@@ -9557,10 +9770,10 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="C118" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>123</v>
@@ -9570,35 +9783,35 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="C119" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C120" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
     </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>18</v>
       </c>
@@ -9618,7 +9831,7 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="8" t="s">
         <v>20</v>
@@ -9632,7 +9845,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="8" t="s">
         <v>21</v>
@@ -9646,7 +9859,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="8" t="s">
         <v>22</v>
@@ -9660,7 +9873,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="10" t="s">
         <v>23</v>
@@ -9674,17 +9887,17 @@
       <c r="I127" s="9"/>
       <c r="J127" s="8"/>
     </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="8"/>
@@ -9692,7 +9905,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="8"/>
     </row>
-    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -9703,7 +9916,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9715,14 +9928,14 @@
       <c r="I130" s="9"/>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -9731,12 +9944,12 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -9745,12 +9958,12 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -9759,15 +9972,15 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -9775,15 +9988,15 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -9791,15 +10004,15 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -9807,15 +10020,15 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -9823,15 +10036,15 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -9839,15 +10052,15 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -9855,7 +10068,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -9867,7 +10080,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -9885,7 +10098,7 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
         <v>26</v>
@@ -9905,7 +10118,7 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="11" t="s">
         <v>27</v>
@@ -9938,7 +10151,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -9961,7 +10174,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -9986,7 +10199,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -10011,7 +10224,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16" t="s">
@@ -10026,7 +10239,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="13"/>
     </row>
-    <row r="148" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="11" t="s">
         <v>78</v>
       </c>
@@ -10043,7 +10256,7 @@
       <c r="I148" s="11"/>
       <c r="J148" s="13"/>
     </row>
-    <row r="149" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="28" t="s">
         <v>99</v>
       </c>
@@ -10062,7 +10275,7 @@
       <c r="I149" s="16"/>
       <c r="J149" s="13"/>
     </row>
-    <row r="150" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="28" t="s">
         <v>100</v>
       </c>
@@ -10081,7 +10294,7 @@
       <c r="I150" s="16"/>
       <c r="J150" s="13"/>
     </row>
-    <row r="151" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="16" t="s">
         <v>103</v>
       </c>
@@ -10100,7 +10313,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="13"/>
     </row>
-    <row r="152" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11" t="s">
@@ -10117,7 +10330,7 @@
       </c>
       <c r="J152" s="13"/>
     </row>
-    <row r="153" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16" t="s">
@@ -10134,7 +10347,7 @@
       </c>
       <c r="J153" s="13"/>
     </row>
-    <row r="154" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16" t="s">
@@ -10153,7 +10366,7 @@
       </c>
       <c r="J154" s="13"/>
     </row>
-    <row r="155" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16" t="s">
@@ -10172,7 +10385,7 @@
       </c>
       <c r="J155" s="13"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11" t="s">
@@ -10186,13 +10399,13 @@
         <v>74</v>
       </c>
       <c r="H156" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I156" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I156" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -10201,7 +10414,7 @@
       </c>
       <c r="E157" s="16"/>
       <c r="F157" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>113</v>
@@ -10209,66 +10422,66 @@
       <c r="H157" s="16"/>
       <c r="I157" s="11"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E158" s="16"/>
       <c r="F158" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H158" s="16"/>
       <c r="I158" s="11"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E159" s="16"/>
       <c r="F159" s="18"/>
       <c r="G159" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="11"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E160" s="16"/>
       <c r="F160" s="18"/>
       <c r="G160" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H160" s="16"/>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="18"/>
       <c r="G161" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="11"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
@@ -10278,7 +10491,7 @@
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
@@ -10288,7 +10501,7 @@
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
@@ -10298,7 +10511,7 @@
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
@@ -10308,7 +10521,7 @@
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
@@ -10318,7 +10531,7 @@
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
@@ -10328,7 +10541,7 @@
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
@@ -10338,7 +10551,7 @@
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
@@ -10348,384 +10561,384 @@
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I162:I1048576 I95:I99 I121:I122 I56:I71 I74:I90 I1:I24 I26:I35 I37:I47">
+  <conditionalFormatting sqref="I162:I1048576 I121:I122 I56:I71 I74:I75 I1:I24 I26:I35 I37:I47 I83:I91 I95:I100 I102 I104:I109 I111:I113 I116">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
@@ -10763,8 +10976,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -10794,159 +11007,159 @@
       <selection activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>104</v>
       </c>
       <c r="C12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="33" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="33" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>232</v>
       </c>
-      <c r="C32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
         <v>233</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑8/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="460" windowWidth="35340" windowHeight="20000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1580" yWindow="660" windowWidth="33700" windowHeight="20000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20121230" sheetId="5" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="627">
   <si>
     <t>类别</t>
   </si>
@@ -4142,18 +4142,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>公会任务设计</t>
-  </si>
-  <si>
-    <t>更新收入产出图 （宝石/PvP/特殊地下城）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">普通商店、公会商店具体的出售内容、关系（固定、随机）、权重（各等级段）    </t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险奖励拆分</t>
   </si>
   <si>
     <t>老李</t>
@@ -4163,22 +4153,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>第二章副本-木灵配置</t>
-    <rPh sb="0" eb="1">
-      <t>di'er'zhang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mu'ling</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>公会助战（待拆分）</t>
     <rPh sb="0" eb="1">
       <t>gong'hui</t>
@@ -4209,29 +4183,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MG-1958</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录流程-资源更新界面</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'cheng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>geng'x</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>通用技能特效，音效测试</t>
     <rPh sb="0" eb="1">
       <t>tong'yong</t>
@@ -4302,19 +4253,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>商店修改用例</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong'li</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>任务修改用例</t>
     <rPh sb="0" eb="1">
       <t>ren'wu</t>
@@ -4348,13 +4286,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>雷神</t>
-    <rPh sb="0" eb="1">
-      <t>lei'sh</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>第一、二章副本-Bug复查</t>
     <rPh sb="0" eb="1">
       <t>di'yi</t>
@@ -4397,31 +4328,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>第三、四章副本文档分析</t>
-    <rPh sb="0" eb="1">
-      <t>di</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>san</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>si</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>f'b</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen'dang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fen'xi</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>大冒险，公会助战三方</t>
     <rPh sb="0" eb="1">
       <t>da'mao'xian</t>
@@ -4554,15 +4460,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>UI-NPC对话（立绘）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>UI-对局UI调整</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-BuffIcon（调优）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4584,22 +4482,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>UI-通天塔-各种图（层数选择）</t>
-    <rPh sb="3" eb="4">
-      <t>tong'tian'ta</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ge'zhong'tu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ceng'shu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xuan'ze</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>角色原画-怪物换色*7（伪天使-暗，皮影-草，伊芙利特-暗，独角兽-暗，哈皮-暗，嫦娥-暗，大天狗-水）</t>
     <rPh sb="0" eb="1">
       <t>jue'se</t>
@@ -4751,38 +4633,605 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>场景-第一章副本？</t>
+    <t>投放怪物规则</t>
+  </si>
+  <si>
+    <t>抽蛋配置方案</t>
+  </si>
+  <si>
+    <t>第一二章副本大招音效回归</t>
+  </si>
+  <si>
+    <t>体验1-2章玩法</t>
+  </si>
+  <si>
+    <t>3-6章小怪Boss设计预研</t>
+  </si>
+  <si>
+    <t>我没想好做成啥样</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入第一二章缺少的特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-第一二章缺少的特效补全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后会改 没有做完</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-大冒险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没画完</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>差一点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没做完</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画资源使用情况检查工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz师叔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+  </si>
+  <si>
+    <t>改测AI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局修改方案（大招连续按，弱点侦查，弱点灰化）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新优化资料查找，测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-大冒险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫芳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐动作，冰雪女王动作需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI渲染优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务统计数据计算</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章Boss测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2097</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2098</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1893</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险文档，公会助战</t>
+    <rPh sb="6" eb="7">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu'zhan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2099</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2059</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2103</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2104</t>
+  </si>
+  <si>
+    <t>九尾狐动作，冰雪女王动作需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章副本-木灵配置逻辑</t>
     <rPh sb="0" eb="1">
-      <t>chang'jing</t>
+      <t>di'er'zhang</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>di'yi'zhang</t>
+      <t>fu'b</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>f'b</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>投放怪物规则</t>
-  </si>
-  <si>
-    <t>抽蛋配置方案</t>
-  </si>
-  <si>
-    <t>第一二章副本大招音效回归</t>
-  </si>
-  <si>
-    <t>体验1-2章玩法</t>
-  </si>
-  <si>
-    <t>3-6章小怪Boss设计预研</t>
-  </si>
-  <si>
-    <t>大冒险文档</t>
+      <t>mu'ling</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章副本-木灵配置表现</t>
+    <rPh sb="0" eb="1">
+      <t>di'er'zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mu'ling</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao'xian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2107</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2108</t>
+  </si>
+  <si>
+    <t>MG-2109</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2110</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2111</t>
+  </si>
+  <si>
+    <t>MG-2112</t>
+  </si>
+  <si>
+    <t>公会任务设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2113</t>
+  </si>
+  <si>
+    <t>更新收入产出图 （宝石/PvP）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2114</t>
+  </si>
+  <si>
+    <t>MG-2115</t>
+  </si>
+  <si>
+    <t>MG-2116</t>
+  </si>
+  <si>
+    <t>大冒险奖励拆分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通商店和公会商店内容配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2117</t>
+  </si>
+  <si>
+    <t>对局修改（待拆分）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2118</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2119</t>
+  </si>
+  <si>
+    <t>MG-2210</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三四章小怪Boss，Boss设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两天任务内容配置（27个剧情 + 6个日常）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI log-结构搭建</t>
+    <rPh sb="7" eb="8">
+      <t>jie'gou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da'jian</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI log-具体log</t>
+    <rPh sb="7" eb="8">
+      <t>ju't</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2121</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2122</t>
+  </si>
+  <si>
+    <t>MG-2123</t>
+  </si>
+  <si>
+    <t>MG-2124</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2125</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2126</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会助战（待拆分）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2073</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2127</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2128</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2129</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2130</t>
+  </si>
+  <si>
+    <t>MG-2131 MG-2132</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2133</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2134</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2135</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2136</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大树音效需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2137</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pvp预研</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2139</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2140</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三、四章副本怪物美术动作、特效需求</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>si'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店修改测试</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会助战</t>
+    <rPh sb="3" eb="4">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'zhan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2142</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2143</t>
+  </si>
+  <si>
+    <t>UI-BuffIcon（调优）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2144</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-NPC对话（立绘）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2145</t>
+  </si>
+  <si>
+    <t>MG-2146</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1661</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2147</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2148</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2149</t>
+  </si>
+  <si>
+    <t>MG-2150</t>
+  </si>
+  <si>
+    <t>MG-2151</t>
+  </si>
+  <si>
+    <t>MG-2152</t>
+  </si>
+  <si>
+    <t>MG-2153</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2154</t>
+  </si>
+  <si>
+    <t>MG-2155</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2156</t>
+  </si>
+  <si>
+    <t>MG-2157</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2158</t>
+  </si>
+  <si>
+    <t>玩法规划 、怪投放规划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4915,7 +5364,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4981,7 +5430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -5058,8 +5507,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5219,92 +5676,270 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="70">
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="78">
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5447,46 +6082,6 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5502,69 +6097,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5762,16 +6294,6 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9321,25 +9843,25 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I162:I1048576 I121:I122 I56:I71 I74:I75 I1:I24 I26:I35 I37:I47 I83:I91 I95:I100 I102 I104:I109 I111:I113 I116">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A130 B127 C127:F130 G123:XFD143 A95:A99 A121:A122 A1:A18 A21:A24 A44:A47 A56:A61 A144:A1048576 J144:XFD155 A131:C131 E131:F131 A132:F143 A64:A71 A37 A74:A90">
-    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128 A123:F126">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 D28">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9383,11 +9905,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P273"/>
+  <dimension ref="A1:P276"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9770,7 +10292,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>95</v>
@@ -9855,7 +10377,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>129</v>
@@ -9946,6 +10468,9 @@
         <v>0.2</v>
       </c>
       <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="N27" s="39" t="s">
         <v>436</v>
       </c>
@@ -9970,7 +10495,9 @@
       <c r="H28" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="N28" s="22" t="s">
         <v>445</v>
       </c>
@@ -9995,7 +10522,9 @@
       <c r="H29" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
@@ -10017,7 +10546,9 @@
       <c r="H30" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="39" t="s">
@@ -10038,7 +10569,9 @@
       <c r="H31" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -10060,7 +10593,9 @@
       <c r="H32" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="N32" s="39" t="s">
         <v>445</v>
       </c>
@@ -10079,7 +10614,9 @@
         <v>96</v>
       </c>
       <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="I33" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C34" s="22"/>
@@ -10108,6 +10645,9 @@
       </c>
       <c r="G35" s="22">
         <v>1.5</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -10137,6 +10677,9 @@
       <c r="H37" s="39" t="s">
         <v>349</v>
       </c>
+      <c r="I37" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="N37" s="39" t="s">
         <v>326</v>
       </c>
@@ -10158,6 +10701,9 @@
       <c r="H38" s="39" t="s">
         <v>406</v>
       </c>
+      <c r="I38" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="39" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
@@ -10179,7 +10725,9 @@
       <c r="H39" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="I39" s="39"/>
+      <c r="I39" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="N39" s="22" t="s">
         <v>441</v>
       </c>
@@ -10204,7 +10752,9 @@
       <c r="H40" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
@@ -10220,7 +10770,9 @@
       <c r="F41" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="I41" s="39"/>
+      <c r="I41" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="N41" s="22" t="s">
         <v>441</v>
       </c>
@@ -10250,6 +10802,9 @@
       <c r="H43" s="22" t="s">
         <v>408</v>
       </c>
+      <c r="I43" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
@@ -10269,6 +10824,9 @@
       <c r="H44" s="22" t="s">
         <v>407</v>
       </c>
+      <c r="I44" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="45" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
@@ -10287,72 +10845,78 @@
       <c r="H45" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I45" s="39"/>
+      <c r="I45" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
+      <c r="C46" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D46" s="22" t="s">
-        <v>276</v>
+        <v>507</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="I46" s="39"/>
+        <v>508</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="47" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
-      <c r="C47" s="22" t="s">
+      <c r="D47" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="C48" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D48" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I47" s="39"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="41"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B51" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="39" t="s">
+      <c r="C51" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E51" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H51" s="39" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>409</v>
+      <c r="I51" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -10360,67 +10924,75 @@
         <v>36</v>
       </c>
       <c r="D52" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E53" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F53" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H53" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="N52" s="39" t="s">
+      <c r="I53" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" s="39" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-    </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>202</v>
-      </c>
+      <c r="A54" s="38"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
+      <c r="B55" s="39" t="s">
+        <v>377</v>
+      </c>
       <c r="C55" s="39" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="F55" s="39" t="s">
         <v>96</v>
       </c>
       <c r="G55" s="39">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -10429,7 +11001,7 @@
         <v>36</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>121</v>
@@ -10441,7 +11013,10 @@
         <v>1.5</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>410</v>
+        <v>204</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -10450,7 +11025,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="E57" s="39" t="s">
         <v>121</v>
@@ -10459,10 +11034,13 @@
         <v>96</v>
       </c>
       <c r="G57" s="39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>203</v>
+        <v>410</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -10474,7 +11052,7 @@
         <v>329</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>96</v>
@@ -10483,255 +11061,300 @@
         <v>2</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>411</v>
+        <v>203</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
+      <c r="C59" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" s="39">
+        <v>2</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39" t="s">
+      <c r="A60" s="41"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C61" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D61" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="G60" s="39">
+      <c r="G61" s="39">
         <v>1</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H61" s="39" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="I61" s="39" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39" t="s">
+      <c r="A62" s="41"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C63" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D63" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E63" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H62" s="39" t="s">
+      <c r="H63" s="39" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C64" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C65" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D65" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E65" s="39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="I65" s="39" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="66" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="48"/>
+    </row>
+    <row r="67" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-    </row>
-    <row r="67" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="N67" s="49" t="s">
-        <v>437</v>
-      </c>
+      <c r="C67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="50"/>
+      <c r="B68" s="49" t="s">
+        <v>58</v>
+      </c>
       <c r="C68" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="F68" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="26">
+        <v>1.5</v>
+      </c>
       <c r="H68" s="26" t="s">
-        <v>419</v>
+        <v>425</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N68" s="49" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50"/>
       <c r="C69" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>371</v>
+        <v>36</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F69" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="26">
-        <v>3</v>
-      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="26" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50"/>
       <c r="C70" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>422</v>
+        <v>108</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>371</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F70" s="26"/>
+      <c r="F70" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="G70" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>416</v>
+        <v>426</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50"/>
       <c r="C71" s="26" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="E71" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="E71" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F71" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" s="49">
+      <c r="F71" s="26"/>
+      <c r="G71" s="26">
         <v>2</v>
       </c>
-      <c r="H71" s="26"/>
+      <c r="H71" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="72" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="50"/>
       <c r="C72" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>59</v>
+        <v>108</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G72" s="26">
-        <v>3</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="49">
+        <v>2</v>
+      </c>
+      <c r="H72" s="26"/>
+      <c r="I72" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50"/>
       <c r="C73" s="26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="F73" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="51">
-        <v>2</v>
+      <c r="G73" s="26">
+        <v>3</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="I73" s="49"/>
+        <v>417</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="74" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="50"/>
       <c r="C74" s="26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" s="51"/>
+        <v>96</v>
+      </c>
+      <c r="G74" s="51">
+        <v>2</v>
+      </c>
       <c r="H74" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="I74" s="49"/>
-      <c r="N74" s="26" t="s">
-        <v>436</v>
+        <v>420</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -10740,19 +11363,26 @@
         <v>36</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>154</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="G75" s="51">
+        <v>1</v>
+      </c>
       <c r="H75" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="I75" s="49"/>
+        <v>439</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="76" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50"/>
@@ -10760,158 +11390,206 @@
         <v>36</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="G76" s="51"/>
+      <c r="F76" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="51">
+        <v>1</v>
+      </c>
       <c r="H76" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+      <c r="C77" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="51">
+        <v>1</v>
+      </c>
+      <c r="H77" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="I76" s="49"/>
-    </row>
-    <row r="77" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="D77" s="26"/>
+      <c r="I77" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="78" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50"/>
-      <c r="B78" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" s="51">
-        <v>4</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>206</v>
-      </c>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="26"/>
+      <c r="B79" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" s="51">
+        <v>4</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="80" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50"/>
-      <c r="B80" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" s="51">
-        <v>1</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>427</v>
-      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="26"/>
     </row>
     <row r="81" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="50"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="51">
+        <v>1</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="82" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="50"/>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" s="51">
+        <v>2</v>
+      </c>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="50"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="B84" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="26" t="s">
+      <c r="C84" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E84" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F84" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="51">
+      <c r="G84" s="51">
         <v>1</v>
       </c>
-      <c r="H82" s="26"/>
-    </row>
-    <row r="83" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="C83" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="I83" s="49"/>
-      <c r="N83" s="26" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="G84" s="51"/>
-      <c r="I84" s="49"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="85" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="50"/>
-      <c r="B85" s="26" t="s">
-        <v>126</v>
-      </c>
       <c r="C85" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>124</v>
+        <v>362</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" s="51"/>
-      <c r="I85" s="49"/>
+        <v>92</v>
+      </c>
+      <c r="G85" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="N85" s="26" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="86" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="50"/>
@@ -10921,98 +11599,105 @@
     <row r="87" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="50"/>
       <c r="B87" s="26" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F87" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>429</v>
-      </c>
+      <c r="G87" s="51"/>
       <c r="I87" s="49"/>
     </row>
     <row r="88" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="50"/>
-      <c r="C88" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" s="51">
-        <v>2</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>430</v>
-      </c>
+      <c r="G88" s="51"/>
       <c r="I88" s="49"/>
     </row>
     <row r="89" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="50"/>
+      <c r="B89" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="C89" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>482</v>
+        <v>364</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="G89" s="51"/>
+      <c r="F89" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="51">
+        <v>0.5</v>
+      </c>
       <c r="H89" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="I89" s="49"/>
+        <v>429</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="26" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="90" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="50"/>
-      <c r="G90" s="51"/>
-      <c r="I90" s="49"/>
+      <c r="C90" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="51">
+        <v>2</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" s="26" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="91" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="50"/>
-      <c r="B91" s="26" t="s">
-        <v>157</v>
-      </c>
       <c r="C91" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>366</v>
+        <v>473</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" s="51">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G91" s="51"/>
       <c r="H91" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="I91" s="49"/>
-      <c r="N91" s="26" t="s">
-        <v>436</v>
+        <v>474</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" s="26" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -11021,171 +11706,187 @@
         <v>36</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>367</v>
+        <v>500</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G92" s="51">
-        <v>1</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="I92" s="49"/>
-      <c r="N92" s="26" t="s">
-        <v>447</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G92" s="51"/>
     </row>
     <row r="93" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="50"/>
-      <c r="C93" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" s="51">
-        <v>2</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>433</v>
-      </c>
+      <c r="G93" s="51"/>
       <c r="I93" s="49"/>
     </row>
     <row r="94" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="50"/>
+      <c r="B94" s="26" t="s">
+        <v>157</v>
+      </c>
       <c r="C94" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>480</v>
+        <v>366</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>261</v>
       </c>
+      <c r="F94" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="G94" s="51">
         <v>1</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="I94" s="49"/>
+        <v>431</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N94" s="26" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="95" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="50"/>
       <c r="C95" s="26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>261</v>
       </c>
+      <c r="F95" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="G95" s="51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="I95" s="49"/>
+        <v>432</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N95" s="26" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="96" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50"/>
-      <c r="G96" s="51"/>
-      <c r="I96" s="49"/>
+      <c r="C96" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="51">
+        <v>2</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="97" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50"/>
-      <c r="B97" s="26" t="s">
-        <v>38</v>
-      </c>
       <c r="C97" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G97" s="51">
         <v>1</v>
       </c>
-      <c r="I97" s="49"/>
-      <c r="N97" s="26" t="s">
+      <c r="H97" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="50"/>
+      <c r="C98" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" s="51">
+        <v>3</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="50"/>
+      <c r="G99" s="51"/>
+      <c r="I99" s="49"/>
+    </row>
+    <row r="100" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="50"/>
+      <c r="B100" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" s="51">
+        <v>1</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N100" s="26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-    </row>
-    <row r="100" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="52" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="38"/>
+    </row>
+    <row r="103" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="40"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-    </row>
-    <row r="101" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="53"/>
-    </row>
-    <row r="102" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="53"/>
-    </row>
-    <row r="103" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
-      <c r="B103" s="53" t="s">
-        <v>22</v>
-      </c>
+      <c r="B103" s="40"/>
       <c r="C103" s="40"/>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
@@ -11194,11 +11895,17 @@
       <c r="H103" s="53"/>
       <c r="I103" s="45"/>
       <c r="J103" s="53"/>
-    </row>
-    <row r="104" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="55" t="s">
-        <v>23</v>
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="40"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+    </row>
+    <row r="104" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A104" s="42"/>
+      <c r="B104" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="40"/>
@@ -11209,26 +11916,25 @@
       <c r="I104" s="45"/>
       <c r="J104" s="53"/>
     </row>
-    <row r="105" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C105" s="40"/>
-      <c r="D105" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="E105" s="40" t="s">
-        <v>313</v>
-      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="40"/>
       <c r="G105" s="53"/>
       <c r="H105" s="53"/>
       <c r="I105" s="45"/>
       <c r="J105" s="53"/>
     </row>
-    <row r="106" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
+      <c r="B106" s="53" t="s">
+        <v>22</v>
+      </c>
       <c r="C106" s="40"/>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
@@ -11240,7 +11946,9 @@
     </row>
     <row r="107" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
+      <c r="B107" s="55" t="s">
+        <v>23</v>
+      </c>
       <c r="C107" s="40"/>
       <c r="D107" s="40"/>
       <c r="E107" s="40"/>
@@ -11252,61 +11960,58 @@
     </row>
     <row r="108" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
-      <c r="B108" s="40" t="s">
-        <v>25</v>
+      <c r="B108" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="C108" s="40"/>
-      <c r="D108" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="E108" s="40"/>
+      <c r="D108" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>313</v>
+      </c>
       <c r="F108" s="40"/>
       <c r="G108" s="53"/>
       <c r="H108" s="53"/>
       <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
+      <c r="J108" s="53"/>
     </row>
     <row r="109" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
       <c r="C109" s="40"/>
-      <c r="D109" s="40" t="s">
-        <v>268</v>
-      </c>
+      <c r="D109" s="40"/>
       <c r="E109" s="40"/>
       <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
       <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
+      <c r="J109" s="53"/>
     </row>
     <row r="110" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="40"/>
       <c r="C110" s="40"/>
-      <c r="D110" s="40" t="s">
-        <v>311</v>
-      </c>
+      <c r="D110" s="40"/>
       <c r="E110" s="40"/>
       <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
       <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
+      <c r="J110" s="53"/>
     </row>
     <row r="111" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="B111" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="C111" s="40"/>
-      <c r="D111" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>313</v>
-      </c>
+      <c r="D111" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="40"/>
       <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
       <c r="I111" s="45"/>
       <c r="J111" s="45"/>
     </row>
@@ -11315,11 +12020,9 @@
       <c r="B112" s="40"/>
       <c r="C112" s="40"/>
       <c r="D112" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>325</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E112" s="40"/>
       <c r="F112" s="40"/>
       <c r="G112" s="40"/>
       <c r="H112" s="40"/>
@@ -11331,11 +12034,9 @@
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
       <c r="D113" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="E113" s="40" t="s">
-        <v>326</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E113" s="40"/>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
       <c r="H113" s="40"/>
@@ -11347,10 +12048,10 @@
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
       <c r="D114" s="40" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F114" s="40"/>
       <c r="G114" s="40"/>
@@ -11363,10 +12064,10 @@
       <c r="B115" s="40"/>
       <c r="C115" s="40"/>
       <c r="D115" s="40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -11379,10 +12080,10 @@
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
       <c r="D116" s="40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -11394,8 +12095,12 @@
       <c r="A117" s="40"/>
       <c r="B117" s="40"/>
       <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
+      <c r="D117" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>326</v>
+      </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
       <c r="H117" s="40"/>
@@ -11406,138 +12111,109 @@
       <c r="A118" s="40"/>
       <c r="B118" s="40"/>
       <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="40"/>
+      <c r="D118" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E118" s="40" t="s">
+        <v>326</v>
+      </c>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
       <c r="H118" s="40"/>
       <c r="I118" s="45"/>
       <c r="J118" s="45"/>
-      <c r="K118" s="40"/>
-      <c r="L118" s="40"/>
-      <c r="M118" s="40"/>
-      <c r="N118" s="40"/>
-      <c r="O118" s="40"/>
-      <c r="P118" s="40"/>
     </row>
     <row r="119" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
-      <c r="B119" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="B119" s="40"/>
       <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="40"/>
+      <c r="D119" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>327</v>
+      </c>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
       <c r="H119" s="40"/>
       <c r="I119" s="45"/>
       <c r="J119" s="45"/>
-      <c r="K119" s="40"/>
-      <c r="L119" s="40"/>
-      <c r="M119" s="40"/>
-      <c r="N119" s="40"/>
-      <c r="O119" s="40"/>
-      <c r="P119" s="40"/>
-    </row>
-    <row r="120" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
-      <c r="B120" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="I120" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="J120" s="58"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
-      <c r="N120" s="40"/>
-      <c r="O120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="45"/>
     </row>
     <row r="121" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G121" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="H121" s="61"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="58"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
       <c r="K121" s="40"/>
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
       <c r="N121" s="40"/>
       <c r="O121" s="40"/>
+      <c r="P121" s="40"/>
     </row>
     <row r="122" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G122" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="H122" s="61"/>
-      <c r="I122" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="J122" s="58"/>
+      <c r="B122" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="45"/>
       <c r="K122" s="40"/>
       <c r="L122" s="40"/>
       <c r="M122" s="40"/>
       <c r="N122" s="40"/>
       <c r="O122" s="40"/>
-    </row>
-    <row r="123" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P122" s="40"/>
+    </row>
+    <row r="123" spans="1:16" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" s="63"/>
-      <c r="F123" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G123" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H123" s="61"/>
-      <c r="I123" s="63" t="s">
-        <v>73</v>
+      <c r="B123" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="J123" s="58"/>
       <c r="K123" s="40"/>
@@ -11547,291 +12223,334 @@
       <c r="O123" s="40"/>
     </row>
     <row r="124" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="63"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="G124" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
+        <v>69</v>
+      </c>
+      <c r="H124" s="61"/>
+      <c r="I124" s="56"/>
       <c r="J124" s="58"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
     </row>
     <row r="125" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="56" t="s">
-        <v>78</v>
-      </c>
+      <c r="A125" s="40"/>
+      <c r="B125" s="56"/>
       <c r="C125" s="56"/>
       <c r="D125" s="56" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
+      <c r="F125" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="G125" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
+        <v>69</v>
+      </c>
+      <c r="H125" s="61"/>
+      <c r="I125" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="J125" s="58"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
     </row>
     <row r="126" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="63"/>
-      <c r="D126" s="64" t="s">
-        <v>97</v>
+      <c r="A126" s="40"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="E126" s="63"/>
-      <c r="F126" s="59" t="s">
+      <c r="F126" s="56" t="s">
         <v>68</v>
       </c>
       <c r="G126" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
+        <v>41</v>
+      </c>
+      <c r="H126" s="61"/>
+      <c r="I126" s="63" t="s">
+        <v>73</v>
+      </c>
       <c r="J126" s="58"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
     </row>
     <row r="127" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="64" t="s">
-        <v>100</v>
-      </c>
+      <c r="B127" s="63"/>
       <c r="C127" s="63"/>
-      <c r="D127" s="64" t="s">
-        <v>98</v>
+      <c r="D127" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="E127" s="63"/>
-      <c r="F127" s="56" t="s">
-        <v>68</v>
-      </c>
+      <c r="F127" s="63"/>
       <c r="G127" s="60" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="H127" s="63"/>
       <c r="I127" s="63"/>
       <c r="J127" s="58"/>
     </row>
     <row r="128" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="63" t="s">
+      <c r="B128" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" s="56"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="58"/>
+    </row>
+    <row r="129" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="63"/>
+      <c r="D129" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E129" s="63"/>
+      <c r="F129" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G129" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H129" s="63"/>
+      <c r="I129" s="63"/>
+      <c r="J129" s="58"/>
+    </row>
+    <row r="130" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" s="63"/>
+      <c r="D130" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" s="63"/>
+      <c r="F130" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G130" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="58"/>
+    </row>
+    <row r="131" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C128" s="63"/>
-      <c r="D128" s="22" t="s">
+      <c r="C131" s="63"/>
+      <c r="D131" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E128" s="63"/>
-      <c r="F128" s="56" t="s">
+      <c r="E131" s="63"/>
+      <c r="F131" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G128" s="60" t="s">
+      <c r="G131" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H128" s="63"/>
-      <c r="I128" s="63"/>
-      <c r="J128" s="58"/>
-    </row>
-    <row r="129" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56" t="s">
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="58"/>
+    </row>
+    <row r="132" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="56"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="62" t="s">
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="H129" s="56"/>
-      <c r="I129" s="56" t="s">
+      <c r="H132" s="56"/>
+      <c r="I132" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="J129" s="58"/>
-    </row>
-    <row r="130" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="63"/>
-      <c r="C130" s="63"/>
-      <c r="D130" s="63" t="s">
+      <c r="J132" s="58"/>
+    </row>
+    <row r="133" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="63"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E130" s="63"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="60" t="s">
+      <c r="E133" s="63"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H130" s="63"/>
-      <c r="I130" s="63" t="s">
+      <c r="H133" s="63"/>
+      <c r="I133" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J130" s="58"/>
-    </row>
-    <row r="131" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E131" s="63"/>
-      <c r="F131" s="65">
-        <v>42326</v>
-      </c>
-      <c r="G131" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J131" s="58"/>
-    </row>
-    <row r="132" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="63"/>
-      <c r="C132" s="63"/>
-      <c r="D132" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E132" s="63"/>
-      <c r="F132" s="65">
-        <v>42326</v>
-      </c>
-      <c r="G132" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="H132" s="63"/>
-      <c r="I132" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J132" s="58"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="56"/>
-      <c r="F133" s="66">
-        <v>42354</v>
-      </c>
-      <c r="G133" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H133" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="I133" s="56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
+      <c r="J133" s="58"/>
+    </row>
+    <row r="134" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="63"/>
       <c r="C134" s="63"/>
       <c r="D134" s="63" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E134" s="63"/>
-      <c r="F134" s="65" t="s">
-        <v>160</v>
+      <c r="F134" s="65">
+        <v>42326</v>
       </c>
       <c r="G134" s="60" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="H134" s="63"/>
-      <c r="I134" s="56"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
+      <c r="I134" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J134" s="58"/>
+    </row>
+    <row r="135" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="63"/>
       <c r="C135" s="63"/>
       <c r="D135" s="63" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E135" s="63"/>
-      <c r="F135" s="65" t="s">
-        <v>173</v>
+      <c r="F135" s="65">
+        <v>42326</v>
       </c>
       <c r="G135" s="60" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H135" s="63"/>
-      <c r="I135" s="56"/>
+      <c r="I135" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J135" s="58"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="E136" s="63"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="H136" s="63"/>
-      <c r="I136" s="56"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" s="56"/>
+      <c r="F136" s="66">
+        <v>42354</v>
+      </c>
+      <c r="G136" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="I136" s="56" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="54"/>
       <c r="B137" s="63"/>
       <c r="C137" s="63"/>
       <c r="D137" s="63" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E137" s="63"/>
-      <c r="F137" s="65"/>
+      <c r="F137" s="65" t="s">
+        <v>160</v>
+      </c>
       <c r="G137" s="60" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H137" s="63"/>
       <c r="I137" s="56"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="54"/>
       <c r="B138" s="63"/>
       <c r="C138" s="63"/>
       <c r="D138" s="63" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E138" s="63"/>
-      <c r="F138" s="65"/>
+      <c r="F138" s="65" t="s">
+        <v>173</v>
+      </c>
       <c r="G138" s="60" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H138" s="63"/>
       <c r="I138" s="56"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="67"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E139" s="63"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H139" s="63"/>
+      <c r="I139" s="56"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="67"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="63"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H140" s="63"/>
+      <c r="I140" s="56"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="63"/>
+      <c r="D141" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="63"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H141" s="63"/>
+      <c r="I141" s="56"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="67"/>
@@ -11883,14 +12602,35 @@
       <c r="H146" s="67"/>
       <c r="I146" s="67"/>
     </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
+      <c r="I147" s="67"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="67"/>
+    </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="54"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="54"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="54"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="67"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="54"/>
@@ -12258,81 +12998,154 @@
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="54"/>
     </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="54"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="54"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="54"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="I139:I1048576 I78:I82 I98:I99 I35:I36 I49:I61 I1:I25 I65:I72">
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I142:I1048576 I101:I102 I35:I36 I1:I25 I66:I77 I79:I85 J85 J70 J73:J74 I28:I30 I50:I62 J55">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A107 B104 C104:F107 G100:XFD120 A78:A82 A98:A99 A49:A53 A121:A1048576 J121:XFD132 A108:C108 E108:F108 A109:F120 A1:A7 A56:A61 A35:A36 A9:A13 A65:A72">
-    <cfRule type="cellIs" dxfId="39" priority="12" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A107:A110 B107 C107:F110 G103:XFD123 A79:A84 A101:A102 A50:A54 A124:A1048576 J124:XFD135 A111:C111 E111:F111 A112:F123 A1:A7 A57:A62 A35:A36 A9:A13 A66:A73">
+    <cfRule type="cellIs" dxfId="46" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105 A100:F103">
-    <cfRule type="cellIs" dxfId="38" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B108 A103:F106">
+    <cfRule type="cellIs" dxfId="45" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26 D14 D18:D20 D8 D23">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27 I48">
-    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I27 I49">
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48 A27">
-    <cfRule type="cellIs" dxfId="34" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A49 A27">
+    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I34">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I32:I34 I37:I41 I43:I46">
+    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J31">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I89:J89">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98:J98">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J90">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84:B1048576 B71:B82 B1:B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86:B1048576 B72:B84 B1:B70">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139:C1048576 C1:C99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142:C1048576 C1:C102">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F139:F1048576 F1:F26 F61:F99 F28:F59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F142:F1048576 F1:F26 F62:F102 F28:F60">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I139:I1048576 I1:I99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I142:I1048576 I1:I102">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12346,13 +13159,13 @@
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C130:C132 C126:C128 C134:C138</xm:sqref>
+          <xm:sqref>C133:C135 C129:C131 C137:C141</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C124</xm:sqref>
+          <xm:sqref>C127</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12362,19 +13175,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P273"/>
+  <dimension ref="A1:P286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12444,11 +13258,16 @@
         <v>44</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G2" s="39">
+        <v>1</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" t="s">
         <v>36</v>
@@ -12460,83 +13279,98 @@
         <v>44</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="E4" s="39"/>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="22"/>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="22" t="s">
-        <v>383</v>
+        <v>388</v>
+      </c>
+      <c r="K8" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="22" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>39</v>
@@ -12547,1965 +13381,2635 @@
       <c r="G9" s="22">
         <v>1</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="22">
-        <v>2</v>
-      </c>
-      <c r="H10" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="K10" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="C11" s="22"/>
-      <c r="D11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>336</v>
+      <c r="C11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>514</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>453</v>
+        <v>515</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>545</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>96</v>
+        <v>573</v>
       </c>
       <c r="G12" s="22">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="39" t="s">
+      <c r="C13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="C14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="22">
+        <v>2</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="22">
+        <v>2</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C17" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="C18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G18" s="39">
         <v>0.5</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H18" s="39" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-    </row>
-    <row r="16" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="39" t="s">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="C20" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E20" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="G20" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="D17" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="F21" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G21" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
+      <c r="H21" s="22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="46" t="s">
+      <c r="C25" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="K25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="C26" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="22">
+      <c r="F26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="69" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F27" t="s">
         <v>90</v>
       </c>
-      <c r="G20">
+      <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H27" s="22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E28" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="22">
-        <v>2</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="C24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>455</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>457</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>456</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>458</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>459</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="39" t="s">
+      <c r="D29" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" t="s">
+        <v>576</v>
+      </c>
+      <c r="F29" t="s">
+        <v>573</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G31" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="C30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="22">
-        <v>2</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="D31" s="72"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="22"/>
+      <c r="H31" s="22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="G32" s="22">
         <v>1</v>
       </c>
       <c r="H32" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="C33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="22">
+        <v>2</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="22">
+        <v>2</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>455</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="22">
+        <v>1</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="K35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="22">
+        <v>1</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>562</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="22">
+        <v>1</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>563</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="22">
+        <v>1</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="C39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="22">
+        <v>2</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="D40" s="71"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="22">
+        <v>1</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="C33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33" s="39"/>
-    </row>
-    <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="C34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34" s="39"/>
-    </row>
-    <row r="35" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="C35" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
-        <v>464</v>
-      </c>
-      <c r="I35" s="39"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>461</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="C42" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>375</v>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="C42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>565</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="22"/>
+        <v>511</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="G42" s="22"/>
-      <c r="H42" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="C43" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G43" s="22">
-        <v>3</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43"/>
       <c r="H43" s="22" t="s">
-        <v>195</v>
+        <v>566</v>
       </c>
       <c r="I43" s="39"/>
     </row>
-    <row r="44" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="C44" s="22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>167</v>
+        <v>443</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="I44" s="39"/>
     </row>
-    <row r="45" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
       <c r="C45" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="E45" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="C46" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>457</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="D47" s="71"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39">
+        <v>3</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="D52" s="71"/>
+    </row>
+    <row r="53" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="22">
+        <v>2</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
+      <c r="C54" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="22">
+        <v>2</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="47"/>
+      <c r="C55" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="F55" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="C56" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="22">
+        <v>3</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="I56" s="39"/>
+    </row>
+    <row r="57" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="C57" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="22">
+        <v>2</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="I57" s="39"/>
+    </row>
+    <row r="58" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="C58" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="39"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="C59" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B61" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="C61" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E61" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="39">
+      <c r="F61" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="39">
         <v>0.5</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H61" s="39" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="C49" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49" s="39">
+    <row r="62" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="C62" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="C50" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" s="39" t="s">
+      <c r="H62" s="39" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>464</v>
+      </c>
+      <c r="E64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>462</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>603</v>
+      </c>
+      <c r="E67" t="s">
         <v>55</v>
       </c>
-      <c r="F50"/>
-      <c r="G50" s="39">
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" t="s">
+        <v>377</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s">
-        <v>470</v>
-      </c>
-      <c r="E52" t="s">
-        <v>474</v>
-      </c>
-      <c r="G52">
+      <c r="H70" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="C71" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>471</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="H71" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>460</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="C73" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>467</v>
+      </c>
+      <c r="E73" t="s">
+        <v>468</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="D74" t="s">
+        <v>534</v>
+      </c>
+      <c r="E74" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="C78" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>468</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="C56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" t="s">
-        <v>377</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39">
+      <c r="F78" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78">
         <v>0.5</v>
       </c>
-      <c r="H58" s="39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="C59" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="E59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="C60" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" t="s">
-        <v>466</v>
-      </c>
-      <c r="E60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="C61" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s">
-        <v>475</v>
-      </c>
-      <c r="E61" t="s">
-        <v>476</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="H64" s="39"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="C65" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" s="39"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="H78" s="39" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="C79" s="39"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="N68" s="49" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="C69" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>495</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26">
-        <v>2</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="C70" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>494</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="49">
-        <v>2</v>
-      </c>
-      <c r="H70" s="26"/>
-    </row>
-    <row r="71" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="C71" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="51">
-        <v>1</v>
-      </c>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="C72" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="G72" s="51">
-        <v>1</v>
-      </c>
-      <c r="I72" s="49"/>
-    </row>
-    <row r="73" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="C73" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="51">
-        <v>2</v>
-      </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="N73" s="26" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="C74" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26">
-        <v>3</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="C75" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75" s="51">
-        <v>2</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="C76" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="G77" s="51"/>
-    </row>
-    <row r="78" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="C79" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="51">
-        <v>1</v>
-      </c>
-      <c r="H79" s="26"/>
-    </row>
-    <row r="80" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="C80" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" t="s">
-        <v>490</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="51">
-        <v>4</v>
-      </c>
-      <c r="H80" s="26"/>
     </row>
     <row r="81" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="50"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
     </row>
     <row r="82" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="50"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="26"/>
+      <c r="C82" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
     </row>
     <row r="83" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="50"/>
-      <c r="B83" s="49" t="s">
-        <v>63</v>
-      </c>
       <c r="C83" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F83" s="26"/>
+        <v>258</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="G83" s="51">
         <v>1</v>
       </c>
-      <c r="H83" s="26"/>
+      <c r="H83" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
     </row>
     <row r="84" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="50"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="26"/>
-    </row>
-    <row r="85" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="51">
+        <v>1</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="50"/>
-      <c r="B85" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="C85" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G85" s="51">
-        <v>1</v>
-      </c>
-      <c r="H85" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
     </row>
     <row r="86" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="50"/>
       <c r="C86" s="26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>172</v>
+        <v>609</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="G86" s="51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="I86" s="49"/>
-      <c r="N86" s="26" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="50"/>
-      <c r="G87" s="51"/>
-      <c r="I87" s="49"/>
+      <c r="C87" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G87" s="26">
+        <v>3</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
     </row>
     <row r="88" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="50"/>
-      <c r="B88" s="26" t="s">
-        <v>126</v>
-      </c>
       <c r="C88" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G88" s="51"/>
-      <c r="I88" s="49"/>
-    </row>
-    <row r="89" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G88" s="51">
+        <v>2</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="50"/>
-      <c r="G89" s="51"/>
-      <c r="I89" s="49"/>
-    </row>
-    <row r="90" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="49">
+        <v>2</v>
+      </c>
+      <c r="H89" s="26"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="50"/>
-      <c r="B90" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G90" s="51">
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="G90" s="51"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="50"/>
+      <c r="B91" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="51">
+        <v>4</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="50"/>
+      <c r="C92" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="51">
         <v>1</v>
       </c>
-      <c r="H90" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="I90" s="49"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="C91" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" t="s">
-        <v>500</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G91">
+      <c r="H92" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="50"/>
+      <c r="C93" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" t="s">
+        <v>481</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" s="51">
+        <v>2</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="50"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="26"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="26"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="50"/>
+      <c r="B96" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="C92" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" t="s">
-        <v>501</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G92">
+      <c r="H96" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="50"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="26"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="50"/>
+      <c r="B98" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="C93" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" t="s">
-        <v>502</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="C94" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" t="s">
-        <v>503</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="G95" s="51"/>
-      <c r="I95" s="49"/>
-    </row>
-    <row r="96" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" t="s">
-        <v>487</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96" s="51">
-        <v>2</v>
-      </c>
-      <c r="I96" s="49"/>
-      <c r="N96" s="26" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
-      <c r="C97" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" t="s">
-        <v>486</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="51">
-        <v>3</v>
-      </c>
-      <c r="I97" s="49"/>
-      <c r="N97" s="26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="C98" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" t="s">
-        <v>488</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G98" s="51">
-        <v>3</v>
-      </c>
-      <c r="I98" s="49"/>
-    </row>
-    <row r="99" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="26"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="50"/>
       <c r="C99" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>261</v>
+        <v>362</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="G99" s="51">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="I99" s="49"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="C100" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>504</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="G100" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+        <v>428</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+    </row>
+    <row r="100" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="50"/>
+      <c r="G100" s="51"/>
+      <c r="I100"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+    </row>
+    <row r="101" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="50"/>
+      <c r="B101" s="26" t="s">
+        <v>126</v>
+      </c>
       <c r="C101" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="G101" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="51"/>
+      <c r="I101"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+    </row>
+    <row r="102" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50"/>
       <c r="G102" s="51"/>
-      <c r="I102" s="49"/>
-    </row>
-    <row r="103" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I102"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+    </row>
+    <row r="103" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50"/>
       <c r="B103" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" s="51">
+        <v>2</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="C104" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>491</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>614</v>
+      </c>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="C105" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s">
+        <v>489</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105">
+        <v>0.5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>615</v>
+      </c>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="C106" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s">
+        <v>490</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106">
+        <v>0.5</v>
+      </c>
+      <c r="H106" t="s">
+        <v>616</v>
+      </c>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="C107" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s">
+        <v>488</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>617</v>
+      </c>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="49"/>
+    </row>
+    <row r="108" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="50"/>
+      <c r="G108" s="51"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+    </row>
+    <row r="109" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="50"/>
+      <c r="B109" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>478</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="51">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>618</v>
+      </c>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+    </row>
+    <row r="110" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="50"/>
+      <c r="C110" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s">
+        <v>477</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" s="51">
+        <v>3</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+    </row>
+    <row r="111" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="50"/>
+      <c r="C111" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
+        <v>479</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G111" s="51">
+        <v>3</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+    </row>
+    <row r="112" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="50"/>
+      <c r="C112" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G112" s="51">
+        <v>3</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+    </row>
+    <row r="113" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="50"/>
+      <c r="C113" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="G113" s="51">
+        <v>2</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="C114" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" t="s">
+        <v>492</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" s="51">
+        <v>2</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+    </row>
+    <row r="115" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="50"/>
+      <c r="G115" s="51"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+    </row>
+    <row r="116" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="50"/>
+      <c r="B116" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103" s="51"/>
-      <c r="I103" s="49"/>
-      <c r="N103" s="26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="107" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="C116" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="G116" s="51">
+        <v>1</v>
+      </c>
+      <c r="H116" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>515</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="G117" s="51">
+        <v>1</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="120" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-    </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-    </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J120" s="13"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="8"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="59" t="s">
+      <c r="P120" s="2"/>
+    </row>
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+    </row>
+    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+    </row>
+    <row r="133" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" s="13"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59" t="s">
+      <c r="E134" s="59"/>
+      <c r="F134" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G121" s="60" t="s">
+      <c r="G134" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H121" s="61"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56" t="s">
+      <c r="H134" s="61"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56" t="s">
+      <c r="E135" s="56"/>
+      <c r="F135" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G122" s="62" t="s">
+      <c r="G135" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H122" s="61"/>
-      <c r="I122" s="56" t="s">
+      <c r="H135" s="61"/>
+      <c r="I135" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="J122" s="13"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="63" t="s">
+      <c r="J135" s="13"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E123" s="63"/>
-      <c r="F123" s="56" t="s">
+      <c r="E136" s="63"/>
+      <c r="F136" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G123" s="60" t="s">
+      <c r="G136" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H123" s="61"/>
-      <c r="I123" s="63" t="s">
+      <c r="H136" s="61"/>
+      <c r="I136" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="13"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="63"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="13"/>
-    </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" s="56"/>
-      <c r="D125" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="13"/>
-    </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="63"/>
-      <c r="D126" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E126" s="63"/>
-      <c r="F126" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="13"/>
-    </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C127" s="63"/>
-      <c r="D127" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E127" s="63"/>
-      <c r="F127" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G127" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="H127" s="63"/>
-      <c r="I127" s="63"/>
-      <c r="J127" s="13"/>
-    </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128" s="63"/>
-      <c r="D128" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E128" s="63"/>
-      <c r="F128" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="H128" s="63"/>
-      <c r="I128" s="63"/>
-      <c r="J128" s="13"/>
-    </row>
-    <row r="129" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H129" s="56"/>
-      <c r="I129" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="63"/>
-      <c r="C130" s="63"/>
-      <c r="D130" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E130" s="63"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H130" s="63"/>
-      <c r="I130" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E131" s="63"/>
-      <c r="F131" s="65">
-        <v>42326</v>
-      </c>
-      <c r="G131" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J131" s="13"/>
-    </row>
-    <row r="132" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="63"/>
-      <c r="C132" s="63"/>
-      <c r="D132" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E132" s="63"/>
-      <c r="F132" s="65">
-        <v>42326</v>
-      </c>
-      <c r="G132" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="H132" s="63"/>
-      <c r="I132" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J132" s="13"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="56"/>
-      <c r="F133" s="66">
-        <v>42354</v>
-      </c>
-      <c r="G133" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H133" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="I133" s="56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E134" s="63"/>
-      <c r="F134" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="H134" s="63"/>
-      <c r="I134" s="56"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" s="63"/>
-      <c r="F135" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="G135" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="H135" s="63"/>
-      <c r="I135" s="56"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="E136" s="63"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="H136" s="63"/>
-      <c r="I136" s="56"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J136" s="13"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="63"/>
       <c r="C137" s="63"/>
       <c r="D137" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" s="63"/>
+      <c r="I137" s="63"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" s="56"/>
+      <c r="D138" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" s="56"/>
+      <c r="I138" s="56"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="63"/>
+      <c r="D139" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E139" s="63"/>
+      <c r="F139" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G139" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H139" s="63"/>
+      <c r="I139" s="63"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" s="63"/>
+      <c r="D140" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="63"/>
+      <c r="F140" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G140" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H140" s="63"/>
+      <c r="I140" s="63"/>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" s="63"/>
+      <c r="D141" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" s="63"/>
+      <c r="F141" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G141" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H141" s="63"/>
+      <c r="I141" s="63"/>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="56"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" s="56"/>
+      <c r="I142" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="63"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E143" s="63"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H143" s="63"/>
+      <c r="I143" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="63"/>
+      <c r="C144" s="63"/>
+      <c r="D144" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E144" s="63"/>
+      <c r="F144" s="65">
+        <v>42326</v>
+      </c>
+      <c r="G144" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H144" s="63"/>
+      <c r="I144" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="63"/>
+      <c r="C145" s="63"/>
+      <c r="D145" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="63"/>
+      <c r="F145" s="65">
+        <v>42326</v>
+      </c>
+      <c r="G145" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="56"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E146" s="56"/>
+      <c r="F146" s="66">
+        <v>42354</v>
+      </c>
+      <c r="G146" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="I146" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="63"/>
+      <c r="D147" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" s="63"/>
+      <c r="F147" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G147" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H147" s="63"/>
+      <c r="I147" s="56"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="63"/>
+      <c r="D148" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="63"/>
+      <c r="F148" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H148" s="63"/>
+      <c r="I148" s="56"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="63"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" s="63"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H149" s="63"/>
+      <c r="I149" s="56"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="63"/>
+      <c r="C150" s="63"/>
+      <c r="D150" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E137" s="63"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="60" t="s">
+      <c r="E150" s="63"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H137" s="63"/>
-      <c r="I137" s="56"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="63"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="63" t="s">
+      <c r="H150" s="63"/>
+      <c r="I150" s="56"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="63"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="E138" s="63"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="60" t="s">
+      <c r="E151" s="63"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="63"/>
-      <c r="I138" s="56"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="56"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
@@ -14843,96 +16347,139 @@
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
     </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="I139:I1048576 I7:I13 I36:I40 I51:I67 I46:I48 I91:I94 I104:I106 I100:I101 I1:I4 I31:I32 I17:I29">
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I152:I1048576 I45:I52 I59:I61 I118:I119 I1:I5 I8:I42 I63:I104">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="17" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:A114 B111 C111:F114 G107:XFD120 A115:F120 A121:A1048576 J121:XFD132 A13 A7:A11 A36:A40 A65:A67 A51:A63 A46:A48 A91:A94 A104:A106 A100:A101 A17:A24 A1:A4 A31:A32 A28:A29 A26">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A124:A127 B124 C124:F127 G120:XFD133 A128:F133 A134:A1048576 J134:XFD145 A16 A45:A52 A59:A61 A118:A119 A114 A1:A5 A40:A42 A37:A38 A35 A63:A76 A104:A107 A78:A84 A89 A13:A14 A8:A10 A21:A33">
+    <cfRule type="cellIs" dxfId="16" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112 A107:F110">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B125 A120:F123">
+    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A16">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A17:A20">
+    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+  <conditionalFormatting sqref="D25:D26 D32:D33">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+  <conditionalFormatting sqref="I6:I7">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I5)))</formula>
+  <conditionalFormatting sqref="D37:D38 D35">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29 D26">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:A50">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A91:A98 A87">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A85 A68:A71 A76 A74">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72:B85 B87:B1048576 B1:B27 B28:B70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100:B1048576 B1:B25 B27:B82 B85:B98">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I139:I1048576 I1:I27 I28:I106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I152:I1048576 I1:I119">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F139:F1048576 F38:F106 F1:F11 F13:F23 F25:F27 F28:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F152:F1048576 F13:F14 F118:F119 F1:F10 F16:F18 F20:F30 F32:F45 F47:F116">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139:C1048576 C1:C11 C13:C23 C25:C27 C28:C106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C152:C1048576 C13:C14 C118:C119 C1:C10 C16:C18 C20:C30 C32:C116">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="阻碍" id="{83ED88E9-F144-6C42-99E0-F014912F9BF8}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I7)))</xm:f>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" text="阻碍" id="{F6E4B5A2-E138-6643-A537-DE350F69D88B}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I99)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -14944,8 +16491,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="20" operator="containsText" text="未完成" id="{D29AA341-A8FB-3642-9B79-AFE558E4E7D4}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I7)))</xm:f>
+          <x14:cfRule type="containsText" priority="16" operator="containsText" text="未完成" id="{B541D40D-C0E3-2A4E-A319-53DF43B37716}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I99)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -14957,11 +16504,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I14:I16</xm:sqref>
+          <xm:sqref>I105:I116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" text="阻碍" id="{F6E4B5A2-E138-6643-A537-DE350F69D88B}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I83)))</xm:f>
+          <x14:cfRule type="containsText" priority="31" operator="containsText" text="阻碍" id="{F6E4B5A2-E138-6643-A537-DE350F69D88B}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I58)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -14973,8 +16520,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" text="未完成" id="{B541D40D-C0E3-2A4E-A319-53DF43B37716}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I83)))</xm:f>
+          <x14:cfRule type="containsText" priority="32" operator="containsText" text="未完成" id="{B541D40D-C0E3-2A4E-A319-53DF43B37716}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I58)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -14986,152 +16533,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I78:I81</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" text="阻碍" id="{C070D397-6E92-AF46-8EE1-6AFA001D9AFB}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I57)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" text="未完成" id="{11C7F55A-AAD7-BB49-8333-FDFCEF678B49}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I57)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I49:I50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" text="阻碍" id="{8884A11A-A159-774B-BB0E-94D40D1CA1A7}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I76)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="34" operator="containsText" text="未完成" id="{C6970757-E421-3F41-B139-1BED5E05826F}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I76)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I82:I85 I74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="75" operator="containsText" text="阻碍" id="{F6E4B5A2-E138-6643-A537-DE350F69D88B}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I72)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="76" operator="containsText" text="未完成" id="{B541D40D-C0E3-2A4E-A319-53DF43B37716}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I72)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I68:I71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="79" operator="containsText" text="阻碍" id="{8884A11A-A159-774B-BB0E-94D40D1CA1A7}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I77)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="80" operator="containsText" text="未完成" id="{C6970757-E421-3F41-B139-1BED5E05826F}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I77)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="97" operator="containsText" text="阻碍" id="{8884A11A-A159-774B-BB0E-94D40D1CA1A7}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160106'!I22)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="98" operator="containsText" text="未完成" id="{C6970757-E421-3F41-B139-1BED5E05826F}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160106'!I22)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I30</xm:sqref>
+          <xm:sqref>I62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15141,13 +16543,13 @@
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C124</xm:sqref>
+          <xm:sqref>C137</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C130:C132 C126:C128 C134:C138</xm:sqref>
+          <xm:sqref>C143:C145 C139:C141 C147:C151</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15159,8 +16561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C38"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C38" sqref="C37:C38"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>

--- a/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="1160" windowWidth="35400" windowHeight="18780" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="36760" windowHeight="20000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20121230" sheetId="5" r:id="rId1"/>
     <sheet name="20160106" sheetId="7" r:id="rId2"/>
     <sheet name="20160113" sheetId="8" r:id="rId3"/>
     <sheet name="20160120" sheetId="9" r:id="rId4"/>
-    <sheet name="备忘" sheetId="6" r:id="rId5"/>
+    <sheet name="20160127" sheetId="10" r:id="rId5"/>
+    <sheet name="备忘" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,8 +28,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Kathy</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <charset val="136"/>
+          </rPr>
+          <t>Kathy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+必须 本周必须完成的任务
+超额 超额任务，有可能在本周完成
+长期 长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="961">
   <si>
     <t>类别</t>
   </si>
@@ -5837,10 +5874,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>音效需求（UI音效等）</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>铁马</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
@@ -5870,11 +5903,11 @@
   </si>
   <si>
     <t>22日版本战斗平衡相关调整</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>22日版本成长相关调整</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>22日版本对局相关调整（照妖镜能量时间）</t>
@@ -5886,46 +5919,46 @@
   </si>
   <si>
     <t>MG-2179</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PvP（对局修改, 匹配， 排行， 商店）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2180</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2181</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通天塔 - 经验 （设计）+美术需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2182</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2183</t>
   </si>
   <si>
     <t>账号登陆，选择服务器，创建角色验收</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2184</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2186</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2185</t>
@@ -5942,7 +5975,7 @@
   </si>
   <si>
     <t>策划体验1-2天内容（雪姬负责收集）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>22日版本测试指引，UDID</t>
@@ -5969,7 +6002,7 @@
   </si>
   <si>
     <t>任务内容设计（0.7版本）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>升级提示配置（前2天）</t>
@@ -5988,42 +6021,42 @@
     <rPh sb="9" eb="10">
       <t>tian</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2194</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>云祥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>任务-Debug</t>
@@ -6031,11 +6064,11 @@
   </si>
   <si>
     <t>MG-2195</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2196</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
@@ -6043,7 +6076,7 @@
   </si>
   <si>
     <t>MG-2197</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2198</t>
@@ -6070,14 +6103,14 @@
     <rPh sb="0" eb="1">
       <t>bi'xu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>多语言分表</t>
@@ -6091,11 +6124,11 @@
   </si>
   <si>
     <t>MG-1639</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2202</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ui跳转指引代码熟悉</t>
@@ -6103,11 +6136,11 @@
   </si>
   <si>
     <t>MG-2203</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2204</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工会基地联调</t>
@@ -6115,15 +6148,15 @@
   </si>
   <si>
     <t>MG-2205</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对局修改方案（大招连续按）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2207</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2206</t>
@@ -6136,7 +6169,7 @@
   </si>
   <si>
     <t>通天塔 - 金钱 （设计）+美术需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大冒险用例设计</t>
@@ -6144,22 +6177,22 @@
   </si>
   <si>
     <t>MG-2141</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2210</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2211</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超额</t>
     <rPh sb="0" eb="1">
       <t>chao'e</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2212</t>
@@ -6180,7 +6213,7 @@
   </si>
   <si>
     <t>任务内容（剧情27，日常7)复查bug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2215</t>
@@ -6202,7 +6235,7 @@
   </si>
   <si>
     <t>MG-2222</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2220</t>
@@ -6212,7 +6245,7 @@
   </si>
   <si>
     <t>MG-2224</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>UI-PVP评审配合</t>
@@ -6220,7 +6253,7 @@
   </si>
   <si>
     <t>MG-2226</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>体验游戏</t>
@@ -6228,7 +6261,7 @@
   </si>
   <si>
     <t>MG-2227 MG-2228</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>UI-公会助战-调整</t>
@@ -6236,7 +6269,7 @@
   </si>
   <si>
     <t>MG-2229</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>3D-怪物换色*7（伪天使-暗，伊芙利特-暗，独角兽-暗，嫦娥-暗，温迪戈-木，小丑-木，火鸟-水）</t>
@@ -6244,15 +6277,15 @@
   </si>
   <si>
     <t>MG-2158</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-第一、二章副本debug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2230</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-大招（温迪戈-木，小丑-木，火鸟-水，火鸟-火）</t>
@@ -6264,21 +6297,1075 @@
   </si>
   <si>
     <t>MG-2232</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2231</t>
   </si>
   <si>
     <t>MG-2233</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期，插入任务遗漏功能</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'lou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务-增加图标以及分页签红点显示逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'biao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'ye'qian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hong'dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2243</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'long</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <rPh sb="0" eb="1">
+      <t>b'men</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何人提交进客户端都要先自测，不能改了直接提</t>
+    <rPh sb="0" eb="1">
+      <t>ren'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dou'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'ce</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>l</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术提交的几次都改出了bug，而且客户端还有报错，需要注意，主美审核好美术组提交内容！</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'ci</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>l</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>er'q</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ke'hd'uuan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hai'you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bao'cuo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhu'mei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shen'he</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <rPh sb="0" eb="1">
+      <t>bi'xu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>检查prefab丢失脚本工具</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>diu'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao'ben</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'fei</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2251</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>修改bug提交务必填写对应信息，svn版本号，bug原因和修改方案</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu'bi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian'xie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yuan'yin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>he</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-经验，金钱</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'qian</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘系统</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi't</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三四章副本设计</t>
+    <rPh sb="4" eb="5">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>公会基地</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'di</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>登录流程</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效需求（UI音效等）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>收费点方案</t>
+  </si>
+  <si>
+    <t>成长卡点需求</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力回归 （阵容选择）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <rPh sb="0" eb="1">
+      <t>xue'ji</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <rPh sb="0" eb="1">
+      <t>xue'ji</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3-4章小怪配置</t>
+    <rPh sb="3" eb="4">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本失败指引</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'yin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6版本对局外调整需求</t>
+  </si>
+  <si>
+    <t>大冒险内容设计</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22日版本测试问题跟进</t>
+    <rPh sb="2" eb="3">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gen'jin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期配置测试需要需求文档，策划确认形式</t>
+    <rPh sb="0" eb="1">
+      <t>hou'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'y</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xing'shi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱，经验塔Reward配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss塔Reward配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内容设计 （0.7版本）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具内容设计（0.7版本）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <rPh sb="0" eb="1">
+      <t>lao'li</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2193</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2113</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2172</t>
+  </si>
+  <si>
+    <t>MG-2173</t>
+  </si>
+  <si>
+    <t>MG-2174</t>
+  </si>
+  <si>
+    <t>MG-2175</t>
+  </si>
+  <si>
+    <t>大冒险-任务选择界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-数据配置解析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-布置阵容界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小队界面存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新条件次数弹出框，立即完成弹出窗，使用公会宠物弹出窗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">领取奖励界面  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器联调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋（待拆分）</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋（待拆分）</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'shuai</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>GM工具</t>
+    <rPh sb="2" eb="3">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'sh</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>公会基地-debug</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'di</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>公会基地-debug</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'di</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>本里程碑完成有风险（22日版本时间未精确计算和计划，导致计划有偏差），讨论M8目标</t>
+    <rPh sb="0" eb="1">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jing'que</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dao'zhi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>pain'cha</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>tao'lun</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>mu'b</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>关闭？</t>
+    <rPh sb="0" eb="1">
+      <t>guan'bi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2214</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2216</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>公会助战用例走读</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zou'du</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险用例走读</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zou'du</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>通天塔-经验，金钱用例设计</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘系统用例设计</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi't</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三四章副本用例设计</t>
+    <rPh sb="5" eb="6">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-抽蛋（待拆分）</t>
+    <rPh sb="6" eb="7">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-PVP（待拆分）</t>
+    <rPh sb="7" eb="8">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-副本选择底图*2</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <rPh sb="0" eb="1">
+      <t>sun'fan</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>角色原画-Boss-熔岩巨人（外包）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>角色原画-Boss-冰霜巨龙</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3D-黄金之灵修改</t>
+    <rPh sb="3" eb="4">
+      <t>huang'jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>新怪*4动作需求</t>
+    <rPh sb="0" eb="1">
+      <t>xin'guai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>luo'yang</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>村落-？？</t>
+    <rPh sb="0" eb="1">
+      <t>cun'luo</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-立绘</t>
+    <rPh sb="3" eb="4">
+      <t>li'hui</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-副本失败指引（评审配合）</t>
+    <rPh sb="3" eb="4">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'yin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ping'shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pei'he</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>场景-第一章-拼接</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>场景-第二章-拼接</t>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>特效-UI-抽蛋</t>
+    <rPh sb="0" eb="1">
+      <t>te'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chou'dan</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <rPh sb="0" eb="1">
+      <t>yun'xiang</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>特效-场景-第一章</t>
+    <rPh sb="0" eb="1">
+      <t>te'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'yi'zhang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-场景-第三章</t>
+    <rPh sb="7" eb="8">
+      <t>san</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-场景-第二章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作-冰雪女王，伪天使</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bing'xue'nv'wang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei'tian'shi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>技能Icon？</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>道具Icon？</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>第三四章副本设计，包括美术需求</t>
+    <rPh sb="4" eb="5">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>音乐音效文档分析</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>真机测试还是不够，客户端性能问题暴露和跟进都太晚</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'gou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'h'duan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xing'neng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bao'lu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tai'wan</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6416,6 +7503,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6449,147 +7549,151 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6605,98 +7709,98 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6705,13 +7809,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="90">
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
@@ -6753,6 +7863,8 @@
     <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -6798,8 +7910,72 @@
     <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -7447,7 +8623,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="D10" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E10" t="s">
         <v>319</v>
@@ -10378,20 +11554,20 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F73">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13450,10 +14626,10 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13465,8 +14641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P289"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I148" sqref="I138:I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16994,12 +18170,12 @@
       <c r="A289" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17009,10 +18185,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P297"/>
+  <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView topLeftCell="A93" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17095,7 +18271,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -17111,7 +18287,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>44</v>
@@ -17123,7 +18299,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -17150,7 +18326,10 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>768</v>
+        <v>767</v>
+      </c>
+      <c r="K6" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -17159,7 +18338,7 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>44</v>
@@ -17171,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -17179,7 +18358,7 @@
         <v>512</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>319</v>
@@ -17199,7 +18378,7 @@
         <v>512</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>144</v>
@@ -17211,7 +18390,10 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>773</v>
+        <v>772</v>
+      </c>
+      <c r="K9" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -17231,7 +18413,7 @@
         <v>1.5</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -17293,7 +18475,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>43</v>
@@ -17305,7 +18487,10 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>776</v>
+        <v>775</v>
+      </c>
+      <c r="K14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -17324,13 +18509,16 @@
         <v>36</v>
       </c>
       <c r="D16" s="41" t="s">
+        <v>790</v>
+      </c>
+      <c r="E16" s="42" t="s">
         <v>791</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="H16" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>793</v>
+      <c r="L16" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -17371,7 +18559,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -17388,7 +18576,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -17397,7 +18585,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>44</v>
@@ -17405,7 +18593,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -17420,7 +18608,7 @@
         <v>43</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -17435,7 +18623,7 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E23" t="s">
         <v>615</v>
@@ -17445,6 +18633,9 @@
       </c>
       <c r="G23">
         <v>0.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -17453,7 +18644,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>43</v>
@@ -17474,7 +18665,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>95</v>
@@ -17495,7 +18686,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>129</v>
@@ -17516,7 +18707,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>754</v>
@@ -17525,7 +18716,10 @@
         <v>90</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="L27" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -17534,7 +18728,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>755</v>
+        <v>884</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>754</v>
@@ -17543,7 +18737,7 @@
         <v>93</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -17552,7 +18746,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>754</v>
@@ -17561,7 +18755,7 @@
         <v>96</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -17582,7 +18776,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -17591,7 +18785,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>129</v>
@@ -17603,7 +18797,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -17626,14 +18820,14 @@
         <v>551</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="36"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>448</v>
       </c>
@@ -17644,7 +18838,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E34" s="71" t="s">
         <v>118</v>
@@ -17654,10 +18848,10 @@
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="C35" s="20" t="s">
         <v>36</v>
@@ -17675,7 +18869,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="C36" s="20" t="s">
         <v>36</v>
@@ -17693,7 +18887,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="C37" s="20" t="s">
         <v>36</v>
@@ -17708,7 +18902,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="C38" s="20" t="s">
         <v>36</v>
@@ -17720,7 +18914,7 @@
         <v>47</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G38" s="20">
         <v>2</v>
@@ -17729,7 +18923,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="C39" s="20" t="s">
         <v>36</v>
@@ -17741,7 +18935,7 @@
         <v>47</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G39" s="20">
         <v>1</v>
@@ -17750,7 +18944,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="C40" s="20" t="s">
         <v>36</v>
@@ -17770,8 +18964,11 @@
       <c r="H40" s="20" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="C41" s="20" t="s">
         <v>36</v>
@@ -17783,7 +18980,7 @@
         <v>118</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G41" s="72">
         <v>0.8</v>
@@ -17791,8 +18988,11 @@
       <c r="H41" s="20" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="C42" s="20" t="s">
         <v>46</v>
@@ -17812,139 +19012,140 @@
       <c r="H42" s="20" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="D43" s="68"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="65" t="s">
+        <v>864</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>867</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="G43" s="72">
+        <v>2</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" t="s">
+      <c r="D44" s="68"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="36" t="s">
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="36" t="s">
         <v>700</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="72">
-        <v>2</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="73" t="s">
-        <v>701</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>349</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" s="72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>809</v>
+        <v>701</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>702</v>
+        <v>349</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G46" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="C47" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="73" t="s">
-        <v>703</v>
+        <v>808</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>96</v>
       </c>
       <c r="G47" s="72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="C48" t="s">
-        <v>811</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>813</v>
-      </c>
-      <c r="E48" t="s">
-        <v>812</v>
-      </c>
-      <c r="F48" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>703</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="F48" s="36" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="72">
         <v>1</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>810</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>641</v>
-      </c>
-      <c r="E49" s="36" t="s">
-        <v>705</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>93</v>
+        <v>812</v>
+      </c>
+      <c r="E49" t="s">
+        <v>811</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="G49" s="72">
         <v>1</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -17952,33 +19153,32 @@
       <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="73" t="s">
-        <v>760</v>
+      <c r="D50" s="36" t="s">
+        <v>641</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>761</v>
+        <v>705</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G50" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="I50" s="9"/>
+        <v>807</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>816</v>
+        <v>759</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>359</v>
+        <v>760</v>
       </c>
       <c r="F51" s="36" t="s">
         <v>96</v>
@@ -17987,7 +19187,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I51" s="9"/>
     </row>
@@ -17997,78 +19197,84 @@
         <v>46</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>761</v>
-      </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="20"/>
+        <v>359</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="72">
+        <v>2</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>816</v>
+      </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="D53" s="68"/>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>809</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="G53" s="72"/>
       <c r="H53" s="20"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" t="s">
-        <v>802</v>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" t="s">
+        <v>871</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>872</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="G54" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>875</v>
       </c>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="C55" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" t="s">
-        <v>818</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="D55" s="68"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
+      <c r="B56" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="C56" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>645</v>
+      <c r="H56" t="s">
+        <v>801</v>
       </c>
       <c r="I56" s="9"/>
     </row>
@@ -18078,19 +19284,16 @@
         <v>36</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>52</v>
+        <v>802</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="20">
-        <v>2</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>646</v>
+        <v>96</v>
+      </c>
+      <c r="H57" t="s">
+        <v>817</v>
       </c>
       <c r="I57" s="9"/>
     </row>
@@ -18100,19 +19303,16 @@
         <v>36</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
       <c r="H58" s="20" t="s">
-        <v>820</v>
+        <v>645</v>
       </c>
       <c r="I58" s="9"/>
     </row>
@@ -18122,113 +19322,116 @@
         <v>36</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>648</v>
+        <v>52</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G59" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="44"/>
       <c r="C60" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>650</v>
+        <v>818</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>651</v>
+        <v>287</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="C61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="20">
+        <v>1</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="C62" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="20">
         <v>4</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H62" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="36" t="s">
+      <c r="C64" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>654</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F64" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G64" s="36">
         <v>0.5</v>
       </c>
-      <c r="H62" s="36" t="s">
-        <v>823</v>
-      </c>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="C63" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="E63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>796</v>
-      </c>
-      <c r="G63" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H63" s="36" t="s">
+      <c r="H64" s="36" t="s">
         <v>822</v>
-      </c>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="C64" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="71" t="s">
-        <v>621</v>
-      </c>
-      <c r="E64" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>824</v>
       </c>
       <c r="I64" s="9"/>
     </row>
@@ -18237,153 +19440,153 @@
       <c r="C65" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>826</v>
+      <c r="D65" s="14" t="s">
+        <v>820</v>
       </c>
       <c r="E65" t="s">
         <v>55</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>96</v>
+        <v>795</v>
+      </c>
+      <c r="G65" s="36">
+        <v>0.5</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="37"/>
+      <c r="C66" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>621</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>823</v>
+      </c>
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" t="s">
-        <v>656</v>
+      <c r="C67" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>825</v>
       </c>
       <c r="E67" t="s">
-        <v>654</v>
-      </c>
-      <c r="F67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>655</v>
+        <v>55</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>824</v>
       </c>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
-      <c r="C68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" t="s">
-        <v>827</v>
-      </c>
-      <c r="E68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68" t="s">
-        <v>829</v>
-      </c>
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>654</v>
+      </c>
+      <c r="F69" t="s">
+        <v>93</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
+      <c r="H69" t="s">
+        <v>655</v>
+      </c>
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>826</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>828</v>
+      </c>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
+      <c r="A71" s="37"/>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71" s="36" t="s">
-        <v>828</v>
-      </c>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="C72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" t="s">
-        <v>462</v>
-      </c>
-      <c r="E72" t="s">
-        <v>654</v>
-      </c>
-      <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72">
-        <v>2.5</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>830</v>
-      </c>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
       <c r="C73" t="s">
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="E73" t="s">
-        <v>654</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>799</v>
+        <v>92</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="I73" s="9"/>
     </row>
@@ -18393,105 +19596,104 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>835</v>
+        <v>462</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>654</v>
       </c>
       <c r="F74" t="s">
-        <v>799</v>
+        <v>91</v>
+      </c>
+      <c r="G74">
+        <v>2.5</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="C75" t="s">
-        <v>831</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E75" t="s">
         <v>654</v>
       </c>
+      <c r="F75" t="s">
+        <v>798</v>
+      </c>
       <c r="H75" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s">
         <v>834</v>
       </c>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s">
+        <v>798</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>832</v>
+      </c>
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" t="s">
-        <v>376</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>36</v>
+      <c r="A77" s="4"/>
+      <c r="C77" t="s">
+        <v>830</v>
       </c>
       <c r="D77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E77" t="s">
-        <v>661</v>
-      </c>
-      <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77" t="s">
-        <v>662</v>
+        <v>654</v>
+      </c>
+      <c r="H77" s="36" t="s">
+        <v>833</v>
       </c>
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="C78" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>836</v>
-      </c>
-      <c r="E78" t="s">
-        <v>654</v>
-      </c>
-      <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78" s="36" t="s">
-        <v>838</v>
-      </c>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>376</v>
+      </c>
       <c r="C79" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>837</v>
+      <c r="D79" t="s">
+        <v>660</v>
       </c>
       <c r="E79" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" s="36" t="s">
-        <v>839</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>662</v>
+      </c>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
@@ -18499,120 +19701,120 @@
         <v>36</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E80" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="F80" t="s">
         <v>96</v>
       </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
+      <c r="C81" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="E81" t="s">
+        <v>654</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" t="s">
-        <v>38</v>
-      </c>
+      <c r="A82" s="5"/>
       <c r="C82" s="36" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36" t="s">
-        <v>205</v>
+        <v>839</v>
+      </c>
+      <c r="E82" t="s">
+        <v>688</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="36" t="s">
-        <v>663</v>
-      </c>
-      <c r="E83" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="36">
-        <v>1</v>
-      </c>
-      <c r="H83" s="36"/>
+      <c r="A83" s="5"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="C84" s="36"/>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="C85" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" s="36">
+        <v>1</v>
+      </c>
+      <c r="H85" s="36"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="C86" s="36"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>841</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="C87" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
+      <c r="B88" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="C88" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>664</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>258</v>
+        <v>840</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>706</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>96</v>
@@ -18627,22 +19829,22 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="C89" s="24" t="s">
-        <v>713</v>
-      </c>
-      <c r="D89" s="46" t="s">
-        <v>665</v>
-      </c>
-      <c r="E89" s="46" t="s">
-        <v>258</v>
+        <v>36</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>706</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" s="46">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="G89" s="24">
+        <v>0.5</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -18650,41 +19852,41 @@
       <c r="C90" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="46" t="s">
-        <v>847</v>
+      <c r="D90" s="24" t="s">
+        <v>664</v>
       </c>
       <c r="E90" s="46" t="s">
-        <v>756</v>
+        <v>258</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" s="46">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="G90" s="24">
+        <v>0.5</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="C91" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="E91" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>665</v>
+      </c>
+      <c r="E91" s="46" t="s">
         <v>258</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" s="48">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="G91" s="46">
+        <v>3</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>714</v>
+        <v>845</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -18693,19 +19895,19 @@
         <v>36</v>
       </c>
       <c r="D92" s="46" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E92" s="46" t="s">
-        <v>474</v>
+        <v>755</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>715</v>
+        <v>91</v>
       </c>
       <c r="G92" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -18714,19 +19916,19 @@
         <v>46</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>851</v>
+        <v>756</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>706</v>
+        <v>258</v>
       </c>
       <c r="F93" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G93" s="24">
-        <v>1</v>
+      <c r="G93" s="48">
+        <v>2</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>852</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -18734,124 +19936,143 @@
       <c r="C94" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>59</v>
+      <c r="D94" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>474</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" s="24">
-        <v>3</v>
+        <v>715</v>
+      </c>
+      <c r="G94" s="46">
+        <v>1</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>708</v>
+        <v>849</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="C95" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>372</v>
+        <v>706</v>
       </c>
       <c r="F95" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="48">
-        <v>3</v>
+      <c r="G95" s="24">
+        <v>1</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>716</v>
+        <v>851</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="G96" s="48"/>
+      <c r="C96" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G96" s="24">
+        <v>3</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="46" t="s">
-        <v>61</v>
-      </c>
       <c r="C97" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D97" t="s">
-        <v>480</v>
+      <c r="D97" s="24" t="s">
+        <v>757</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="F97" s="24" t="s">
         <v>96</v>
       </c>
       <c r="G97" s="48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>100</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="C98" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" t="s">
-        <v>709</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="48">
-        <v>6</v>
-      </c>
-      <c r="H98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="G98" s="48"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
+      <c r="B99" s="46" t="s">
+        <v>61</v>
+      </c>
       <c r="C99" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>666</v>
+        <v>36</v>
+      </c>
+      <c r="D99" t="s">
+        <v>480</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>759</v>
-      </c>
-      <c r="F99" s="24"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="24"/>
+        <v>479</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G99" s="48">
+        <v>6</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
+      <c r="C100" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
+        <v>709</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>479</v>
+      </c>
       <c r="F100" s="24"/>
-      <c r="G100" s="48"/>
+      <c r="G100" s="48">
+        <v>6</v>
+      </c>
       <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="46" t="s">
-        <v>63</v>
-      </c>
       <c r="C101" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>758</v>
+      </c>
       <c r="F101" s="24"/>
       <c r="G101" s="48"/>
       <c r="H101" s="24"/>
@@ -18867,67 +20088,62 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="24" t="s">
-        <v>64</v>
+      <c r="B103" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G103" s="48">
-        <v>3</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>667</v>
-      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="C104" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" s="46"/>
-      <c r="K104" s="46"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="24"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
+      <c r="B105" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="C105" s="24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J105" s="46"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="46"/>
-      <c r="N105" s="46"/>
+        <v>361</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G105" s="48">
+        <v>3</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
+      <c r="C106" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="J106" s="46"/>
       <c r="K106" s="46"/>
       <c r="L106" s="46"/>
@@ -18936,26 +20152,14 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="24" t="s">
-        <v>157</v>
-      </c>
       <c r="C107" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>711</v>
+        <v>668</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G107" s="48">
-        <v>3</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>854</v>
+        <v>59</v>
       </c>
       <c r="J107" s="46"/>
       <c r="K107" s="46"/>
@@ -18965,24 +20169,9 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="C108" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" t="s">
-        <v>476</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F108" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G108" s="48">
-        <v>1</v>
-      </c>
-      <c r="H108" s="24" t="s">
-        <v>606</v>
-      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
       <c r="J108" s="46"/>
       <c r="K108" s="46"/>
       <c r="L108" s="46"/>
@@ -18991,23 +20180,26 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
+      <c r="B109" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="C109" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D109" t="s">
-        <v>478</v>
+      <c r="D109" s="24" t="s">
+        <v>711</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G109" s="48">
         <v>3</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>607</v>
+        <v>853</v>
       </c>
       <c r="J109" s="46"/>
       <c r="K109" s="46"/>
@@ -19017,7 +20209,24 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="G110" s="48"/>
+      <c r="C110" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s">
+        <v>476</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G110" s="48">
+        <v>1</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>606</v>
+      </c>
       <c r="J110" s="46"/>
       <c r="K110" s="46"/>
       <c r="L110" s="46"/>
@@ -19026,22 +20235,24 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="C111" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>669</v>
+      <c r="D111" t="s">
+        <v>478</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" s="48"/>
+        <v>96</v>
+      </c>
+      <c r="G111" s="48">
+        <v>3</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>607</v>
+      </c>
       <c r="J111" s="46"/>
       <c r="K111" s="46"/>
       <c r="L111" s="46"/>
@@ -19050,11 +20261,6 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
       <c r="G112" s="48"/>
       <c r="J112" s="46"/>
       <c r="K112" s="46"/>
@@ -19065,26 +20271,21 @@
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" t="s">
-        <v>797</v>
-      </c>
-      <c r="D113" t="s">
-        <v>855</v>
-      </c>
-      <c r="E113" t="s">
-        <v>798</v>
-      </c>
-      <c r="F113" t="s">
-        <v>799</v>
-      </c>
-      <c r="G113">
-        <v>0.5</v>
-      </c>
-      <c r="H113" t="s">
-        <v>856</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" s="48"/>
       <c r="J113" s="46"/>
       <c r="K113" s="46"/>
       <c r="L113" s="46"/>
@@ -19092,25 +20293,13 @@
       <c r="N113" s="46"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="C114" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F114" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>860</v>
-      </c>
+      <c r="A114" s="47"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="48"/>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
       <c r="L114" s="46"/>
@@ -19119,23 +20308,26 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="C115" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>858</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G115" s="48">
-        <v>3</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>859</v>
+      <c r="B115" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" t="s">
+        <v>796</v>
+      </c>
+      <c r="D115" t="s">
+        <v>854</v>
+      </c>
+      <c r="E115" t="s">
+        <v>797</v>
+      </c>
+      <c r="F115" t="s">
+        <v>798</v>
+      </c>
+      <c r="G115">
+        <v>0.5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>855</v>
       </c>
       <c r="J115" s="46"/>
       <c r="K115" s="46"/>
@@ -19144,24 +20336,24 @@
       <c r="N115" s="46"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
+      <c r="A116" s="4"/>
       <c r="C116" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D116" t="s">
-        <v>486</v>
+      <c r="D116" s="24" t="s">
+        <v>856</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>154</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G116">
-        <v>0.5</v>
-      </c>
-      <c r="H116" t="s">
-        <v>600</v>
+        <v>2</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>859</v>
       </c>
       <c r="J116" s="46"/>
       <c r="K116" s="46"/>
@@ -19174,8 +20366,8 @@
       <c r="C117" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D117" t="s">
-        <v>670</v>
+      <c r="D117" s="24" t="s">
+        <v>857</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>154</v>
@@ -19183,11 +20375,11 @@
       <c r="F117" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G117">
-        <v>0.5</v>
-      </c>
-      <c r="H117" t="s">
-        <v>861</v>
+      <c r="G117" s="48">
+        <v>3</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>858</v>
       </c>
       <c r="J117" s="46"/>
       <c r="K117" s="46"/>
@@ -19196,24 +20388,24 @@
       <c r="N117" s="46"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="47"/>
       <c r="C118" s="24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>154</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G118">
         <v>0.5</v>
       </c>
       <c r="H118" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J118" s="46"/>
       <c r="K118" s="46"/>
@@ -19223,7 +20415,24 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="G119" s="48"/>
+      <c r="C119" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>670</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G119">
+        <v>0.5</v>
+      </c>
+      <c r="H119" t="s">
+        <v>860</v>
+      </c>
       <c r="J119" s="46"/>
       <c r="K119" s="46"/>
       <c r="L119" s="46"/>
@@ -19231,8 +20440,25 @@
       <c r="N119" s="46"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="G120" s="48"/>
+      <c r="A120" s="4"/>
+      <c r="C120" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
+        <v>487</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G120">
+        <v>0.5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>601</v>
+      </c>
       <c r="J120" s="46"/>
       <c r="K120" s="46"/>
       <c r="L120" s="46"/>
@@ -19241,27 +20467,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="G121" s="48">
-        <v>1</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>605</v>
-      </c>
+      <c r="G121" s="48"/>
       <c r="J121" s="46"/>
       <c r="K121" s="46"/>
       <c r="L121" s="46"/>
@@ -19269,13 +20475,37 @@
       <c r="N121" s="46"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>512</v>
-      </c>
+      <c r="A122" s="47"/>
+      <c r="G122" s="48"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="G123" s="48"/>
+      <c r="B123" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G123" s="48">
+        <v>1</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>605</v>
+      </c>
       <c r="J123" s="46"/>
       <c r="K123" s="46"/>
       <c r="L123" s="46"/>
@@ -19283,45 +20513,27 @@
       <c r="N123" s="46"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="C124" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="47"/>
+      <c r="G125" s="48"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="46"/>
+      <c r="N125" s="46"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-    </row>
-    <row r="127" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -19329,11 +20541,17 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="J128" s="8"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -19343,10 +20561,10 @@
       <c r="H129" s="8"/>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="B130" s="10" t="s">
-        <v>23</v>
+      <c r="B130" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -19357,17 +20575,13 @@
       <c r="J130" s="8"/>
     </row>
     <row r="131" spans="1:16" ht="34" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="3"/>
       <c r="B131" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>672</v>
-      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -19375,6 +20589,9 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
+      <c r="B132" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -19385,10 +20602,16 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="B133" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -19396,16 +20619,13 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="J134" s="9"/>
+      <c r="J134" s="8"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
@@ -19414,19 +20634,21 @@
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="J135" s="9"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
       <c r="J136" s="9"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -19439,18 +20661,10 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="J137" s="9"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -19458,80 +20672,66 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-    </row>
-    <row r="139" spans="1:16" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-      <c r="B139" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J139" s="13"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="J139" s="9"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G140" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="H140" s="58"/>
-      <c r="J140" s="13"/>
+      <c r="B140" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="J140" s="9"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P140" s="2"/>
+    </row>
+    <row r="141" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E141" s="53"/>
-      <c r="F141" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G141" s="59" t="s">
-        <v>673</v>
-      </c>
-      <c r="H141" s="58"/>
+      <c r="B141" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="J141" s="13"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -19543,15 +20743,15 @@
       <c r="A142" s="2"/>
       <c r="B142" s="53"/>
       <c r="C142" s="53"/>
-      <c r="D142" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E142" s="60"/>
-      <c r="F142" s="53" t="s">
+      <c r="D142" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56" t="s">
         <v>68</v>
       </c>
       <c r="G142" s="57" t="s">
-        <v>41</v>
+        <v>673</v>
       </c>
       <c r="H142" s="58"/>
       <c r="J142" s="13"/>
@@ -19562,229 +20762,243 @@
       <c r="O142" s="2"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B143" s="60"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="60" t="s">
+      <c r="A143" s="2"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" s="53"/>
+      <c r="F143" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G143" s="59" t="s">
+        <v>673</v>
+      </c>
+      <c r="H143" s="58"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144" s="60"/>
+      <c r="F144" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H144" s="58"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E143" s="60"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="57" t="s">
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H143" s="60"/>
-      <c r="J143" s="13"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B144" s="53" t="s">
+      <c r="H145" s="60"/>
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C144" s="53"/>
-      <c r="D144" s="53" t="s">
+      <c r="C146" s="53"/>
+      <c r="D146" s="53" t="s">
         <v>674</v>
       </c>
-      <c r="E144" s="53"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="59" t="s">
+      <c r="E146" s="53"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H144" s="53"/>
-      <c r="J144" s="13"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="61" t="s">
+      <c r="H146" s="53"/>
+      <c r="J146" s="13"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="61" t="s">
         <v>675</v>
       </c>
-      <c r="C145" s="60"/>
-      <c r="D145" s="61" t="s">
+      <c r="C147" s="60"/>
+      <c r="D147" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E145" s="60"/>
-      <c r="F145" s="56" t="s">
+      <c r="E147" s="60"/>
+      <c r="F147" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G145" s="57" t="s">
+      <c r="G147" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="H145" s="60" t="s">
+      <c r="H147" s="60" t="s">
         <v>677</v>
       </c>
-      <c r="J145" s="13"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="61" t="s">
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="61" t="s">
         <v>678</v>
       </c>
-      <c r="C146" s="60"/>
-      <c r="D146" s="61" t="s">
+      <c r="C148" s="60"/>
+      <c r="D148" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E146" s="60"/>
-      <c r="F146" s="53" t="s">
+      <c r="E148" s="60"/>
+      <c r="F148" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G146" s="57" t="s">
+      <c r="G148" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="H146" s="60" t="s">
+      <c r="H148" s="60" t="s">
         <v>677</v>
       </c>
-      <c r="J146" s="13"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="60" t="s">
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="60" t="s">
         <v>679</v>
       </c>
-      <c r="C147" s="60"/>
-      <c r="D147" s="20" t="s">
+      <c r="C149" s="60"/>
+      <c r="D149" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E147" s="60"/>
-      <c r="F147" s="53" t="s">
+      <c r="E149" s="60"/>
+      <c r="F149" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G147" s="57" t="s">
+      <c r="G149" s="57" t="s">
         <v>680</v>
-      </c>
-      <c r="H147" s="60"/>
-      <c r="J147" s="13"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="53"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E148" s="53"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="H148" s="53"/>
-      <c r="J148" s="13"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="60"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="60" t="s">
-        <v>681</v>
-      </c>
-      <c r="E149" s="60"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="57" t="s">
-        <v>682</v>
       </c>
       <c r="H149" s="60"/>
       <c r="J149" s="13"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E150" s="60"/>
-      <c r="F150" s="62">
-        <v>42326</v>
-      </c>
-      <c r="G150" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H150" s="60"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" s="53"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" s="53"/>
       <c r="J150" s="13"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" s="60"/>
       <c r="C151" s="60"/>
       <c r="D151" s="60" t="s">
-        <v>88</v>
+        <v>681</v>
       </c>
       <c r="E151" s="60"/>
-      <c r="F151" s="62">
-        <v>42326</v>
-      </c>
+      <c r="F151" s="62"/>
       <c r="G151" s="57" t="s">
-        <v>86</v>
+        <v>682</v>
       </c>
       <c r="H151" s="60"/>
       <c r="J151" s="13"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="53"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="53" t="s">
-        <v>683</v>
-      </c>
-      <c r="E152" s="53"/>
-      <c r="F152" s="63">
-        <v>42354</v>
-      </c>
-      <c r="G152" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H152" s="53" t="s">
-        <v>158</v>
-      </c>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" s="60"/>
+      <c r="F152" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G152" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H152" s="60"/>
+      <c r="J152" s="13"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
       <c r="B153" s="60"/>
       <c r="C153" s="60"/>
       <c r="D153" s="60" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E153" s="60"/>
-      <c r="F153" s="62" t="s">
-        <v>160</v>
+      <c r="F153" s="62">
+        <v>42326</v>
       </c>
       <c r="G153" s="57" t="s">
-        <v>684</v>
+        <v>86</v>
       </c>
       <c r="H153" s="60"/>
+      <c r="J153" s="13"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="60"/>
-      <c r="F154" s="62" t="s">
-        <v>685</v>
-      </c>
-      <c r="G154" s="57" t="s">
-        <v>136</v>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="E154" s="53"/>
+      <c r="F154" s="63">
+        <v>42354</v>
+      </c>
+      <c r="G154" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="H154" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
       <c r="B155" s="60"/>
       <c r="C155" s="60"/>
       <c r="D155" s="60" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E155" s="60"/>
-      <c r="F155" s="62"/>
+      <c r="F155" s="62" t="s">
+        <v>160</v>
+      </c>
       <c r="G155" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="H155" s="53" t="s">
-        <v>158</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="H155" s="60"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
       <c r="B156" s="60"/>
       <c r="C156" s="60"/>
       <c r="D156" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E156" s="60"/>
-      <c r="F156" s="62"/>
+      <c r="F156" s="62" t="s">
+        <v>685</v>
+      </c>
       <c r="G156" s="57" t="s">
-        <v>686</v>
+        <v>136</v>
       </c>
       <c r="H156" s="53" t="s">
         <v>158</v>
@@ -19794,34 +21008,46 @@
       <c r="B157" s="60"/>
       <c r="C157" s="60"/>
       <c r="D157" s="60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E157" s="60"/>
       <c r="F157" s="62"/>
       <c r="G157" s="57" t="s">
-        <v>687</v>
+        <v>135</v>
       </c>
       <c r="H157" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="60"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="H158" s="53" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E159" s="60"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="H159" s="53" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="23"/>
@@ -19859,11 +21085,23 @@
       <c r="G163" s="23"/>
       <c r="H163" s="23"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
@@ -20234,23 +21472,29 @@
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
     </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="7"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="I78:I1048576 I1:I49">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="阻碍">
+  <phoneticPr fontId="0" type="Hiragana"/>
+  <conditionalFormatting sqref="I80:I1048576 I1:I50">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:I77">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I51:I79">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I78:I1048576 I1:I49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I80:I1048576 I1:I50">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20259,6 +21503,2242 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P284"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>879</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>878</v>
+      </c>
+      <c r="E4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="D8" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="E10" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="D12" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="E12" t="s">
+        <v>791</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="D13" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="E13" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="D14" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="E14" t="s">
+        <v>889</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="D15" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" t="s">
+        <v>889</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E17" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>882</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>883</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>892</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>791</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="D26" s="74" t="s">
+        <v>885</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="D27" s="75" t="s">
+        <v>886</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="D28" t="s">
+        <v>894</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="D29" t="s">
+        <v>895</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="D30" t="s">
+        <v>898</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="D31" t="s">
+        <v>899</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="D32" t="s">
+        <v>900</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="D33" t="s">
+        <v>901</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>925</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>909</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>910</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37">
+        <v>0.8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>911</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>912</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39">
+        <v>1.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>913</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>914</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41">
+        <v>0.7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>915</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="D43" t="s">
+        <v>916</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="E44" s="71"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="E45" s="71"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="E46" s="71"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="E47" s="71"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="E48" s="71"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>701</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>808</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>703</v>
+      </c>
+      <c r="E52" t="s">
+        <v>920</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="E53" t="s">
+        <v>919</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>759</v>
+      </c>
+      <c r="E54" t="s">
+        <v>873</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>917</v>
+      </c>
+      <c r="E57" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="D58" s="73" t="s">
+        <v>924</v>
+      </c>
+      <c r="E58" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="D59" t="s">
+        <v>922</v>
+      </c>
+      <c r="E59" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="D66" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="D67" s="20" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="D68" s="20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>826</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>657</v>
+      </c>
+      <c r="E71" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="D72" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="D73" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="D74" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>659</v>
+      </c>
+      <c r="E76" t="s">
+        <v>465</v>
+      </c>
+      <c r="H76" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="E78" t="s">
+        <v>465</v>
+      </c>
+      <c r="H78" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="D79" s="36"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="D81" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D82" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>936</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="D85" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="D86" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="G86" s="24">
+        <v>1</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="D87" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="D88" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="D89" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="D90" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="D91" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="D92" s="24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="D93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s">
+        <v>940</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>941</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>945</v>
+      </c>
+      <c r="E98" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="D101" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="D102" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="D103" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s">
+        <v>948</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="D106" t="s">
+        <v>949</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" t="s">
+        <v>955</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" t="s">
+        <v>950</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="D111" t="s">
+        <v>952</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="D112" t="s">
+        <v>954</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="D113" t="s">
+        <v>953</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s">
+        <v>943</v>
+      </c>
+      <c r="E115" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="76">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="76">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="76">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="76">
+        <v>4</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="76">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="76">
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+    </row>
+    <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+    </row>
+    <row r="134" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J134" s="13"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G135" s="57" t="s">
+        <v>673</v>
+      </c>
+      <c r="H135" s="58"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G136" s="59" t="s">
+        <v>673</v>
+      </c>
+      <c r="H136" s="77" t="s">
+        <v>927</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J136" s="13"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" s="60"/>
+      <c r="F137" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G137" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" s="58"/>
+      <c r="I137" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J137" s="13"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="60"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" s="60"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" s="53"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="C140" s="60"/>
+      <c r="D140" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="60"/>
+      <c r="F140" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G140" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="H140" s="60"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="53"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" s="53"/>
+      <c r="I141" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="60"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="E142" s="60"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="H142" s="60"/>
+      <c r="I142" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="60"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E143" s="60"/>
+      <c r="F143" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G143" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H143" s="60"/>
+      <c r="I143" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="60"/>
+      <c r="F144" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G144" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H144" s="60"/>
+      <c r="I144" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E145" s="60"/>
+      <c r="F145" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G145" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="H145" s="60"/>
+      <c r="I145" s="23"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="53"/>
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="62"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="53"/>
+      <c r="I147" s="11"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="11"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="53"/>
+      <c r="I149" s="11"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="Hiragana"/>
+  <conditionalFormatting sqref="I150:I1048576 I136:I137 I1:I116">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A124 B121 C121:F124 G117:XFD134 A125:F134 J135:XFD144 A135:A1048576 I146:I149 A1:A62 A64:A116">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122 A117:F120">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138:I144">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I150:I1048576 I1:I116">
+      <formula1>"完成,未完成,阻碍"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F54 F150:F1048576 F56:F116">
+      <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54 C150:C1048576 C56:C83 C85:C116">
+      <formula1>"必须,超额,长期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B150:B1048576 B12:B106 B108:B134">
+      <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C38"/>
   <sheetViews>
@@ -20420,7 +23900,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑8/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="3040" yWindow="1160" windowWidth="30920" windowHeight="17700" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20121230" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="20160113" sheetId="8" r:id="rId3"/>
     <sheet name="20160120" sheetId="9" r:id="rId4"/>
     <sheet name="20160127" sheetId="10" r:id="rId5"/>
-    <sheet name="备忘" sheetId="6" r:id="rId6"/>
+    <sheet name="20160203" sheetId="11" r:id="rId6"/>
+    <sheet name="备忘" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -66,8 +67,46 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Kathy</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Kathy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须 本周必须完成的任务
+超额 超额任务，有可能在本周完成
+长期 长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1236">
   <si>
     <t>类别</t>
   </si>
@@ -5717,11 +5756,11 @@
   </si>
   <si>
     <t>22日版本战斗平衡相关调整</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>22日版本成长相关调整</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>22日版本对局相关调整（照妖镜能量时间）</t>
@@ -5733,46 +5772,46 @@
   </si>
   <si>
     <t>MG-2179</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2101</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PvP（对局修改, 匹配， 排行， 商店）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2180</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2181</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通天塔 - 经验 （设计）+美术需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2182</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2183</t>
   </si>
   <si>
     <t>账号登陆，选择服务器，创建角色验收</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2184</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2186</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2185</t>
@@ -5789,7 +5828,7 @@
   </si>
   <si>
     <t>策划体验1-2天内容（雪姬负责收集）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>22日版本测试指引，UDID</t>
@@ -5816,7 +5855,7 @@
   </si>
   <si>
     <t>任务内容设计（0.7版本）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>升级提示配置（前2天）</t>
@@ -5835,38 +5874,38 @@
     <rPh sb="9" eb="10">
       <t>tian</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2194</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>云祥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>任务-Debug</t>
@@ -5874,11 +5913,11 @@
   </si>
   <si>
     <t>MG-2195</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2196</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
@@ -5886,7 +5925,7 @@
   </si>
   <si>
     <t>MG-2197</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2198</t>
@@ -5913,14 +5952,14 @@
     <rPh sb="0" eb="1">
       <t>bi'xu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>多语言分表</t>
@@ -5934,11 +5973,11 @@
   </si>
   <si>
     <t>MG-1639</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2202</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ui跳转指引代码熟悉</t>
@@ -5946,11 +5985,11 @@
   </si>
   <si>
     <t>MG-2203</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2204</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工会基地联调</t>
@@ -5958,15 +5997,15 @@
   </si>
   <si>
     <t>MG-2205</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对局修改方案（大招连续按）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2207</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2206</t>
@@ -5979,7 +6018,7 @@
   </si>
   <si>
     <t>通天塔 - 金钱 （设计）+美术需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大冒险用例设计</t>
@@ -5987,22 +6026,22 @@
   </si>
   <si>
     <t>MG-2141</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2210</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2211</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超额</t>
     <rPh sb="0" eb="1">
       <t>chao'e</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2212</t>
@@ -6023,7 +6062,7 @@
   </si>
   <si>
     <t>任务内容（剧情27，日常7)复查bug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2215</t>
@@ -6037,7 +6076,7 @@
   </si>
   <si>
     <t>MG-2222</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2220</t>
@@ -6047,27 +6086,27 @@
   </si>
   <si>
     <t>MG-2224</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2227 MG-2228</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2229</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2158</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-第一、二章副本debug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2230</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2231</t>
@@ -6077,11 +6116,11 @@
     <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>延期，插入任务遗漏功能</t>
@@ -6100,7 +6139,7 @@
     <rPh sb="9" eb="10">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>任务-增加图标以及分页签红点显示逻辑</t>
@@ -6131,15 +6170,15 @@
     <rPh sb="16" eb="17">
       <t>luo'ji</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2243</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
@@ -6153,7 +6192,7 @@
     <rPh sb="0" eb="1">
       <t>b'men</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>任何人提交进客户端都要先自测，不能改了直接提</t>
@@ -6196,7 +6235,7 @@
     <rPh sb="21" eb="22">
       <t>ti</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>美术提交的几次都改出了bug，而且客户端还有报错，需要注意，主美审核好美术组提交内容！</t>
@@ -6263,7 +6302,7 @@
     <rPh sb="40" eb="41">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
@@ -6341,11 +6380,11 @@
     <rPh sb="31" eb="32">
       <t>fang'an</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>立绘系统</t>
@@ -6355,7 +6394,7 @@
     <rPh sb="2" eb="3">
       <t>xi't</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第三四章副本设计</t>
@@ -6375,7 +6414,7 @@
     <rPh sb="2" eb="3">
       <t>ji'di</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Debug</t>
@@ -6389,21 +6428,21 @@
     <rPh sb="0" eb="1">
       <t>qian'dao</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
     <rPh sb="0" eb="1">
       <t>xue'ji</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
     <rPh sb="0" eb="1">
       <t>xiao'xing</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
@@ -6423,7 +6462,7 @@
     <rPh sb="4" eb="5">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0.6版本对局外调整需求</t>
@@ -6445,7 +6484,7 @@
     <rPh sb="9" eb="10">
       <t>gen'jin</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>后期配置测试需要需求文档，策划确认形式</t>
@@ -6476,18 +6515,18 @@
     <rPh sb="17" eb="18">
       <t>xing'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
     <rPh sb="0" eb="1">
       <t>lao'li</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2193</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MG-2172</t>
@@ -6503,31 +6542,11 @@
   </si>
   <si>
     <t>大冒险-任务选择界面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大冒险-数据配置解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险-布置阵容界面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小队界面存在</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新条件次数弹出框，立即完成弹出窗，使用公会宠物弹出窗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">领取奖励界面  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器联调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
@@ -6579,7 +6598,7 @@
     <rPh sb="2" eb="3">
       <t>ji'di</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>本里程碑完成有风险（22日版本时间未精确计算和计划，导致计划有偏差），讨论M8目标</t>
@@ -6710,7 +6729,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>立绘系统用例设计</t>
@@ -6720,7 +6739,7 @@
     <rPh sb="2" eb="3">
       <t>xi't</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第三四章副本用例设计</t>
@@ -6736,16 +6755,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>UI-PVP（待拆分）</t>
-    <rPh sb="7" eb="8">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chai'fen</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
@@ -6826,7 +6835,7 @@
     <rPh sb="8" eb="9">
       <t>zhang</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-场景-第三章</t>
@@ -6836,11 +6845,11 @@
     <rPh sb="8" eb="9">
       <t>zhang</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-场景-第二章</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第三四章副本设计，包括美术需求</t>
@@ -7166,7 +7175,7 @@
   </si>
   <si>
     <t>MG-2226</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>体验游戏</t>
@@ -7182,7 +7191,7 @@
   </si>
   <si>
     <t>MG-2229</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>bug阻碍了</t>
@@ -7266,11 +7275,11 @@
   </si>
   <si>
     <t>必须</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>D6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-大招（温迪戈-木，小丑-木，火鸟-水，火鸟-火）</t>
@@ -7282,7 +7291,7 @@
   </si>
   <si>
     <t>MG-2232</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效-场景-第四章</t>
@@ -7298,7 +7307,7 @@
   </si>
   <si>
     <t>MG-2233</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>场景-特效-第六章</t>
@@ -7349,10 +7358,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>雪姬，木木</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>安卓打包问题处理</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
@@ -7438,7 +7443,7 @@
   </si>
   <si>
     <t>战力回归 （阵容选择，包括宠物tips）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>道具icon新增美术需求</t>
@@ -7454,10 +7459,6 @@
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>必须</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
@@ -7491,7 +7492,7 @@
     <rPh sb="7" eb="8">
       <t>jin'qian</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>登录-debug</t>
@@ -7537,22 +7538,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>运营GM工具（待拆分）</t>
-    <rPh sb="0" eb="1">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gong'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chai'fen</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>MG-2256</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
@@ -7617,7 +7602,7 @@
     <rPh sb="3" eb="4">
       <t>pin</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋-UI逻辑</t>
@@ -7870,9 +7855,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>MG-2304</t>
-  </si>
-  <si>
     <t>MG-2305</t>
   </si>
   <si>
@@ -7982,13 +7964,843 @@
   <si>
     <t>MG-2330</t>
     <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>里程碑9计划</t>
+    <rPh sb="0" eb="1">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑封测版本内容，预估封测时间。目前对于项目封测内容比较模糊，时间也很难预估</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'ce</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei'rog</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>feng'ce</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dui'yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>feng'ce</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>mo'hu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yu'gu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2304</t>
+  </si>
+  <si>
+    <t>小星，木木</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pan'gi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-策划验收</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-策划验收</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>chou'da</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-布置阵容界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-小队界面存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-刷新条件次数弹出框，立即完成弹出窗，使用公会宠物弹出窗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大冒险-领取奖励界面  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险-服务器联调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-UI动画&amp;结果展示逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP（待拆分）</t>
+    <rPh sb="4" eb="5">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择界面战力功能补充（待拆分）</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu'chong</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本-小怪boss技能动作，特效配置</t>
+    <rPh sb="6" eb="7">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本-小怪，小怪boss，大boss技能配置</t>
+    <rPh sb="6" eb="7">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本-小怪bossAI配置</t>
+    <rPh sb="6" eb="7">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局修改方案</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2314</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>音乐音效包，贴图包释放处理</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>运营GM工具-搭建结构</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'gou</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>服务器自主任务</t>
+  </si>
+  <si>
+    <t>GM工具-具体GM</t>
+    <rPh sb="2" eb="3">
+      <t>gong'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju't</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>PVP（待拆分）</t>
+    <rPh sb="4" eb="5">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>签到（待拆分）</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>PVP用例设计</t>
+    <rPh sb="3" eb="4">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>抽蛋测试</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>抽蛋复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险测试</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <rPh sb="0" eb="1">
+      <t>lei'sehn</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <rPh sb="0" eb="1">
+      <t>lei'shen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>战力回归 （阵容选择，包括宠物tips）用例设计</t>
+    <rPh sb="20" eb="21">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到用例设计</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI-PVP-竞技场主界面 </t>
+  </si>
+  <si>
+    <t>UI-PVP-阵容选择，阵容防守，防守记录</t>
+    <rPh sb="7" eb="8">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang'hsou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fang'shou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-PVP-竞技奖励，排行榜，规则说明，竞技商城</t>
+    <rPh sb="7" eb="8">
+      <t>jing'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai'hang'bang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gui'ze</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>j'j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang'cheng</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI-PVP-loading结算 </t>
+    <rPh sb="14" eb="15">
+      <t>jie'suan</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2331</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2332</t>
+  </si>
+  <si>
+    <t>MG-2333</t>
+  </si>
+  <si>
+    <t>MG-2334</t>
+  </si>
+  <si>
+    <t>角色原画-Boss-熔岩巨人</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>抽蛋动画</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>角色3D-冰龙</t>
+  </si>
+  <si>
+    <t>MG-2335</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>卫芳</t>
+    <rPh sb="0" eb="1">
+      <t>wei'fang</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>场景-第三章-拼接 绘制地表贴图</t>
+    <rPh sb="4" eb="5">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>场景-第三章-打灯渲染</t>
+    <rPh sb="4" eb="5">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>场景-第三章-加特效后调整，添加镜头站位点</t>
+    <rPh sb="4" eb="5">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-抽蛋-debug</t>
+    <rPh sb="3" eb="4">
+      <t>chou'dan</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-大冒险-debug</t>
+    <rPh sb="3" eb="4">
+      <t>da'mao'xian</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>立绘功能</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-抽蛋-调整</t>
+    <rPh sb="3" eb="4">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-阵容选择</t>
+    <rPh sb="3" eb="4">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-签到</t>
+    <rPh sb="3" eb="4">
+      <t>qian'dao</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-副本失败指引</t>
+    <rPh sb="3" eb="4">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'yin</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险主界面    调ui和动画 </t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险对阵界面  调ui和动画 </t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险奖励界面  调ui和动画和特效</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险队伍界面  调ui和动画</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险二级界面  调ui和动画</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险对阵界面完成度宝箱动画 （需宝箱ok）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>主界面完成冒险特效动画      （需原画ok）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>动作-冰雪女王</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bing'xue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nv'wang</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>动作-九尾狐</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiu'wei'hu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>动作-黄金之灵</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huang'jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>阵容选择</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>副本失败指引</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'yin</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>对局修改</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>里程碑9计划</t>
+    <rPh sb="0" eb="1">
+      <t>li'cheng'be</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>新手引导预研</t>
+  </si>
+  <si>
+    <t>新1-2章 - 怪投放， 新任务配置，reward</t>
+  </si>
+  <si>
+    <t>扫荡改配置</t>
+  </si>
+  <si>
+    <t>强化系数，不同物品ID需求</t>
+  </si>
+  <si>
+    <t>怪等级能力更新 - 小星前置</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>延下周</t>
+  </si>
+  <si>
+    <t>新一二章 - 技能， AI，配置</t>
+  </si>
+  <si>
+    <t>UI音效</t>
+  </si>
+  <si>
+    <t>新一二章 - 数值配置</t>
+  </si>
+  <si>
+    <t>确认技能，出手顺序方案</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8141,8 +8953,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8152,6 +8971,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8180,157 +9005,167 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8346,98 +9181,98 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8446,116 +9281,343 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="96">
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="106">
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12483,20 +13545,20 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F73">
-    <cfRule type="cellIs" dxfId="42" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15555,10 +16617,10 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19099,12 +20161,12 @@
       <c r="A289" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19116,8 +20178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView topLeftCell="A92" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -20112,7 +21174,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>349</v>
@@ -20130,7 +21192,7 @@
         <v>111</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -20157,7 +21219,7 @@
         <v>111</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -20205,7 +21267,7 @@
         <v>793</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -20229,7 +21291,7 @@
         <v>786</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -20277,7 +21339,7 @@
         <v>795</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -20318,7 +21380,7 @@
         <v>843</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -20369,7 +21431,7 @@
         <v>796</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -20390,7 +21452,7 @@
         <v>645</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -20438,7 +21500,7 @@
         <v>798</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -20643,7 +21705,7 @@
         <v>111</v>
       </c>
       <c r="J70" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -20937,10 +21999,10 @@
         <v>36</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>96</v>
@@ -20961,10 +22023,10 @@
         <v>36</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F89" s="24" t="s">
         <v>96</v>
@@ -20985,7 +22047,7 @@
         <v>36</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E90" s="46" t="s">
         <v>174</v>
@@ -21009,7 +22071,7 @@
         <v>512</v>
       </c>
       <c r="D91" s="46" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E91" s="46" t="s">
         <v>174</v>
@@ -21027,7 +22089,7 @@
         <v>111</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -21036,10 +22098,10 @@
         <v>36</v>
       </c>
       <c r="D92" s="46" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E92" s="46" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F92" s="24" t="s">
         <v>91</v>
@@ -21048,7 +22110,7 @@
         <v>2</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>106</v>
@@ -21063,7 +22125,7 @@
         <v>707</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F93" s="24" t="s">
         <v>96</v>
@@ -21084,13 +22146,13 @@
         <v>36</v>
       </c>
       <c r="D94" s="46" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E94" s="46" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G94" s="46">
         <v>1</v>
@@ -21108,10 +22170,10 @@
         <v>46</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="F95" s="24" t="s">
         <v>96</v>
@@ -21120,13 +22182,13 @@
         <v>1</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="I95" s="24" t="s">
         <v>111</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -21135,7 +22197,7 @@
         <v>36</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E96" s="24" t="s">
         <v>310</v>
@@ -21147,13 +22209,13 @@
         <v>3</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="I96" s="24" t="s">
         <v>111</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -21165,7 +22227,7 @@
         <v>738</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F97" s="24" t="s">
         <v>96</v>
@@ -21180,7 +22242,7 @@
         <v>111</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -21198,7 +22260,7 @@
         <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>170</v>
@@ -21216,7 +22278,7 @@
         <v>111</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -21225,7 +22287,7 @@
         <v>46</v>
       </c>
       <c r="D100" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>170</v>
@@ -21239,7 +22301,7 @@
         <v>111</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -21248,7 +22310,7 @@
         <v>46</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>170</v>
@@ -21260,7 +22322,7 @@
         <v>111</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -21304,7 +22366,7 @@
         <v>36</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>520</v>
@@ -21316,7 +22378,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="I105" s="24" t="s">
         <v>106</v>
@@ -21328,7 +22390,7 @@
         <v>36</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>310</v>
@@ -21337,7 +22399,7 @@
         <v>111</v>
       </c>
       <c r="J106" s="46" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="K106" s="46"/>
       <c r="L106" s="46"/>
@@ -21350,10 +22412,10 @@
         <v>46</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="I107" t="s">
         <v>111</v>
@@ -21384,10 +22446,10 @@
         <v>36</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F109" s="24" t="s">
         <v>91</v>
@@ -21413,10 +22475,10 @@
         <v>36</v>
       </c>
       <c r="D110" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F110" s="24" t="s">
         <v>92</v>
@@ -21442,10 +22504,10 @@
         <v>36</v>
       </c>
       <c r="D111" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F111" s="24" t="s">
         <v>96</v>
@@ -21483,10 +22545,10 @@
         <v>36</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F113" s="24" t="s">
         <v>93</v>
@@ -21521,7 +22583,7 @@
         <v>62</v>
       </c>
       <c r="C115" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D115" t="s">
         <v>826</v>
@@ -21530,7 +22592,7 @@
         <v>776</v>
       </c>
       <c r="F115" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="G115">
         <v>0.5</v>
@@ -21553,7 +22615,7 @@
         <v>36</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>322</v>
@@ -21582,7 +22644,7 @@
         <v>46</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>322</v>
@@ -21594,7 +22656,7 @@
         <v>3</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="I117" t="s">
         <v>106</v>
@@ -21611,7 +22673,7 @@
         <v>36</v>
       </c>
       <c r="D118" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>322</v>
@@ -21640,10 +22702,10 @@
         <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F119" s="24" t="s">
         <v>96</v>
@@ -21652,7 +22714,7 @@
         <v>0.5</v>
       </c>
       <c r="H119" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="I119" t="s">
         <v>106</v>
@@ -21669,7 +22731,7 @@
         <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>322</v>
@@ -22711,97 +23773,97 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I50 J46:J47 I124:I1048576 I86 I79:I84">
-    <cfRule type="containsText" dxfId="36" priority="24" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="57" priority="24" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I63 I78 I68 I72">
-    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91 J95:J96 J99:J101 I87:I123">
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="53" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="51" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",J97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:I80">
-    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I77">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I67">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:I71">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22817,11 +23879,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P309"/>
+  <dimension ref="A1:P312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -22831,6 +23893,7 @@
     <col min="4" max="4" width="50.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22906,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -22927,7 +23990,10 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>1099</v>
+        <v>1090</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -22936,7 +24002,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="E4" t="s">
         <v>853</v>
@@ -22948,8 +24014,9 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>1100</v>
-      </c>
+        <v>1091</v>
+      </c>
+      <c r="O4" s="77"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -22957,7 +24024,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>853</v>
@@ -22969,8 +24036,9 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>1097</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -22978,19 +24046,22 @@
         <v>839</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>854</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>1094</v>
+        <v>1085</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -23018,7 +24089,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>1101</v>
+        <v>1092</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -23027,7 +24101,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>852</v>
@@ -23039,7 +24113,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>1102</v>
+        <v>1093</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -23066,6 +24143,9 @@
       <c r="H11" t="s">
         <v>382</v>
       </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -23085,7 +24165,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>1091</v>
+        <v>1082</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -23109,6 +24192,7 @@
         <v>538</v>
       </c>
       <c r="I13" s="20"/>
+      <c r="O13" s="77"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -23130,6 +24214,9 @@
       <c r="H14" s="20" t="s">
         <v>537</v>
       </c>
+      <c r="I14" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -23137,7 +24224,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="E15" t="s">
         <v>771</v>
@@ -23149,7 +24236,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>1103</v>
+        <v>1094</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -23170,16 +24260,19 @@
         <v>1</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="E17" t="s">
         <v>852</v>
@@ -23191,16 +24284,17 @@
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+      <c r="O17" s="77"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
@@ -23212,16 +24306,19 @@
         <v>1</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E19" t="s">
         <v>335</v>
@@ -23233,14 +24330,18 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="77"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="D20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>37</v>
@@ -23261,13 +24362,16 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>849</v>
@@ -23286,10 +24390,10 @@
         <v>756</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>38</v>
@@ -23310,16 +24414,19 @@
         <v>0.5</v>
       </c>
       <c r="H25" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>666</v>
@@ -23331,16 +24438,22 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>69</v>
@@ -23351,14 +24464,17 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>95</v>
@@ -23370,10 +24486,16 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>36</v>
@@ -23391,16 +24513,17 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+      <c r="O29" s="77"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>859</v>
@@ -23414,14 +24537,17 @@
       <c r="H30" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>129</v>
@@ -23433,37 +24559,43 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D32" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="H32" t="s">
-        <v>1116</v>
+        <v>1138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
-        <v>1032</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="H33" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -23472,16 +24604,16 @@
         <v>46</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>1005</v>
+        <v>1139</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="H34" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -23499,16 +24631,16 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -23517,16 +24649,16 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -23549,7 +24681,7 @@
         <v>636</v>
       </c>
       <c r="K38" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -23563,7 +24695,7 @@
         <v>118</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="G39">
         <v>0.8</v>
@@ -23572,7 +24704,7 @@
         <v>638</v>
       </c>
       <c r="K39" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -23580,7 +24712,7 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>867</v>
+        <v>1145</v>
       </c>
       <c r="E40" s="71" t="s">
         <v>118</v>
@@ -23600,7 +24732,7 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>868</v>
+        <v>1146</v>
       </c>
       <c r="E41" s="71" t="s">
         <v>118</v>
@@ -23620,7 +24752,7 @@
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>869</v>
+        <v>1147</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>118</v>
@@ -23641,7 +24773,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>870</v>
+        <v>1148</v>
       </c>
       <c r="E43" s="71" t="s">
         <v>118</v>
@@ -23662,7 +24794,7 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>871</v>
+        <v>1149</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>118</v>
@@ -23683,7 +24815,7 @@
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="E45" s="71" t="s">
         <v>841</v>
@@ -23695,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -23704,7 +24836,7 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="E46" s="71" t="s">
         <v>841</v>
@@ -23716,7 +24848,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -23725,7 +24857,7 @@
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="E47" s="71" t="s">
         <v>841</v>
@@ -23737,7 +24869,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -23746,7 +24878,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>841</v>
@@ -23758,7 +24890,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -23767,19 +24899,19 @@
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>151</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="G49">
         <v>0.5</v>
       </c>
       <c r="H49" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -23794,13 +24926,16 @@
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
       </c>
       <c r="F51" t="s">
-        <v>1129</v>
+        <v>1119</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -23809,7 +24944,7 @@
         <v>36</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>694</v>
+        <v>1162</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -23854,7 +24989,7 @@
         <v>696</v>
       </c>
       <c r="E54" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F54" t="s">
         <v>96</v>
@@ -23872,7 +25007,7 @@
         <v>46</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E55" t="s">
         <v>151</v>
@@ -23881,7 +25016,7 @@
         <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -23893,7 +25028,7 @@
         <v>791</v>
       </c>
       <c r="E56" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F56" t="s">
         <v>90</v>
@@ -23917,10 +25052,10 @@
         <v>36</v>
       </c>
       <c r="D58" s="73" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="E58" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F58" t="s">
         <v>93</v>
@@ -23929,25 +25064,25 @@
         <v>2.5</v>
       </c>
       <c r="H58" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="E59" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F59" t="s">
         <v>92</v>
       </c>
       <c r="H59" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -23956,16 +25091,16 @@
         <v>36</v>
       </c>
       <c r="D60" s="73" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E60" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="F60" t="s">
         <v>96</v>
       </c>
       <c r="H60" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -23974,16 +25109,16 @@
         <v>36</v>
       </c>
       <c r="D61" s="73" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E61" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F61" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="H61" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -23992,16 +25127,16 @@
         <v>839</v>
       </c>
       <c r="D62" s="73" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="E62" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F62" t="s">
         <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -24010,16 +25145,16 @@
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>1049</v>
+        <v>1163</v>
       </c>
       <c r="E63" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F63" t="s">
         <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -24036,10 +25171,10 @@
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E65" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F65" t="s">
         <v>92</v>
@@ -24048,7 +25183,7 @@
         <v>0.2</v>
       </c>
       <c r="H65" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -24069,7 +25204,7 @@
         <v>0.5</v>
       </c>
       <c r="H66" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -24080,7 +25215,7 @@
         <v>846</v>
       </c>
       <c r="E67" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F67" t="s">
         <v>92</v>
@@ -24089,7 +25224,7 @@
         <v>0.2</v>
       </c>
       <c r="H67" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -24101,7 +25236,7 @@
         <v>847</v>
       </c>
       <c r="E68" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F68" t="s">
         <v>94</v>
@@ -24110,7 +25245,7 @@
         <v>0.5</v>
       </c>
       <c r="H68" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -24119,7 +25254,7 @@
         <v>36</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E69" t="s">
         <v>53</v>
@@ -24131,7 +25266,7 @@
         <v>0.2</v>
       </c>
       <c r="H69" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -24143,7 +25278,7 @@
         <v>851</v>
       </c>
       <c r="E70" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F70" t="s">
         <v>96</v>
@@ -24152,7 +25287,7 @@
         <v>0.5</v>
       </c>
       <c r="H70" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -24161,10 +25296,10 @@
         <v>36</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="E71" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F71" t="s">
         <v>96</v>
@@ -24173,7 +25308,7 @@
         <v>0.2</v>
       </c>
       <c r="H71" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -24182,10 +25317,10 @@
         <v>36</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="E72" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F72" t="s">
         <v>96</v>
@@ -24194,7 +25329,7 @@
         <v>0.2</v>
       </c>
       <c r="H72" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -24206,7 +25341,7 @@
         <v>855</v>
       </c>
       <c r="E73" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="F73" t="s">
         <v>96</v>
@@ -24215,7 +25350,7 @@
         <v>0.5</v>
       </c>
       <c r="H73" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -24263,7 +25398,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -24272,7 +25407,7 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E77" t="s">
         <v>661</v>
@@ -24284,7 +25419,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -24293,7 +25428,7 @@
         <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -24302,10 +25437,10 @@
         <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E79" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -24317,7 +25452,7 @@
         <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E80" t="s">
         <v>661</v>
@@ -24338,7 +25473,7 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="E82" t="s">
         <v>465</v>
@@ -24347,7 +25482,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -24356,10 +25491,10 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="E83" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F83" t="s">
         <v>94</v>
@@ -24368,7 +25503,7 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -24377,13 +25512,13 @@
         <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="E84" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="H84" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -24407,7 +25542,7 @@
         <v>96</v>
       </c>
       <c r="H86" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -24432,7 +25567,7 @@
         <v>36</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E89" s="36" t="s">
         <v>55</v>
@@ -24444,7 +25579,7 @@
         <v>0.5</v>
       </c>
       <c r="H89" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -24452,10 +25587,10 @@
         <v>36</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F90" s="36" t="s">
         <v>91</v>
@@ -24464,7 +25599,7 @@
         <v>0.5</v>
       </c>
       <c r="H90" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -24482,7 +25617,7 @@
         <v>512</v>
       </c>
       <c r="D92" s="46" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>174</v>
@@ -24494,7 +25629,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -24503,7 +25638,7 @@
         <v>512</v>
       </c>
       <c r="D93" s="46" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E93" s="46" t="s">
         <v>174</v>
@@ -24515,7 +25650,7 @@
         <v>0.5</v>
       </c>
       <c r="H93" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -24524,7 +25659,7 @@
         <v>512</v>
       </c>
       <c r="D94" s="46" t="s">
-        <v>889</v>
+        <v>1181</v>
       </c>
       <c r="E94" s="46" t="s">
         <v>174</v>
@@ -24533,7 +25668,10 @@
         <v>96</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -24541,20 +25679,20 @@
       <c r="C95" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>926</v>
+      <c r="D95" s="46" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" s="24">
+        <v>96</v>
+      </c>
+      <c r="G95">
         <v>1</v>
       </c>
-      <c r="H95" s="24" t="s">
-        <v>824</v>
+      <c r="H95" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -24562,20 +25700,20 @@
       <c r="C96" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>894</v>
+      <c r="D96" s="46" t="s">
+        <v>1183</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G96">
-        <v>0.1</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>1056</v>
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -24583,20 +25721,20 @@
       <c r="C97" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>1016</v>
+      <c r="D97" s="46" t="s">
+        <v>1184</v>
       </c>
       <c r="E97" s="46" t="s">
-        <v>1017</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>1003</v>
+        <v>96</v>
       </c>
       <c r="G97">
-        <v>0.5</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>1058</v>
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -24605,19 +25743,19 @@
         <v>512</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>895</v>
-      </c>
-      <c r="E98" s="46" t="s">
-        <v>174</v>
+        <v>921</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>920</v>
       </c>
       <c r="F98" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G98" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>1057</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -24626,19 +25764,19 @@
         <v>512</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>928</v>
+        <v>888</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>419</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -24647,19 +25785,19 @@
         <v>512</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>928</v>
+        <v>1009</v>
+      </c>
+      <c r="E100" s="46" t="s">
+        <v>1010</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
+        <v>997</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -24668,251 +25806,260 @@
         <v>512</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>928</v>
+        <v>889</v>
+      </c>
+      <c r="E101" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="G101" s="24">
+        <v>0.5</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="C102" t="s">
-        <v>46</v>
+      <c r="C102" s="24" t="s">
+        <v>512</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>1062</v>
+        <v>1011</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F102" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G102">
         <v>2</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>1061</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="C103" s="24" t="s">
-        <v>1001</v>
+        <v>512</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>1025</v>
+        <v>923</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>1003</v>
+        <v>922</v>
+      </c>
+      <c r="F103" t="s">
+        <v>91</v>
       </c>
       <c r="G103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="D104" s="24"/>
+      <c r="C104" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="F104" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" t="s">
-        <v>61</v>
-      </c>
       <c r="C105" t="s">
         <v>46</v>
       </c>
-      <c r="D105" t="s">
-        <v>931</v>
+      <c r="D105" s="24" t="s">
+        <v>1053</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>170</v>
+        <v>922</v>
+      </c>
+      <c r="F105" t="s">
+        <v>96</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>671</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="C106" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" t="s">
-        <v>891</v>
+      <c r="C106" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>1018</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>170</v>
+        <v>1017</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>91</v>
+        <v>997</v>
+      </c>
+      <c r="G106">
+        <v>0.5</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>99</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="C107" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>93</v>
-      </c>
+      <c r="D107" s="24"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F108" t="s">
-        <v>93</v>
+      <c r="H108" s="24" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
-        <v>934</v>
+        <v>885</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>170</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="C110" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" t="s">
-        <v>935</v>
+        <v>36</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>926</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>170</v>
       </c>
+      <c r="F110" s="24" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
+      <c r="C111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s">
+        <v>927</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F111" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" t="s">
-        <v>64</v>
-      </c>
       <c r="C112" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>936</v>
+        <v>46</v>
+      </c>
+      <c r="D112" t="s">
+        <v>928</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" s="24" t="s">
-        <v>427</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="C113" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>937</v>
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>929</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="F113" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="C114" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="F114" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
       <c r="C115" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>892</v>
+        <v>930</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="F115" t="s">
-        <v>94</v>
+      <c r="F115" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115" t="s">
-        <v>1064</v>
+        <v>1</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>520</v>
+        <v>310</v>
       </c>
       <c r="F116" t="s">
-        <v>96</v>
-      </c>
-      <c r="G116">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -24921,42 +26068,52 @@
         <v>36</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1041</v>
+        <v>932</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H117" t="s">
-        <v>1145</v>
+        <v>310</v>
+      </c>
+      <c r="F117" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="F118" t="s">
+        <v>94</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" t="s">
-        <v>157</v>
-      </c>
       <c r="C119" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" t="s">
-        <v>940</v>
+        <v>46</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>933</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>90</v>
+        <v>520</v>
+      </c>
+      <c r="F119" t="s">
+        <v>96</v>
       </c>
       <c r="G119">
-        <v>1.5</v>
-      </c>
-      <c r="H119" t="s">
-        <v>1075</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -24964,419 +26121,415 @@
       <c r="C120" t="s">
         <v>36</v>
       </c>
-      <c r="D120" t="s">
-        <v>941</v>
+      <c r="D120" s="24" t="s">
+        <v>1033</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F120" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G120">
-        <v>1.5</v>
+        <v>1034</v>
       </c>
       <c r="H120" t="s">
-        <v>1074</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="C121" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" t="s">
-        <v>942</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121" t="s">
-        <v>1076</v>
-      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
+      <c r="B122" t="s">
+        <v>157</v>
+      </c>
       <c r="C122" t="s">
         <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>298</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G122">
         <v>1.5</v>
       </c>
       <c r="H122" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>945</v>
-      </c>
-      <c r="F123" s="24"/>
+        <v>298</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="G123">
         <v>1.5</v>
       </c>
       <c r="H123" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F124" s="24"/>
+      <c r="F124" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="C125" t="s">
-        <v>1001</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>1019</v>
+        <v>937</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>1020</v>
+        <v>298</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>1008</v>
+        <v>96</v>
+      </c>
+      <c r="G125">
+        <v>1.5</v>
       </c>
       <c r="H125" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="E126" s="24"/>
+      <c r="C126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" t="s">
+        <v>938</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>939</v>
+      </c>
       <c r="F126" s="24"/>
+      <c r="G126">
+        <v>1.5</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" t="s">
-        <v>126</v>
-      </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D127" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>93</v>
+        <v>298</v>
+      </c>
+      <c r="F127" s="24"/>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="E128" s="24"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>995</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" t="s">
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="E131" s="24"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" t="s">
         <v>62</v>
       </c>
-      <c r="C129" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="F129" s="24" t="s">
+      <c r="C132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F132" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="C130" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G130">
-        <v>0.5</v>
-      </c>
-      <c r="H130" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="C131" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D131" s="46" t="s">
-        <v>925</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F131" t="s">
-        <v>96</v>
-      </c>
-      <c r="G131">
-        <v>1.5</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="C132" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D132" s="46" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F132" t="s">
-        <v>93</v>
       </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="C133" t="s">
         <v>36</v>
       </c>
       <c r="D133" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>896</v>
+        <v>1037</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="G133">
         <v>0.5</v>
       </c>
       <c r="H133" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="C134" t="s">
-        <v>36</v>
-      </c>
-      <c r="D134" t="s">
-        <v>899</v>
+      <c r="C134" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134" s="46" t="s">
+        <v>919</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>1021</v>
+        <v>1037</v>
+      </c>
+      <c r="F134" t="s">
+        <v>96</v>
       </c>
       <c r="G134">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="C135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D135" t="s">
-        <v>897</v>
+      <c r="C135" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D135" s="46" t="s">
+        <v>1032</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>96</v>
+        <v>1037</v>
+      </c>
+      <c r="F135" t="s">
+        <v>93</v>
       </c>
       <c r="G135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="C136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G136">
+        <v>0.5</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="C137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s">
+        <v>893</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G137">
+        <v>0.5</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="C138" t="s">
         <v>46</v>
       </c>
-      <c r="D136" t="s">
-        <v>898</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="E137" s="24"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" t="s">
-        <v>38</v>
-      </c>
-      <c r="C138" t="s">
-        <v>36</v>
-      </c>
       <c r="D138" t="s">
-        <v>1022</v>
+        <v>891</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>1020</v>
+        <v>890</v>
       </c>
       <c r="F138" s="24" t="s">
         <v>96</v>
       </c>
+      <c r="G138">
+        <v>0.5</v>
+      </c>
       <c r="H138" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="C139" t="s">
         <v>46</v>
       </c>
       <c r="D139" t="s">
-        <v>948</v>
-      </c>
-      <c r="E139" t="s">
-        <v>893</v>
-      </c>
-      <c r="F139" t="s">
+        <v>892</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="E140" s="24"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F141" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H139" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
+      <c r="H141" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="C142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" t="s">
+        <v>942</v>
+      </c>
+      <c r="E142" t="s">
+        <v>887</v>
+      </c>
+      <c r="F142" t="s">
+        <v>96</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
         <v>133</v>
       </c>
-      <c r="D140" t="s">
-        <v>949</v>
-      </c>
-      <c r="E140" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+      <c r="D143" t="s">
+        <v>943</v>
+      </c>
+      <c r="E143" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="8"/>
-    </row>
-    <row r="144" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="8"/>
-    </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -25385,11 +26538,17 @@
       <c r="H145" s="8"/>
       <c r="I145" s="9"/>
       <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="10" t="s">
-        <v>23</v>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+    </row>
+    <row r="146" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -25400,33 +26559,28 @@
       <c r="I146" s="9"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>1037</v>
-      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="9"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+    <row r="148" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>1096</v>
-      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -25435,7 +26589,9 @@
     </row>
     <row r="149" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="B149" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -25447,69 +26603,64 @@
     </row>
     <row r="150" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-      <c r="B150" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="74">
-        <v>1</v>
-      </c>
+      <c r="B150" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="E150" s="2"/>
+        <v>1028</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1029</v>
+      </c>
       <c r="F150" s="2"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
+      <c r="J150" s="8"/>
     </row>
     <row r="151" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="74">
-        <v>2</v>
-      </c>
+      <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="E151" s="2"/>
+        <v>1086</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1087</v>
+      </c>
       <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
+      <c r="J151" s="8"/>
     </row>
     <row r="152" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="74">
-        <v>3</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>844</v>
-      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
+      <c r="J152" s="8"/>
     </row>
     <row r="153" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C153" s="74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>1026</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
@@ -25517,10 +26668,10 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>879</v>
+        <v>838</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -25533,10 +26684,10 @@
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>902</v>
+        <v>844</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -25548,9 +26699,15 @@
     <row r="156" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="C156" s="74">
+        <v>4</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>1019</v>
+      </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -25560,141 +26717,110 @@
     <row r="157" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="C157" s="74">
+        <v>5</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
     </row>
     <row r="158" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="74">
+        <v>6</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>896</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-    </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
-      <c r="B159" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J159" s="13"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="53"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G160" s="57" t="s">
-        <v>666</v>
-      </c>
-      <c r="H160" s="58"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="13"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
-    </row>
-    <row r="161" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P160" s="2"/>
+    </row>
+    <row r="161" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G161" s="59" t="s">
-        <v>666</v>
-      </c>
-      <c r="H161" s="75" t="s">
-        <v>880</v>
-      </c>
-      <c r="I161" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J161" s="13"/>
+      <c r="B161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
-    </row>
-    <row r="162" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P161" s="2"/>
+    </row>
+    <row r="162" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="B162" s="53"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E162" s="60"/>
-      <c r="F162" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G162" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="H162" s="58"/>
-      <c r="I162" s="23" t="s">
-        <v>73</v>
+      <c r="B162" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="J162" s="13"/>
       <c r="K162" s="2"/>
@@ -25703,215 +26829,281 @@
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="60"/>
-      <c r="C163" s="60"/>
-      <c r="D163" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E163" s="60"/>
-      <c r="F163" s="60"/>
+    <row r="163" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E163" s="56"/>
+      <c r="F163" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="G163" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="H163" s="60"/>
-      <c r="I163" s="23"/>
+        <v>666</v>
+      </c>
+      <c r="H163" s="58"/>
+      <c r="I163" s="15"/>
       <c r="J163" s="13"/>
-    </row>
-    <row r="164" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="53" t="s">
-        <v>78</v>
-      </c>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="53"/>
       <c r="D164" s="53" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E164" s="53"/>
-      <c r="F164" s="53"/>
+      <c r="F164" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="G164" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="H164" s="53"/>
-      <c r="I164" s="23"/>
+        <v>666</v>
+      </c>
+      <c r="H164" s="75" t="s">
+        <v>875</v>
+      </c>
+      <c r="I164" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="J164" s="13"/>
-    </row>
-    <row r="165" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="60" t="s">
-        <v>672</v>
-      </c>
-      <c r="C165" s="60"/>
-      <c r="D165" s="20" t="s">
-        <v>101</v>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+    </row>
+    <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="60" t="s">
+        <v>72</v>
       </c>
       <c r="E165" s="60"/>
       <c r="F165" s="53" t="s">
         <v>68</v>
       </c>
       <c r="G165" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H165" s="58"/>
+      <c r="I165" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J165" s="13"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+    </row>
+    <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E166" s="60"/>
+      <c r="F166" s="60"/>
+      <c r="G166" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H166" s="60"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C167" s="53"/>
+      <c r="D167" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E167" s="53"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H167" s="53"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="13"/>
+    </row>
+    <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="60" t="s">
+        <v>672</v>
+      </c>
+      <c r="C168" s="60"/>
+      <c r="D168" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E168" s="60"/>
+      <c r="F168" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G168" s="57" t="s">
         <v>669</v>
       </c>
-      <c r="H165" s="60"/>
-      <c r="I165" s="23"/>
-      <c r="J165" s="13"/>
-    </row>
-    <row r="166" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="53"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="53" t="s">
+      <c r="H168" s="60"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E166" s="53"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="59" t="s">
+      <c r="E169" s="53"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H166" s="53"/>
-      <c r="I166" s="23" t="s">
+      <c r="H169" s="53"/>
+      <c r="I169" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J166" s="13"/>
-    </row>
-    <row r="167" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="60"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60" t="s">
-        <v>674</v>
-      </c>
-      <c r="E167" s="60"/>
-      <c r="F167" s="62"/>
-      <c r="G167" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="H167" s="60"/>
-      <c r="I167" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J167" s="13"/>
-    </row>
-    <row r="168" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="60"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E168" s="60"/>
-      <c r="F168" s="62">
-        <v>42326</v>
-      </c>
-      <c r="G168" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H168" s="60"/>
-      <c r="I168" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J168" s="13"/>
-    </row>
-    <row r="169" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="60"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E169" s="60"/>
-      <c r="F169" s="62">
-        <v>42326</v>
-      </c>
-      <c r="G169" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H169" s="60"/>
-      <c r="I169" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="J169" s="13"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+    <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="60"/>
       <c r="C170" s="60"/>
       <c r="D170" s="60" t="s">
-        <v>112</v>
+        <v>674</v>
       </c>
       <c r="E170" s="60"/>
-      <c r="F170" s="62" t="s">
-        <v>160</v>
-      </c>
+      <c r="F170" s="62"/>
       <c r="G170" s="57" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H170" s="60"/>
-      <c r="I170" s="23"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+      <c r="I170" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J170" s="13"/>
+    </row>
+    <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="60"/>
       <c r="C171" s="60"/>
       <c r="D171" s="60" t="s">
-        <v>1033</v>
+        <v>85</v>
       </c>
       <c r="E171" s="60"/>
-      <c r="F171" s="62" t="s">
-        <v>1034</v>
+      <c r="F171" s="62">
+        <v>42326</v>
       </c>
       <c r="G171" s="57" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H171" s="53"/>
-      <c r="I171" s="11"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H171" s="60"/>
+      <c r="I171" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J171" s="13"/>
+    </row>
+    <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="60"/>
       <c r="C172" s="60"/>
-      <c r="D172" s="60"/>
+      <c r="D172" s="60" t="s">
+        <v>88</v>
+      </c>
       <c r="E172" s="60"/>
-      <c r="F172" s="62"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="53"/>
-      <c r="I172" s="11"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F172" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G172" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H172" s="60"/>
+      <c r="I172" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J172" s="13"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
       <c r="B173" s="60"/>
       <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
+      <c r="D173" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="E173" s="60"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="53"/>
-      <c r="I173" s="11"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F173" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G173" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="H173" s="60"/>
+      <c r="I173" s="23"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
       <c r="B174" s="60"/>
       <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
+      <c r="D174" s="60" t="s">
+        <v>1025</v>
+      </c>
       <c r="E174" s="60"/>
-      <c r="F174" s="62"/>
-      <c r="G174" s="57"/>
+      <c r="F174" s="62" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G174" s="57" t="s">
+        <v>1027</v>
+      </c>
       <c r="H174" s="53"/>
       <c r="I174" s="11"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="62"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="53"/>
+      <c r="I175" s="11"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="60"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="53"/>
+      <c r="I176" s="11"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="60"/>
+      <c r="C177" s="60"/>
+      <c r="D177" s="60"/>
+      <c r="E177" s="60"/>
+      <c r="F177" s="62"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="53"/>
+      <c r="I177" s="11"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -26265,71 +27457,80 @@
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
     </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
-  <conditionalFormatting sqref="I175:I1048576 I161:I162 I1:I11 I134:I141 I14:I132">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I178:I1048576 I164:I165 I1:I11 I137:I144 I14:I135">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A149 B146 C146:F149 G142:XFD159 A150:F159 J160:XFD169 A160:A1048576 I171:I174 A1:A11 A134:A141 A68:A132 A14:A66">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A149:A152 B149 C149:F152 G145:XFD162 A153:F162 J163:XFD172 A163:A1048576 I174:I177 A1:A11 A137:A144 A68:A135 A14:A66">
+    <cfRule type="cellIs" dxfId="32" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B147 A142:F145">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B150 A145:F148">
+    <cfRule type="cellIs" dxfId="31" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I163:I169">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I163)))</formula>
+  <conditionalFormatting sqref="I166:I172">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I163)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I133)))</formula>
+  <conditionalFormatting sqref="I136">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I133)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I136)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I175:I1048576 I1:I141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I178:I1048576 I1:I144">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F175:F1048576 F1:F141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F178:F1048576 F1:F144">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C175:C1048576 C1:C12 C102 C104:C130 C133:C141 C14:C91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C178:C1048576 C1:C12 C105 C107:C133 C136:C144 C14:C91">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B175:B1048576 B1:B12 B140:B159 B127:B138 B15:B51 B53:B123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B178:B1048576 B1:B12 B143:B162 B130:B141 B15:B51 B53:B126">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26375,6 +27576,2842 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P296"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E8" t="s">
+        <v>852</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>856</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>852</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>852</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>852</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="C16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>852</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G18">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G19">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G20">
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="C28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" s="28"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" s="28"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34">
+        <v>0.7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>835</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>841</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>841</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>835</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="D41" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="E42" s="71"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="E43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>694</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>787</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E46" t="s">
+        <v>869</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="D49" s="73" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="D50" s="73" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>845</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="D61" s="20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="D62" s="20" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="D63" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="D71" s="20" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="D72" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="D73" s="20" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G73">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="D74" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G74">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="D75" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="D76" s="20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="D87" s="24" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="D88" s="24" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="D89" s="24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="F92" s="24"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>927</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s">
+        <v>928</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>929</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" t="s">
+        <v>839</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F97" s="24"/>
+      <c r="H97" s="24" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s">
+        <v>937</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101">
+        <v>1.5</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>938</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="F102" s="24"/>
+      <c r="G102">
+        <v>1.5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="C103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" t="s">
+        <v>940</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" s="24"/>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="D104" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="F104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="D105" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F105" s="24"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="D106" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="D109" s="24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="D110" s="24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="D111" s="24" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E111" s="24"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="D112" s="24"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D113" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G113">
+        <v>1.5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="C114" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>891</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F115" s="24"/>
+      <c r="G115">
+        <v>0.5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="C116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" t="s">
+        <v>892</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F118" s="24"/>
+      <c r="H118" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="D119" t="s">
+        <v>942</v>
+      </c>
+      <c r="E119" t="s">
+        <v>887</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>943</v>
+      </c>
+      <c r="E120" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+    </row>
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="8"/>
+    </row>
+    <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+    </row>
+    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" s="13"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H144" s="58"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" s="53"/>
+      <c r="F145" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G145" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H145" s="75" t="s">
+        <v>875</v>
+      </c>
+      <c r="I145" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J145" s="13"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E146" s="60"/>
+      <c r="F146" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G146" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H146" s="58"/>
+      <c r="I146" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J146" s="13"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60"/>
+      <c r="G147" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" s="60"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" s="53"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" s="60"/>
+      <c r="D149" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E149" s="60"/>
+      <c r="F149" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G149" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H149" s="60"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="13"/>
+    </row>
+    <row r="150" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" s="53"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" s="53"/>
+      <c r="I150" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J150" s="13"/>
+    </row>
+    <row r="151" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="60"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="E151" s="60"/>
+      <c r="F151" s="62"/>
+      <c r="G151" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H151" s="60"/>
+      <c r="I151" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J151" s="13"/>
+    </row>
+    <row r="152" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" s="60"/>
+      <c r="F152" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G152" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H152" s="60"/>
+      <c r="I152" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" s="60"/>
+      <c r="F153" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G153" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H153" s="60"/>
+      <c r="I153" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J153" s="13"/>
+    </row>
+    <row r="154" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E154" s="60"/>
+      <c r="F154" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G154" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="H154" s="60"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="13"/>
+    </row>
+    <row r="155" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E155" s="60"/>
+      <c r="F155" s="62" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G155" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H155" s="53"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="13"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
+      <c r="I162" s="23"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="7"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="7"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="7"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="7"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="7"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="7"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="Hiragana"/>
+  <conditionalFormatting sqref="I156:I1048576 I109:I112 I121 I1:I96">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A133 B126 C126:F133 A144:A1048576 J144:XFD155 A109:A112 A101:A105 A117:A121 G122:XFD143 A141:F143 A134:C140 E134:F140 D134:D139 A1:A96">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127 A122:F125">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145:I146">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147:I153">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:A100 A106:A108">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A116">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B156:B1048576 B106:B118 B120:B143 B1:B28 B29:B102">
+      <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I156:I1048576 I1:I28 I29:I121">
+      <formula1>"完成,未完成,阻碍"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F156:F1048576 F37 F40:F121 F1:F28 F29:F35">
+      <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C156:C1048576 C115:C121 C33:C112 C1:C28 C29:C30">
+      <formula1>"必须,超额,长期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I98)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I98)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I97:I104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I102)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="40" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I102)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I106:I107 I113:I116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I110)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="46" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I110)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I103)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="54" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I103)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" text="阻碍" id="{F588D845-A603-704B-8E24-CD0AD0BE5516}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I117)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="64" operator="containsText" text="未完成" id="{D1525447-53F3-F54E-96D0-A6AB3DE9EC40}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I117)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I117:I120</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C38"/>
   <sheetViews>
@@ -26536,7 +30573,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑8/里程碑8-周版本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑8/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1160" windowWidth="30920" windowHeight="17700" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37400" windowHeight="20000" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20121230" sheetId="5" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="1360">
   <si>
     <t>类别</t>
   </si>
@@ -7422,10 +7422,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>九尾狐，黄金之灵动作，特效需求</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>登录流程复查bug，公告测试</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
@@ -7966,16 +7962,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>里程碑9计划</t>
-    <rPh sb="0" eb="1">
-      <t>li'cheng'bei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji'hua</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>需要考虑封测版本内容，预估封测时间。目前对于项目封测内容比较模糊，时间也很难预估</t>
     <rPh sb="0" eb="1">
       <t>xu'yao</t>
@@ -8083,13 +8069,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>大冒险-Debug</t>
-    <rPh sb="0" eb="1">
-      <t>da'mao'xian</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>抽蛋-Debug</t>
     <rPh sb="0" eb="1">
       <t>chou'da</t>
@@ -8150,38 +8129,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>PVP（待拆分）</t>
-    <rPh sb="4" eb="5">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chai'fen</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容选择界面战力功能补充（待拆分）</t>
-    <rPh sb="0" eb="1">
-      <t>zhen'rong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhan'li</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bu'chong</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
@@ -8290,39 +8237,6 @@
     <t>服务器自主任务</t>
   </si>
   <si>
-    <t>GM工具-具体GM</t>
-    <rPh sb="2" eb="3">
-      <t>gong'ju</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ju't</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>PVP（待拆分）</t>
-    <rPh sb="4" eb="5">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chai'fen</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>签到（待拆分）</t>
-    <rPh sb="0" eb="1">
-      <t>qian'dao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chai'fen</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>PVP用例设计</t>
     <rPh sb="3" eb="4">
       <t>yong'li</t>
@@ -8353,34 +8267,7 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>大冒险测试</t>
-    <rPh sb="0" eb="1">
-      <t>da'mao'xian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>大冒险复查bug</t>
-    <rPh sb="0" eb="1">
-      <t>da'mao'xian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu'cha</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>ts</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <rPh sb="0" eb="1">
-      <t>lei'sehn</t>
-    </rPh>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
@@ -8395,14 +8282,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>ts</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>战力回归 （阵容选择，包括宠物tips）用例设计</t>
     <rPh sb="20" eb="21">
       <t>yong'li</t>
@@ -8500,10 +8379,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>抽蛋动画</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>角色3D-冰龙</t>
   </si>
   <si>
@@ -8546,13 +8421,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>UI-大冒险-debug</t>
-    <rPh sb="3" eb="4">
-      <t>da'mao'xian</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>立绘功能</t>
     <rPh sb="0" eb="1">
       <t>li'hui</t>
@@ -8590,44 +8458,11 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>UI-副本失败指引</t>
-    <rPh sb="3" eb="4">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'bai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhi'yin</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>大冒险主界面    调ui和动画 </t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>大冒险对阵界面  调ui和动画 </t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>大冒险奖励界面  调ui和动画和特效</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>大冒险队伍界面  调ui和动画</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>大冒险二级界面  调ui和动画</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>大冒险对阵界面完成度宝箱动画 （需宝箱ok）</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>主界面完成冒险特效动画      （需原画ok）</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
@@ -8658,22 +8493,6 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
-    <t>动作-黄金之灵</t>
-    <rPh sb="0" eb="1">
-      <t>dong'zuo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>huang'jin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ling</t>
-    </rPh>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>PVP</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
@@ -8756,37 +8575,654 @@
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>延下周</t>
+  </si>
+  <si>
+    <t>UI音效</t>
+  </si>
+  <si>
+    <t>新一二章 - 数值配置</t>
+  </si>
+  <si>
+    <t>大冒险对阵界面  调ui和动画 </t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险主界面    调ui</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙帆 </t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-PVP-主界面抬头</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-PVP-主界面抬头细化</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-PVP-主界面入口图标-4</t>
+    <rPh sb="7" eb="8">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang'hsoufang'shouji'lu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>UI-PVP-徽章-4*3</t>
+    <rPh sb="7" eb="8">
+      <t>jing'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai'hang'banggui'zeshuo'mingj'jshang'cheng</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险-底图-3</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>九尾狐，黄金之灵动作，特效需求</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>场景1-人行道</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>副本失败指引（待拆分）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>字体问题处理+得到宠物白屏效果</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>资源更新界面</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>Bilog-对局，任务</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>PVP三方跟进</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到反馈跟进</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局外修改方案文档分析</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ts、雷神</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>立绘对话测试、复查bug</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>阵容选择战力测试、复查bug</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>立绘用例修改整理</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>对局外修改方案用例修改</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>审核孔老师版世界观</t>
+  </si>
+  <si>
+    <t>任务新需求</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>新一二章 - 弱点逻辑配置，包括文档</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>新一二章 - 技能， AI，配置，包括文档</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>对局外修改内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局外修改</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>重测</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>里程碑9计划讨论</t>
+    <rPh sb="0" eb="1">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险奖励界面  调ui和动画和特效 1</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大冒险对阵界面完成度宝箱动画 （需宝箱ok） 3</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2337</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2336</t>
+  </si>
+  <si>
+    <t>MG-2338</t>
+  </si>
+  <si>
+    <t>MG-2339</t>
+  </si>
+  <si>
+    <t>MG-2340</t>
+  </si>
+  <si>
+    <t>任务新需求</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2341</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2342</t>
+  </si>
+  <si>
+    <t>MG-2343</t>
+  </si>
+  <si>
+    <t>MG-2344</t>
+  </si>
+  <si>
+    <t>MG-2347</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2345</t>
+  </si>
+  <si>
+    <t>MG-2346</t>
+  </si>
+  <si>
+    <t>扫荡改配置</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2348</t>
+  </si>
+  <si>
+    <t>MG-2349</t>
+  </si>
+  <si>
+    <t>MG-2350</t>
+  </si>
+  <si>
+    <t>新1-2章 - 怪投放， 新任务配置，reward</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>强化系数，不同物品ID需求</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>确认技能，出手顺序方案</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2351</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2352</t>
+  </si>
+  <si>
+    <t>MG-2353</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
     <t>新手引导预研</t>
-  </si>
-  <si>
-    <t>新1-2章 - 怪投放， 新任务配置，reward</t>
-  </si>
-  <si>
-    <t>扫荡改配置</t>
-  </si>
-  <si>
-    <t>强化系数，不同物品ID需求</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2355</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2356</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>阵容选择界面战力功能补充</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu'chong</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2357</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2358</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>zz，师叔</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>对局修改（待拆分）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2313</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>GM工具-IM,任务</t>
+    <rPh sb="8" eb="9">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2359</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2360</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2207</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2361</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2362</t>
+  </si>
+  <si>
+    <t>MG-2363</t>
+  </si>
+  <si>
+    <t>UI音效文档分析</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2364</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2365</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2366</t>
+  </si>
+  <si>
+    <t>MG-2367</t>
+  </si>
+  <si>
+    <t>MG-2368</t>
+  </si>
+  <si>
+    <t>MG-2369</t>
+  </si>
+  <si>
+    <t>对局修改方案用例修改</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2370</t>
+  </si>
+  <si>
+    <t>MG-2371</t>
+  </si>
+  <si>
+    <t>MG-2372</t>
+  </si>
+  <si>
+    <t>副本结算、失败指引用例设计</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>任务新需求用例修改</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2373</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2374</t>
+  </si>
+  <si>
+    <t>MG-2375</t>
+  </si>
+  <si>
+    <t>MG-2376</t>
+  </si>
+  <si>
+    <t>MG-2234</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2235</t>
+  </si>
+  <si>
+    <t>MG-2237</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2238</t>
+  </si>
+  <si>
+    <t>MG-2236</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2239</t>
+  </si>
+  <si>
+    <t>MG-2241</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2378</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2377</t>
+  </si>
+  <si>
+    <t>MG-2379</t>
+  </si>
+  <si>
+    <t>MG-2380</t>
+  </si>
+  <si>
+    <t>主界面完成冒险特效动画</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2240</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2383</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2385</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2386</t>
+  </si>
+  <si>
+    <t>MG-2387</t>
+  </si>
+  <si>
+    <t>MG-2388</t>
+  </si>
+  <si>
+    <t>对局外修改方案（0.6）</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>角色原画-蘑菇人</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2389</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>工会基地地台</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2391</t>
+  </si>
+  <si>
+    <t>MG-2391</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2390</t>
+  </si>
+  <si>
+    <t>MG-2392</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>aoe试验，buff特效问题解决</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2396</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>怪等级能力更新 - 小星前置</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>延下周</t>
-  </si>
-  <si>
-    <t>新一二章 - 技能， AI，配置</t>
-  </si>
-  <si>
-    <t>UI音效</t>
-  </si>
-  <si>
-    <t>新一二章 - 数值配置</t>
-  </si>
-  <si>
-    <t>确认技能，出手顺序方案</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>特效-黄金之灵</t>
+    <rPh sb="0" eb="1">
+      <t>t'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huang'jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'ling</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2417</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>PVP切图标注</t>
+  </si>
+  <si>
+    <t>MG-2481</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2401</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2402</t>
+  </si>
+  <si>
+    <t>MG-2403</t>
+  </si>
+  <si>
+    <t>MG-2404</t>
+  </si>
+  <si>
+    <t>pvp排行榜</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>pvp竞技奖励</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>pvp防守记录</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>pvp规则说明</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>pvp 主界面开发</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2400</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务新需求</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2399</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2412</t>
+  </si>
+  <si>
+    <t>MG-2413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVP结构搭建  </t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PVP匹配池设计实现 </t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
 </sst>
 </file>
@@ -8955,7 +9391,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9005,7 +9441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -9016,6 +9452,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9294,195 +9746,131 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="106">
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="122">
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13545,20 +13933,20 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F73">
-    <cfRule type="cellIs" dxfId="63" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16617,10 +17005,10 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20163,10 +20551,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23773,97 +24161,97 @@
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
   <conditionalFormatting sqref="I1:I50 J46:J47 I124:I1048576 I86 I79:I84">
-    <cfRule type="containsText" dxfId="57" priority="24" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="49" priority="24" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="48" priority="25" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I63 I78 I68 I72">
-    <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91 J95:J96 J99:J101 I87:I123">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="44" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",J97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="43" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",J97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:I80">
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="49" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I77">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="39" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I67">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:I71">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23881,9 +24269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P312"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -23969,7 +24357,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -23990,7 +24378,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I3" t="s">
         <v>106</v>
@@ -24002,7 +24390,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E4" t="s">
         <v>853</v>
@@ -24014,7 +24402,10 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>1091</v>
+        <v>1090</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
       </c>
       <c r="O4" s="77"/>
     </row>
@@ -24036,7 +24427,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>1088</v>
+        <v>1087</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
       </c>
       <c r="O5" s="77"/>
     </row>
@@ -24046,19 +24440,19 @@
         <v>839</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>854</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I6" t="s">
         <v>106</v>
@@ -24089,7 +24483,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I8" t="s">
         <v>106</v>
@@ -24113,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I9" t="s">
         <v>106</v>
@@ -24165,7 +24559,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I12" t="s">
         <v>106</v>
@@ -24191,7 +24585,9 @@
       <c r="H13" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="O13" s="77"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -24224,7 +24620,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E15" t="s">
         <v>771</v>
@@ -24236,7 +24632,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>106</v>
@@ -24260,7 +24656,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>106</v>
@@ -24272,7 +24668,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E17" t="s">
         <v>852</v>
@@ -24284,7 +24680,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="O17" s="77"/>
     </row>
@@ -24294,7 +24693,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
@@ -24306,7 +24705,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>106</v>
@@ -24330,7 +24729,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>106</v>
@@ -24362,7 +24761,7 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>106</v>
@@ -24414,7 +24813,7 @@
         <v>0.5</v>
       </c>
       <c r="H25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I25" t="s">
         <v>106</v>
@@ -24438,13 +24837,13 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I26" t="s">
         <v>111</v>
       </c>
       <c r="O26" t="s">
-        <v>1230</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -24486,13 +24885,13 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I28" t="s">
         <v>111</v>
       </c>
       <c r="O28" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -24513,7 +24912,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>1105</v>
+        <v>1104</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
       </c>
       <c r="O29" s="77"/>
     </row>
@@ -24559,7 +24961,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I31" t="s">
         <v>106</v>
@@ -24571,13 +24973,13 @@
         <v>995</v>
       </c>
       <c r="D32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>1021</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>1022</v>
-      </c>
       <c r="H32" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="I32" t="s">
         <v>106</v>
@@ -24589,13 +24991,13 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>1024</v>
-      </c>
       <c r="H33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -24607,13 +25009,13 @@
         <v>996</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>998</v>
       </c>
       <c r="H34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -24640,7 +25042,10 @@
         <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>1042</v>
+        <v>1041</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -24658,7 +25063,10 @@
         <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>1041</v>
+        <v>1040</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -24680,8 +25088,11 @@
       <c r="H38" t="s">
         <v>636</v>
       </c>
+      <c r="I38" t="s">
+        <v>106</v>
+      </c>
       <c r="K38" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -24703,8 +25114,11 @@
       <c r="H39" t="s">
         <v>638</v>
       </c>
+      <c r="I39" t="s">
+        <v>106</v>
+      </c>
       <c r="K39" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -24712,7 +25126,7 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="71" t="s">
         <v>118</v>
@@ -24726,13 +25140,16 @@
       <c r="H40" t="s">
         <v>640</v>
       </c>
+      <c r="I40" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E41" s="71" t="s">
         <v>118</v>
@@ -24746,13 +25163,16 @@
       <c r="H41" t="s">
         <v>861</v>
       </c>
+      <c r="I41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>118</v>
@@ -24765,6 +25185,9 @@
       </c>
       <c r="H42" t="s">
         <v>862</v>
+      </c>
+      <c r="I42" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -24773,7 +25196,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E43" s="71" t="s">
         <v>118</v>
@@ -24786,6 +25209,9 @@
       </c>
       <c r="H43" t="s">
         <v>863</v>
+      </c>
+      <c r="I43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -24794,7 +25220,7 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>118</v>
@@ -24807,6 +25233,9 @@
       </c>
       <c r="H44" t="s">
         <v>864</v>
+      </c>
+      <c r="I44" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -24815,7 +25244,7 @@
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E45" s="71" t="s">
         <v>841</v>
@@ -24827,7 +25256,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>1109</v>
+        <v>1108</v>
+      </c>
+      <c r="I45" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -24836,7 +25268,7 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E46" s="71" t="s">
         <v>841</v>
@@ -24848,7 +25280,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>1110</v>
+        <v>1109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -24857,7 +25292,7 @@
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E47" s="71" t="s">
         <v>841</v>
@@ -24869,7 +25304,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>1111</v>
+        <v>1110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -24878,7 +25316,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>841</v>
@@ -24890,34 +25328,40 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>151</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G49">
         <v>0.5</v>
       </c>
       <c r="H49" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+      <c r="I49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
         <v>50</v>
@@ -24926,25 +25370,28 @@
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
       </c>
       <c r="F51" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H51" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="C52" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -24958,8 +25405,14 @@
       <c r="H52" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>111</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="C53" t="s">
         <v>36</v>
@@ -24979,8 +25432,11 @@
       <c r="H53" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="C54" t="s">
         <v>36</v>
@@ -25000,8 +25456,11 @@
       <c r="H54" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="C55" t="s">
         <v>46</v>
@@ -25016,10 +25475,13 @@
         <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="C56" t="s">
         <v>36</v>
@@ -25039,11 +25501,14 @@
       <c r="H56" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" t="s">
         <v>51</v>
@@ -25052,7 +25517,7 @@
         <v>36</v>
       </c>
       <c r="D58" s="73" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E58" t="s">
         <v>867</v>
@@ -25064,16 +25529,19 @@
         <v>2.5</v>
       </c>
       <c r="H58" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="I58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" t="s">
         <v>995</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E59" t="s">
         <v>1000</v>
@@ -25082,10 +25550,13 @@
         <v>92</v>
       </c>
       <c r="H59" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>36</v>
@@ -25100,10 +25571,13 @@
         <v>96</v>
       </c>
       <c r="H60" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" t="s">
         <v>36</v>
@@ -25118,16 +25592,19 @@
         <v>1001</v>
       </c>
       <c r="H61" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" t="s">
         <v>839</v>
       </c>
       <c r="D62" s="73" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E62" t="s">
         <v>867</v>
@@ -25136,16 +25613,19 @@
         <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" t="s">
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="E63" t="s">
         <v>870</v>
@@ -25154,13 +25634,16 @@
         <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+      <c r="I63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
@@ -25183,10 +25666,13 @@
         <v>0.2</v>
       </c>
       <c r="H65" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="C66" t="s">
         <v>36</v>
@@ -25204,10 +25690,13 @@
         <v>0.5</v>
       </c>
       <c r="H66" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+      <c r="I66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -25224,10 +25713,13 @@
         <v>0.2</v>
       </c>
       <c r="H67" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="C68" t="s">
         <v>36</v>
@@ -25245,10 +25737,13 @@
         <v>0.5</v>
       </c>
       <c r="H68" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+      <c r="I68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" t="s">
         <v>36</v>
@@ -25266,10 +25761,13 @@
         <v>0.2</v>
       </c>
       <c r="H69" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+      <c r="I69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" t="s">
         <v>36</v>
@@ -25287,10 +25785,13 @@
         <v>0.5</v>
       </c>
       <c r="H70" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" t="s">
         <v>36</v>
@@ -25308,10 +25809,13 @@
         <v>0.2</v>
       </c>
       <c r="H71" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="I71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" t="s">
         <v>36</v>
@@ -25329,10 +25833,13 @@
         <v>0.2</v>
       </c>
       <c r="H72" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" t="s">
         <v>46</v>
@@ -25350,13 +25857,13 @@
         <v>0.5</v>
       </c>
       <c r="H73" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" t="s">
         <v>57</v>
@@ -25379,8 +25886,11 @@
       <c r="H75" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" t="s">
         <v>36</v>
@@ -25398,10 +25908,13 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" t="s">
         <v>36</v>
@@ -25419,19 +25932,22 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" t="s">
         <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" t="s">
         <v>46</v>
@@ -25446,7 +25962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" t="s">
         <v>46</v>
@@ -25461,10 +25977,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" t="s">
         <v>56</v>
@@ -25473,7 +25989,7 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E82" t="s">
         <v>465</v>
@@ -25484,8 +26000,11 @@
       <c r="H82" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" t="s">
         <v>36</v>
@@ -25503,10 +26022,13 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1131</v>
+      </c>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" t="s">
         <v>46</v>
@@ -25518,13 +26040,16 @@
         <v>1008</v>
       </c>
       <c r="H84" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
         <v>376</v>
@@ -25544,12 +26069,15 @@
       <c r="H86" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="D87" s="36"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" t="s">
         <v>38</v>
@@ -25561,7 +26089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="C89" t="s">
         <v>36</v>
@@ -25579,10 +26107,13 @@
         <v>0.5</v>
       </c>
       <c r="H89" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>36</v>
       </c>
@@ -25599,14 +26130,17 @@
         <v>0.5</v>
       </c>
       <c r="H90" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+      <c r="I90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>17</v>
       </c>
@@ -25629,10 +26163,13 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="I92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="C93" s="24" t="s">
         <v>512</v>
@@ -25650,16 +26187,19 @@
         <v>0.5</v>
       </c>
       <c r="H93" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+      <c r="I93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="C94" s="24" t="s">
         <v>512</v>
       </c>
       <c r="D94" s="46" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="E94" s="46" t="s">
         <v>174</v>
@@ -25671,16 +26211,19 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1172</v>
+      </c>
+      <c r="I94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="C95" s="24" t="s">
         <v>512</v>
       </c>
       <c r="D95" s="46" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>174</v>
@@ -25692,16 +26235,19 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1173</v>
+      </c>
+      <c r="I95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="C96" s="24" t="s">
         <v>512</v>
       </c>
       <c r="D96" s="46" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>174</v>
@@ -25713,16 +26259,19 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+      <c r="I96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="C97" s="24" t="s">
         <v>512</v>
       </c>
       <c r="D97" s="46" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="E97" s="46" t="s">
         <v>174</v>
@@ -25734,10 +26283,13 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="I97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="C98" s="24" t="s">
         <v>512</v>
@@ -25757,8 +26309,11 @@
       <c r="H98" s="24" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="C99" s="24" t="s">
         <v>512</v>
@@ -25776,10 +26331,13 @@
         <v>0.1</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+      <c r="I99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="C100" s="24" t="s">
         <v>512</v>
@@ -25797,10 +26355,13 @@
         <v>0.5</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+      <c r="I100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="C101" s="24" t="s">
         <v>512</v>
@@ -25818,10 +26379,13 @@
         <v>0.5</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+      <c r="I101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="C102" s="24" t="s">
         <v>512</v>
@@ -25841,8 +26405,11 @@
       <c r="H102" s="24" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="C103" s="24" t="s">
         <v>512</v>
@@ -25860,10 +26427,13 @@
         <v>1</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+      <c r="I103" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="C104" s="24" t="s">
         <v>512</v>
@@ -25881,16 +26451,19 @@
         <v>1</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="C105" t="s">
         <v>46</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>922</v>
@@ -25902,19 +26475,22 @@
         <v>2</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="C106" s="24" t="s">
         <v>995</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F106" s="24" t="s">
         <v>997</v>
@@ -25923,14 +26499,17 @@
         <v>0.5</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="D107" s="24"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" t="s">
         <v>61</v>
@@ -25947,8 +26526,11 @@
       <c r="H108" s="24" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="C109" t="s">
         <v>36</v>
@@ -25965,8 +26547,11 @@
       <c r="H109" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="C110" t="s">
         <v>36</v>
@@ -25980,8 +26565,11 @@
       <c r="F110" s="24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="C111" t="s">
         <v>36</v>
@@ -25995,8 +26583,11 @@
       <c r="F111" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="C112" t="s">
         <v>46</v>
@@ -26007,8 +26598,11 @@
       <c r="E112" s="24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="C113" t="s">
         <v>46</v>
@@ -26019,11 +26613,14 @@
       <c r="E113" s="24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" t="s">
         <v>64</v>
@@ -26046,8 +26643,11 @@
       <c r="H115" s="24" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="C116" t="s">
         <v>36</v>
@@ -26061,8 +26661,11 @@
       <c r="F116" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="C117" t="s">
         <v>36</v>
@@ -26076,8 +26679,11 @@
       <c r="F117" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="C118" t="s">
         <v>36</v>
@@ -26095,10 +26701,13 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+      <c r="I118" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="C119" t="s">
         <v>46</v>
@@ -26116,27 +26725,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="C120" t="s">
         <v>36</v>
       </c>
       <c r="D120" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E120" s="24" t="s">
         <v>1033</v>
       </c>
-      <c r="E120" s="24" t="s">
-        <v>1034</v>
-      </c>
       <c r="H120" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+      <c r="I120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" t="s">
         <v>157</v>
@@ -26157,10 +26769,13 @@
         <v>1.5</v>
       </c>
       <c r="H122" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+      <c r="I122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="C123" t="s">
         <v>36</v>
@@ -26178,10 +26793,13 @@
         <v>1.5</v>
       </c>
       <c r="H123" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+      <c r="I123" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="C124" t="s">
         <v>36</v>
@@ -26199,10 +26817,13 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+      <c r="I124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="C125" t="s">
         <v>36</v>
@@ -26220,10 +26841,13 @@
         <v>1.5</v>
       </c>
       <c r="H125" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+      <c r="I125" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="C126" t="s">
         <v>46</v>
@@ -26239,10 +26863,13 @@
         <v>1.5</v>
       </c>
       <c r="H126" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+      <c r="I126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="C127" t="s">
         <v>46</v>
@@ -26258,10 +26885,13 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+      <c r="I127" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="C128" t="s">
         <v>995</v>
@@ -26276,15 +26906,18 @@
         <v>1001</v>
       </c>
       <c r="H128" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+      <c r="I128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" t="s">
         <v>126</v>
@@ -26301,12 +26934,15 @@
       <c r="F130" s="24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="E131" s="24"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" t="s">
         <v>62</v>
@@ -26315,7 +26951,7 @@
         <v>36</v>
       </c>
       <c r="D132" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E132" s="24" t="s">
         <v>890</v>
@@ -26327,19 +26963,22 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+      <c r="I132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="C133" t="s">
         <v>36</v>
       </c>
       <c r="D133" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>1036</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>1037</v>
       </c>
       <c r="F133" s="24" t="s">
         <v>1001</v>
@@ -26348,10 +26987,13 @@
         <v>0.5</v>
       </c>
       <c r="H133" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+      <c r="I133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="C134" s="24" t="s">
         <v>512</v>
@@ -26360,7 +27002,7 @@
         <v>919</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F134" t="s">
         <v>96</v>
@@ -26369,19 +27011,22 @@
         <v>1.5</v>
       </c>
       <c r="H134" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+      <c r="I134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="C135" s="24" t="s">
         <v>512</v>
       </c>
       <c r="D135" s="46" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F135" t="s">
         <v>93</v>
@@ -26390,16 +27035,19 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+      <c r="I135" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="C136" t="s">
         <v>36</v>
       </c>
       <c r="D136" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>890</v>
@@ -26411,10 +27059,13 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+      <c r="I136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="C137" t="s">
         <v>36</v>
@@ -26432,10 +27083,13 @@
         <v>0.5</v>
       </c>
       <c r="H137" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+      <c r="I137" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="C138" t="s">
         <v>46</v>
@@ -26453,10 +27107,13 @@
         <v>0.5</v>
       </c>
       <c r="H138" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+      <c r="I138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="C139" t="s">
         <v>46</v>
@@ -26468,14 +27125,17 @@
         <v>890</v>
       </c>
       <c r="H139" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+      <c r="I139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="E140" s="24"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" t="s">
         <v>38</v>
@@ -26484,7 +27144,7 @@
         <v>36</v>
       </c>
       <c r="D141" t="s">
-        <v>1015</v>
+        <v>1215</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>1013</v>
@@ -26493,10 +27153,13 @@
         <v>96</v>
       </c>
       <c r="H141" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+      <c r="I141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="C142" t="s">
         <v>46</v>
@@ -26511,10 +27174,13 @@
         <v>96</v>
       </c>
       <c r="H142" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+      <c r="I142" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>133</v>
       </c>
@@ -26608,10 +27274,10 @@
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>1029</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="8"/>
@@ -26623,10 +27289,10 @@
       <c r="A151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="8"/>
@@ -26706,7 +27372,7 @@
         <v>858</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -27049,14 +27715,14 @@
       <c r="B174" s="60"/>
       <c r="C174" s="60"/>
       <c r="D174" s="60" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="62" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G174" s="57" t="s">
         <v>1026</v>
-      </c>
-      <c r="G174" s="57" t="s">
-        <v>1027</v>
       </c>
       <c r="H174" s="53"/>
       <c r="I174" s="11"/>
@@ -27468,55 +28134,55 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
-  <conditionalFormatting sqref="I178:I1048576 I164:I165 I1:I11 I137:I144 I14:I135">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I178:I1048576 I164:I165 I1:I11 I138:I144 I14:I135">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:A152 B149 C149:F152 G145:XFD162 A153:F162 J163:XFD172 A163:A1048576 I174:I177 A1:A11 A137:A144 A68:A135 A14:A66">
-    <cfRule type="cellIs" dxfId="32" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150 A145:F148">
-    <cfRule type="cellIs" dxfId="31" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I166:I172">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I136:I137">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27577,13 +28243,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P296"/>
+  <dimension ref="A1:P311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -27658,12 +28324,14 @@
       <c r="E2" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -27672,13 +28340,19 @@
         <v>36</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>771</v>
       </c>
+      <c r="F3" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="G3">
         <v>0.25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -27690,10 +28364,16 @@
         <v>851</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>1140</v>
+        <v>1138</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="G4">
         <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -27702,13 +28382,19 @@
         <v>36</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>852</v>
       </c>
+      <c r="F5" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="G5">
         <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -27717,141 +28403,176 @@
         <v>36</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>1160</v>
+        <v>1155</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
+      <c r="D7" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>856</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>852</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>1096</v>
+      <c r="H8" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>856</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1105</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E10" t="s">
+        <v>852</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
       <c r="G10">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="E11" s="20"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E12" t="s">
-        <v>852</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E13" t="s">
         <v>852</v>
       </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
       <c r="G13">
         <v>0.5</v>
       </c>
+      <c r="H13" s="20" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>852</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>849</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>852</v>
-      </c>
-      <c r="G15">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>849</v>
+      </c>
       <c r="C16" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D16" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E16" t="s">
         <v>852</v>
       </c>
       <c r="G16">
         <v>0.5</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -27863,16 +28584,22 @@
         <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>1152</v>
+        <v>36</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>1155</v>
+        <v>1241</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="G18">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1266</v>
       </c>
       <c r="K18" s="78"/>
       <c r="L18" s="78"/>
@@ -27880,246 +28607,288 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>1155</v>
+        <v>1242</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="G19">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>1149</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>1155</v>
+        <v>1206</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>1.5</v>
-      </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>95</v>
+        <v>1149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>95</v>
+        <v>1149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D23" t="s">
-        <v>1227</v>
+        <v>1273</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>129</v>
       </c>
+      <c r="F23" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>129</v>
+        <v>46</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>1150</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>1152</v>
       </c>
-      <c r="D25" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>129</v>
+      <c r="E25" s="78" t="s">
+        <v>1150</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27">
-        <v>2</v>
-      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1229</v>
+        <v>1149</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1274</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1023</v>
+        <v>36</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>1233</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1024</v>
+        <v>41</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="G29">
         <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>1149</v>
       </c>
       <c r="D30" t="s">
-        <v>1225</v>
+        <v>1339</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>39</v>
+        <v>129</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" s="28"/>
-      <c r="E31" s="20"/>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="C32" s="28"/>
-      <c r="E32" s="20"/>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3"/>
+      <c r="C33" s="28"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="C34" s="28"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E34" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34">
-        <v>0.7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E35" s="71" t="s">
         <v>49</v>
@@ -28131,7 +28900,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -28139,13 +28908,19 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>835</v>
+        <v>49</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>777</v>
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>0.7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -28153,328 +28928,508 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>841</v>
+        <v>49</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>90</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>1112</v>
+        <v>864</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>1150</v>
+        <v>1243</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
       <c r="D39" t="s">
-        <v>1199</v>
+        <v>1148</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>835</v>
-      </c>
-      <c r="F39" s="20"/>
+        <v>841</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
       <c r="D40" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>868</v>
+        <v>841</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
       <c r="D41" t="s">
-        <v>1153</v>
+        <v>1281</v>
       </c>
       <c r="E41" s="71" t="s">
         <v>868</v>
       </c>
+      <c r="F41" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="E42" s="71"/>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>835</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="D44" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="E50" s="71"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="73" t="s">
-        <v>914</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E51" t="s">
+        <v>869</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>787</v>
+      </c>
+      <c r="E52" t="s">
         <v>151</v>
       </c>
-      <c r="H43" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="73" t="s">
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E53" t="s">
         <v>151</v>
       </c>
-      <c r="G44">
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53">
         <v>1</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H53" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="73" t="s">
-        <v>787</v>
-      </c>
-      <c r="E45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="C46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="73" t="s">
-        <v>696</v>
-      </c>
-      <c r="E46" t="s">
-        <v>869</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="D47" s="73"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D48" s="73" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E48" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="D55" s="73"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E56" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="D49" s="73" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E49" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="D50" s="73" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s">
-        <v>845</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="C54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="C56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>1099</v>
+        <v>46</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>1359</v>
       </c>
       <c r="E57" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="73" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="F59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
       <c r="C60" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="73" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="D61" s="20" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E63" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="D62" s="20" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="D63" s="20" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63">
+        <v>0.2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="D64" s="20"/>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64">
+        <v>0.2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
       <c r="C65" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>53</v>
+        <v>1226</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65">
+        <v>0.5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -28483,10 +29438,19 @@
         <v>36</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>1170</v>
+        <v>1098</v>
       </c>
       <c r="E66" t="s">
-        <v>1173</v>
+        <v>1164</v>
+      </c>
+      <c r="F66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -28495,10 +29459,19 @@
         <v>36</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="E67" t="s">
-        <v>1174</v>
+        <v>1164</v>
+      </c>
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -28507,240 +29480,326 @@
         <v>36</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1172</v>
+        <v>1294</v>
       </c>
       <c r="E68" t="s">
-        <v>1175</v>
+        <v>53</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1204</v>
+        <v>1166</v>
       </c>
       <c r="E70" t="s">
-        <v>1211</v>
+        <v>53</v>
+      </c>
+      <c r="F70" t="s">
+        <v>92</v>
       </c>
       <c r="G70">
         <v>0.5</v>
       </c>
+      <c r="H70" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="5"/>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
       <c r="D71" s="20" t="s">
-        <v>1205</v>
+        <v>1231</v>
       </c>
       <c r="E71" t="s">
-        <v>1211</v>
+        <v>53</v>
+      </c>
+      <c r="F71" t="s">
+        <v>92</v>
       </c>
       <c r="G71">
         <v>0.5</v>
       </c>
+      <c r="H71" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
       <c r="D72" s="20" t="s">
-        <v>1206</v>
+        <v>1063</v>
       </c>
       <c r="E72" t="s">
-        <v>1211</v>
+        <v>1165</v>
+      </c>
+      <c r="F72" t="s">
+        <v>91</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
+      <c r="H72" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
       <c r="D73" s="20" t="s">
-        <v>1207</v>
+        <v>1160</v>
       </c>
       <c r="E73" t="s">
-        <v>1211</v>
+        <v>1164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>93</v>
       </c>
       <c r="G73">
-        <v>0.4</v>
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="5"/>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
       <c r="D74" s="20" t="s">
-        <v>1208</v>
+        <v>1167</v>
       </c>
       <c r="E74" t="s">
-        <v>1211</v>
+        <v>1164</v>
+      </c>
+      <c r="F74" t="s">
+        <v>94</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
       <c r="D75" s="20" t="s">
-        <v>1209</v>
+        <v>1301</v>
       </c>
       <c r="E75" t="s">
-        <v>1211</v>
+        <v>1164</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
       </c>
       <c r="G75">
         <v>0.5</v>
       </c>
+      <c r="H75" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
       <c r="D76" s="20" t="s">
-        <v>1210</v>
+        <v>1305</v>
       </c>
       <c r="E76" t="s">
-        <v>1211</v>
+        <v>1164</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
       </c>
       <c r="G76">
         <v>0.5</v>
       </c>
+      <c r="H76" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="5"/>
       <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1198</v>
+        <v>46</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77">
+        <v>0.5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="5"/>
       <c r="C78" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1200</v>
+        <v>46</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="C79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1197</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
       <c r="C80" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="46" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>174</v>
+      <c r="D80" s="20" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E80" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" t="s">
+        <v>93</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="s">
-        <v>1185</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="5"/>
       <c r="C81" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="46" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E81" s="46" t="s">
-        <v>174</v>
+      <c r="D81" s="20" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>1186</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="5"/>
       <c r="C82" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="46" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>174</v>
+        <v>46</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>1187</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="5"/>
       <c r="C83" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="46" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E83" s="46" t="s">
-        <v>174</v>
+        <v>46</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1163</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="s">
-        <v>1188</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="C84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
       <c r="C85" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>923</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>922</v>
+      <c r="D85" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" t="s">
+        <v>91</v>
       </c>
       <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>1050</v>
+        <v>0.5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -28748,87 +29807,162 @@
       <c r="C86" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>922</v>
+      <c r="D86" s="20" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E86" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" t="s">
+        <v>91</v>
       </c>
       <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>1052</v>
+        <v>0.5</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="D87" s="24" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="H87" s="24"/>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" t="s">
+        <v>93</v>
+      </c>
+      <c r="G87">
+        <v>0.4</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="D88" s="24" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="H88" s="24"/>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88">
+        <v>0.4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="D89" s="24" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="H89" s="24"/>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F89" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89">
+        <v>0.5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1316</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F90" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" t="s">
-        <v>61</v>
-      </c>
       <c r="C91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>671</v>
+        <v>46</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E91" t="s">
+        <v>985</v>
+      </c>
+      <c r="F91" s="46"/>
+      <c r="H91" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="C92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>926</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="F92" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F92" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1317</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="C93" t="s">
         <v>36</v>
       </c>
-      <c r="D93" t="s">
-        <v>927</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>884</v>
+      <c r="D93" s="46" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F93" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -28836,11 +29970,20 @@
       <c r="C94" t="s">
         <v>36</v>
       </c>
-      <c r="D94" t="s">
-        <v>928</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>884</v>
+      <c r="D94" s="24" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -28848,33 +29991,62 @@
       <c r="C95" t="s">
         <v>36</v>
       </c>
-      <c r="D95" t="s">
-        <v>929</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>884</v>
+      <c r="D95" s="46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F95" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G95">
+        <v>1.5</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G96">
+        <v>1.5</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" t="s">
-        <v>64</v>
-      </c>
       <c r="C97" t="s">
-        <v>839</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F97" s="24"/>
-      <c r="H97" s="24" t="s">
-        <v>1192</v>
+        <v>36</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E97" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F97" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -28883,10 +30055,19 @@
         <v>36</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>310</v>
+        <v>1011</v>
+      </c>
+      <c r="E98" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F98" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -28895,37 +30076,61 @@
         <v>36</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>310</v>
+        <v>1186</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99">
+        <v>0.5</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E100" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>1325</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" t="s">
-        <v>157</v>
-      </c>
       <c r="C101" t="s">
         <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>937</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F101" s="24"/>
+        <v>1185</v>
+      </c>
+      <c r="E101" t="s">
+        <v>322</v>
+      </c>
+      <c r="F101" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="G101">
-        <v>1.5</v>
-      </c>
-      <c r="H101" t="s">
-        <v>1068</v>
+        <v>0.5</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -28934,17 +30139,13 @@
         <v>36</v>
       </c>
       <c r="D102" t="s">
-        <v>938</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="F102" s="24"/>
-      <c r="G102">
-        <v>1.5</v>
-      </c>
-      <c r="H102" t="s">
-        <v>1069</v>
+        <v>1183</v>
+      </c>
+      <c r="E102" t="s">
+        <v>322</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -28953,929 +30154,1230 @@
         <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>940</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F103" s="24"/>
+        <v>1329</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F103" t="s">
+        <v>96</v>
+      </c>
       <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>1070</v>
+        <v>0.5</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
       <c r="D104" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="F104" s="24"/>
+        <v>1342</v>
+      </c>
+      <c r="E104" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="D105" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F105" s="24"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
+      <c r="B106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
       <c r="D106" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>939</v>
+        <v>170</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="E107" s="24"/>
+      <c r="C107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" t="s">
-        <v>126</v>
-      </c>
       <c r="C108" t="s">
         <v>36</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>1190</v>
+      <c r="D108" t="s">
+        <v>1330</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>890</v>
+        <v>884</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>1135</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="D109" s="24" t="s">
-        <v>1212</v>
+      <c r="C109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" t="s">
+        <v>929</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>884</v>
       </c>
+      <c r="F109" s="24" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="D110" s="24" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>884</v>
-      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
+      <c r="B111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" t="s">
+        <v>839</v>
+      </c>
       <c r="D111" s="24" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E111" s="24"/>
+        <v>1177</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="D112" s="24"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114">
+        <v>0.5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" t="s">
+        <v>937</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>938</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117">
+        <v>1.5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>940</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="C119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G119">
+        <v>1.5</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F120" s="24"/>
+      <c r="G120">
+        <v>1.5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="D121" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" s="24"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="C123" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="C124" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="D125" s="24"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C126" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D113" s="46" t="s">
+      <c r="D126" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="E113" s="24" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G113">
+      <c r="E126" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126">
         <v>1.5</v>
       </c>
-      <c r="H113" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="C114" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D114" s="46" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G114">
+      <c r="H126" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s">
+        <v>891</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G127">
+        <v>0.5</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="C128" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" t="s">
+        <v>892</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F129" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129">
+        <v>0.5</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="E130" s="24"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F131" t="s">
+        <v>94</v>
+      </c>
+      <c r="G131">
         <v>1</v>
       </c>
-      <c r="H114" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="C115" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" t="s">
-        <v>891</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="F115" s="24"/>
-      <c r="G115">
+      <c r="H131" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="C132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s">
+        <v>942</v>
+      </c>
+      <c r="E132" t="s">
+        <v>887</v>
+      </c>
+      <c r="F132" t="s">
+        <v>94</v>
+      </c>
+      <c r="G132">
         <v>0.5</v>
       </c>
-      <c r="H115" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="C116" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" t="s">
-        <v>892</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="E117" s="24"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" t="s">
-        <v>38</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F118" s="24"/>
-      <c r="H118" t="s">
+      <c r="H132" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="D119" t="s">
-        <v>942</v>
-      </c>
-      <c r="E119" t="s">
-        <v>887</v>
-      </c>
-      <c r="H119" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
         <v>133</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D133" t="s">
         <v>943</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E133" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
+    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="8"/>
-    </row>
-    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="8"/>
-    </row>
-    <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="8"/>
-    </row>
-    <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-    </row>
-    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2" t="s">
-        <v>1136</v>
-      </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-    </row>
-    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="2" t="s">
-        <v>1221</v>
-      </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-    </row>
-    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J136" s="8"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="B137" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="2" t="s">
-        <v>1222</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-    </row>
-    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+      <c r="J137" s="8"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="2" t="s">
-        <v>1223</v>
-      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
+      <c r="J138" s="8"/>
     </row>
     <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>1224</v>
-      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+      <c r="J139" s="8"/>
     </row>
     <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="B140" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>1236</v>
+      </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
+      <c r="J140" s="8"/>
     </row>
     <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>1237</v>
+      </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
+      <c r="J141" s="8"/>
     </row>
     <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>1238</v>
+      </c>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="J142" s="8"/>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
-      <c r="B143" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J143" s="13"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="8"/>
     </row>
     <row r="144" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="56" t="s">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="8"/>
+    </row>
+    <row r="145" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="8"/>
+    </row>
+    <row r="146" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="8"/>
+    </row>
+    <row r="147" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="8"/>
+    </row>
+    <row r="148" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="8"/>
+    </row>
+    <row r="149" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+    </row>
+    <row r="151" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+    </row>
+    <row r="154" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+    </row>
+    <row r="157" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+    </row>
+    <row r="158" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J158" s="13"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56" t="s">
+      <c r="E159" s="56"/>
+      <c r="F159" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G144" s="57" t="s">
+      <c r="G159" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="H144" s="58"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="53"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="53" t="s">
+      <c r="H159" s="58"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E145" s="53"/>
-      <c r="F145" s="53" t="s">
+      <c r="E160" s="53"/>
+      <c r="F160" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G145" s="59" t="s">
+      <c r="G160" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H145" s="75" t="s">
-        <v>875</v>
-      </c>
-      <c r="I145" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J145" s="13"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-    </row>
-    <row r="146" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="60" t="s">
+      <c r="H160" s="75" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J160" s="13"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E146" s="60"/>
-      <c r="F146" s="53" t="s">
+      <c r="E161" s="60"/>
+      <c r="F161" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G146" s="57" t="s">
+      <c r="G161" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H146" s="58"/>
-      <c r="I146" s="23" t="s">
+      <c r="H161" s="58" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I161" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="J146" s="13"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-    </row>
-    <row r="147" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="60"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60" t="s">
+      <c r="J161" s="13"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E147" s="60"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="57" t="s">
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H147" s="60"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="13"/>
-    </row>
-    <row r="148" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="53" t="s">
+      <c r="H162" s="60"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="13"/>
+    </row>
+    <row r="163" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C148" s="53"/>
-      <c r="D148" s="53" t="s">
+      <c r="C163" s="53"/>
+      <c r="D163" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E148" s="53"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="59" t="s">
+      <c r="E163" s="53"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H148" s="53"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="13"/>
-    </row>
-    <row r="149" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="60" t="s">
+      <c r="H163" s="53"/>
+      <c r="I163" s="23"/>
+      <c r="J163" s="13"/>
+    </row>
+    <row r="164" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C149" s="60"/>
-      <c r="D149" s="20" t="s">
+      <c r="C164" s="60"/>
+      <c r="D164" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E149" s="60"/>
-      <c r="F149" s="53" t="s">
+      <c r="E164" s="60"/>
+      <c r="F164" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G149" s="57" t="s">
+      <c r="G164" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H149" s="60"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="13"/>
-    </row>
-    <row r="150" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="53"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53" t="s">
+      <c r="H164" s="60"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="13"/>
+    </row>
+    <row r="165" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E150" s="53"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="59" t="s">
+      <c r="E165" s="53"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H150" s="53"/>
-      <c r="I150" s="23" t="s">
+      <c r="H165" s="53"/>
+      <c r="I165" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J150" s="13"/>
-    </row>
-    <row r="151" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="60"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60" t="s">
+      <c r="J165" s="13"/>
+    </row>
+    <row r="166" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="E151" s="60"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="57" t="s">
+      <c r="E166" s="60"/>
+      <c r="F166" s="62"/>
+      <c r="G166" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H151" s="60"/>
-      <c r="I151" s="23" t="s">
+      <c r="H166" s="60"/>
+      <c r="I166" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J151" s="13"/>
-    </row>
-    <row r="152" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60" t="s">
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E152" s="60"/>
-      <c r="F152" s="62">
+      <c r="E167" s="60"/>
+      <c r="F167" s="62">
         <v>42326</v>
       </c>
-      <c r="G152" s="57" t="s">
+      <c r="G167" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H152" s="60"/>
-      <c r="I152" s="23" t="s">
+      <c r="H167" s="60" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J167" s="13"/>
+    </row>
+    <row r="168" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E168" s="60"/>
+      <c r="F168" s="62">
+        <v>42326</v>
+      </c>
+      <c r="G168" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H168" s="60" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I168" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="J152" s="13"/>
-    </row>
-    <row r="153" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E153" s="60"/>
-      <c r="F153" s="62">
-        <v>42326</v>
-      </c>
-      <c r="G153" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H153" s="60"/>
-      <c r="I153" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J153" s="13"/>
-    </row>
-    <row r="154" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60" t="s">
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="E154" s="60"/>
-      <c r="F154" s="62" t="s">
+      <c r="E169" s="60"/>
+      <c r="F169" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G154" s="57" t="s">
+      <c r="G169" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="H154" s="60"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="13"/>
-    </row>
-    <row r="155" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60" t="s">
+      <c r="H169" s="60"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="13"/>
+    </row>
+    <row r="170" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E170" s="60"/>
+      <c r="F170" s="62" t="s">
         <v>1025</v>
       </c>
-      <c r="E155" s="60"/>
-      <c r="F155" s="62" t="s">
+      <c r="G170" s="57" t="s">
         <v>1026</v>
       </c>
-      <c r="G155" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H155" s="53"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="13"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="23"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="23"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B160" s="23"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="23"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="23"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="23"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H170" s="53"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="13"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="23"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
+      <c r="I172" s="23"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
+      <c r="I173" s="23"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="23"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="23"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
+      <c r="I176" s="23"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -30190,79 +31692,125 @@
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
     </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="7"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="7"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="7"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="7"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="7"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="7"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="7"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="7"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="7"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="7"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="7"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="Hiragana"/>
-  <conditionalFormatting sqref="I156:I1048576 I109:I112 I121 I1:I96">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I171:I1048576 I134 I1:I132">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="11" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A133 B126 C126:F133 A144:A1048576 J144:XFD155 A109:A112 A101:A105 A117:A121 G122:XFD143 A141:F143 A134:C140 E134:F140 D134:D139 A1:A96">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A139:A148 B139 C139:F148 A159:A1048576 J159:XFD170 A156:F158 A123:A134 A149:F154 E155:F155 A155:C155 G135:XFD158 A1:A62 A64:A120">
+    <cfRule type="cellIs" dxfId="10" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127 A122:F125">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B140 A135:F138">
+    <cfRule type="cellIs" dxfId="9" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145:I146">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
+  <conditionalFormatting sqref="I160:I161">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I155">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I170">
+    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147:I153">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I147)))</formula>
+  <conditionalFormatting sqref="I162:I168">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I147)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I162)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A100 A106:A108">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A121:A122">
+    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:A116">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B156:B1048576 B106:B118 B120:B143 B1:B28 B29:B102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B171:B1048576 B121:B131 B133:B158 B1:B23 B25:B117">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I156:I1048576 I1:I28 I29:I121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I171:I1048576 I1:I134">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F156:F1048576 F37 F40:F121 F1:F28 F29:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F171:F1048576 F39 F1:F37 F41 F44:F134">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C156:C1048576 C115:C121 C33:C112 C1:C28 C29:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C171:C1048576 C1:C32 C127:C134 C35:C125">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I98)))</xm:f>
+          <x14:cfRule type="containsText" priority="102" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I120)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -30274,8 +31822,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I98)))</xm:f>
+          <x14:cfRule type="containsText" priority="103" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I120)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -30287,123 +31835,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I97:I104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I102)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I102)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I106:I107 I113:I116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="45" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I110)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="46" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I110)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="53" operator="containsText" text="阻碍" id="{EECFC08C-8079-E849-9E32-01E34E0D6932}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I103)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="54" operator="containsText" text="未完成" id="{1FF32205-634A-834A-BDC2-E84E766E439A}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I103)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" text="阻碍" id="{F588D845-A603-704B-8E24-CD0AD0BE5516}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160127'!I117)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="64" operator="containsText" text="未完成" id="{D1525447-53F3-F54E-96D0-A6AB3DE9EC40}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160127'!I117)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I117:I120</xm:sqref>
+          <xm:sqref>I133</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
